--- a/data/input/base_funding_tracker.xlsx
+++ b/data/input/base_funding_tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/panlilioj_who_int/Documents/covid19_vaccination_analysis/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{D5254A32-F093-4EA6-BC20-FC2E28D07CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4093454C-F47C-4434-8429-7735D4BEC646}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B6BB9124-47B9-4F54-92A8-6F92B0BC56CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7291669D-3436-4729-8BD4-FA13523EEF49}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="3" xr2:uid="{7AD3A49B-7938-47E2-9067-2612B2635868}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{7AD3A49B-7938-47E2-9067-2612B2635868}"/>
   </bookViews>
   <sheets>
     <sheet name="Country Deep Dives" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Country Deep Dives'!$A$1:$M$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Gavi Country Groups'!$A$2:$G$229</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'One Budget &amp; CDS '!$A$1:$L$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'One Budget tracker'!$B$1:$Y$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'One Budget tracker'!$A$1:$X$35</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -3160,12 +3160,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,,\ &quot;M&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,\ &quot;K&quot;"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,,\ &quot;M&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,\ &quot;K&quot;"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -4049,16 +4049,16 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4076,9 +4076,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4258,9 +4258,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4632,7 +4629,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="2" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6579,11 +6576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FC8A75-388D-4700-A62B-F6EDA7361E53}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
@@ -6591,17 +6587,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="150" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="154" customWidth="1"/>
-    <col min="3" max="3" width="13" style="169" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" style="161" customWidth="1"/>
-    <col min="5" max="5" width="12.1328125" style="176" customWidth="1"/>
-    <col min="6" max="7" width="15.265625" style="176" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" style="161" customWidth="1"/>
-    <col min="9" max="9" width="15.1328125" style="106" customWidth="1"/>
-    <col min="10" max="10" width="16.1328125" style="106" customWidth="1"/>
-    <col min="11" max="11" width="13.86328125" style="106" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" style="106" customWidth="1"/>
+    <col min="1" max="1" width="9" style="149" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="153" customWidth="1"/>
+    <col min="3" max="3" width="13" style="168" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" style="160" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" style="175" customWidth="1"/>
+    <col min="6" max="7" width="15.265625" style="175" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" style="160" customWidth="1"/>
+    <col min="9" max="9" width="15.1328125" style="105" customWidth="1"/>
+    <col min="10" max="10" width="16.1328125" style="105" customWidth="1"/>
+    <col min="11" max="11" width="13.86328125" style="105" customWidth="1"/>
+    <col min="12" max="12" width="14.3984375" style="105" customWidth="1"/>
     <col min="13" max="13" width="13.59765625" style="40" customWidth="1"/>
     <col min="14" max="14" width="16.1328125" style="40" customWidth="1"/>
     <col min="15" max="15" width="18.265625" style="40" customWidth="1"/>
@@ -6616,1148 +6612,1121 @@
     <col min="16384" max="16384" width="9.1328125" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="110" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="185" t="s">
+    <row r="1" spans="1:15" s="109" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="248" t="s">
+      <c r="D1" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="187" t="s">
+      <c r="E1" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="209" t="s">
+      <c r="F1" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="209" t="s">
+      <c r="G1" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="185" t="s">
+      <c r="H1" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="185" t="s">
+      <c r="I1" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="185" t="s">
+      <c r="J1" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="185" t="s">
+      <c r="K1" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="188" t="s">
+      <c r="L1" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="188" t="s">
+      <c r="M1" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-    </row>
-    <row r="2" spans="1:15" s="110" customFormat="1" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="149" t="s">
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+    </row>
+    <row r="2" spans="1:15" s="109" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="224">
+      <c r="C2" s="223">
         <v>0.1</v>
       </c>
-      <c r="D2" s="160">
+      <c r="D2" s="159">
         <v>0.27</v>
       </c>
-      <c r="E2" s="224">
+      <c r="E2" s="223">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F2" s="224">
+      <c r="F2" s="223">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G2" s="224"/>
-      <c r="H2" s="227" t="s">
+      <c r="G2" s="223"/>
+      <c r="H2" s="226" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="234" t="s">
+      <c r="K2" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="106" t="s">
+      <c r="L2" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="148" t="s">
+      <c r="M2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="168">
+      <c r="C3" s="167">
         <v>0.03</v>
       </c>
-      <c r="D3" s="160">
+      <c r="D3" s="159">
         <v>0.12</v>
       </c>
-      <c r="E3" s="160">
+      <c r="E3" s="159">
         <v>0.13</v>
       </c>
-      <c r="F3" s="160">
+      <c r="F3" s="159">
         <v>0.15</v>
       </c>
-      <c r="G3" s="160"/>
-      <c r="H3" s="181" t="s">
+      <c r="G3" s="159"/>
+      <c r="H3" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="156" t="s">
+      <c r="J3" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="156"/>
-      <c r="L3" s="157"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="156"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:15" s="245" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A4" s="219" t="s">
+    <row r="4" spans="1:15" s="244" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="246" t="s">
+      <c r="C4" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="247">
+      <c r="D4" s="246">
         <v>0</v>
       </c>
-      <c r="E4" s="247">
+      <c r="E4" s="246">
         <v>0</v>
       </c>
-      <c r="F4" s="247">
+      <c r="F4" s="246">
         <v>0</v>
       </c>
-      <c r="G4" s="247"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="243"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="243"/>
-      <c r="M4" s="244"/>
-      <c r="N4" s="218"/>
-      <c r="O4" s="218"/>
+      <c r="G4" s="246"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
     </row>
     <row r="5" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="168">
+      <c r="C5" s="167">
         <v>0.02</v>
       </c>
-      <c r="D5" s="160">
+      <c r="D5" s="159">
         <v>0.06</v>
       </c>
-      <c r="E5" s="160">
+      <c r="E5" s="159">
         <v>0.06</v>
       </c>
-      <c r="F5" s="160">
+      <c r="F5" s="159">
         <v>0.06</v>
       </c>
-      <c r="G5" s="160"/>
-      <c r="H5" s="181" t="s">
+      <c r="G5" s="159"/>
+      <c r="H5" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="156" t="s">
+      <c r="I5" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
       <c r="M5" s="41"/>
     </row>
-    <row r="6" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="151" t="s">
+    <row r="6" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="170">
+      <c r="C6" s="169">
         <v>0.1</v>
       </c>
-      <c r="D6" s="162">
+      <c r="D6" s="161">
         <v>0.27</v>
       </c>
-      <c r="E6" s="162">
+      <c r="E6" s="161">
         <v>0.31</v>
       </c>
-      <c r="F6" s="160">
+      <c r="F6" s="159">
         <v>0.35</v>
       </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="167" t="s">
+      <c r="G6" s="161"/>
+      <c r="H6" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="184"/>
-    </row>
-    <row r="7" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="150" t="s">
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="183"/>
+    </row>
+    <row r="7" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="190" t="s">
+      <c r="B7" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="168">
+      <c r="C7" s="167">
         <v>0.01</v>
       </c>
-      <c r="D7" s="160">
+      <c r="D7" s="159">
         <v>0.23</v>
       </c>
-      <c r="E7" s="160">
+      <c r="E7" s="159">
         <v>0.23</v>
       </c>
-      <c r="F7" s="160">
+      <c r="F7" s="159">
         <v>0.24</v>
       </c>
-      <c r="G7" s="160"/>
-      <c r="H7" s="161" t="s">
+      <c r="G7" s="159"/>
+      <c r="H7" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="148"/>
-    </row>
-    <row r="8" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="152" t="s">
+      <c r="L7" s="147"/>
+    </row>
+    <row r="8" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="171">
+      <c r="C8" s="170">
         <v>0.08</v>
       </c>
-      <c r="D8" s="163">
+      <c r="D8" s="162">
         <v>0.41</v>
       </c>
-      <c r="E8" s="163">
+      <c r="E8" s="162">
         <v>0.41</v>
       </c>
-      <c r="F8" s="162">
+      <c r="F8" s="161">
         <v>0.41</v>
       </c>
-      <c r="G8" s="164"/>
-      <c r="H8" s="200" t="s">
+      <c r="G8" s="163"/>
+      <c r="H8" s="199" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="183"/>
-    </row>
-    <row r="9" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="150" t="s">
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="182"/>
+    </row>
+    <row r="9" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="168">
+      <c r="C9" s="167">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D9" s="160">
+      <c r="D9" s="159">
         <v>0.23</v>
       </c>
-      <c r="E9" s="160">
+      <c r="E9" s="159">
         <v>0.23</v>
       </c>
-      <c r="F9" s="160">
+      <c r="F9" s="159">
         <v>0.25</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="181" t="s">
+      <c r="G9" s="159"/>
+      <c r="H9" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
       <c r="M9" s="41"/>
     </row>
     <row r="10" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="161">
         <v>0.04</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="161">
         <v>0.05</v>
       </c>
-      <c r="F10" s="162">
+      <c r="F10" s="161">
         <v>0.06</v>
       </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="228" t="s">
+      <c r="G10" s="161"/>
+      <c r="H10" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="107" t="s">
+      <c r="I10" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="107" t="s">
+      <c r="J10" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="107" t="s">
+      <c r="K10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="107"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="151" t="s">
+    <row r="11" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="191" t="s">
+      <c r="B11" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="170">
+      <c r="C11" s="169">
         <v>0.04</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="161">
         <v>0.37</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="161">
         <v>0.37</v>
       </c>
-      <c r="F11" s="162">
+      <c r="F11" s="161">
         <v>0.37</v>
       </c>
-      <c r="G11" s="162"/>
-      <c r="H11" s="179" t="s">
+      <c r="G11" s="161"/>
+      <c r="H11" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="107" t="s">
+      <c r="J11" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="107" t="s">
+      <c r="K11" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="158" t="s">
+      <c r="L11" s="157" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="194" t="s">
+      <c r="A12" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="195" t="s">
+      <c r="B12" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="199">
+      <c r="C12" s="198">
         <v>0.1</v>
       </c>
-      <c r="D12" s="196">
+      <c r="D12" s="195">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E12" s="196">
+      <c r="E12" s="195">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F12" s="196">
+      <c r="F12" s="195">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="217"/>
-      <c r="M12" s="218"/>
-    </row>
-    <row r="13" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="150" t="s">
+      <c r="G12" s="195"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="217"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="190" t="s">
+      <c r="B13" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="168">
+      <c r="C13" s="167">
         <v>0.08</v>
       </c>
-      <c r="D13" s="160">
+      <c r="D13" s="159">
         <v>0.36</v>
       </c>
-      <c r="E13" s="160">
+      <c r="E13" s="159">
         <v>0.37</v>
       </c>
-      <c r="F13" s="160">
+      <c r="F13" s="159">
         <v>0.38</v>
       </c>
-      <c r="G13" s="160"/>
-      <c r="H13" s="161" t="s">
+      <c r="G13" s="159"/>
+      <c r="H13" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="106" t="s">
+      <c r="I13" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="106" t="s">
+      <c r="J13" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="148"/>
-    </row>
-    <row r="14" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="150" t="s">
+      <c r="L13" s="147"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="168">
+      <c r="C14" s="167">
         <v>0.08</v>
       </c>
-      <c r="D14" s="160">
+      <c r="D14" s="159">
         <v>0.35</v>
       </c>
-      <c r="E14" s="160">
+      <c r="E14" s="159">
         <v>0.39</v>
       </c>
-      <c r="F14" s="160">
+      <c r="F14" s="159">
         <v>0.4</v>
       </c>
-      <c r="G14" s="160"/>
-      <c r="H14" s="161" t="s">
+      <c r="G14" s="159"/>
+      <c r="H14" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="148"/>
-    </row>
-    <row r="15" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="150" t="s">
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="147"/>
+    </row>
+    <row r="15" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="189" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="168">
+      <c r="C15" s="167">
         <v>0.01</v>
       </c>
-      <c r="D15" s="160">
+      <c r="D15" s="159">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E15" s="160">
+      <c r="E15" s="159">
         <v>0.3</v>
       </c>
-      <c r="F15" s="160">
+      <c r="F15" s="159">
         <v>0.33</v>
       </c>
-      <c r="G15" s="160"/>
-      <c r="H15" s="181" t="s">
+      <c r="G15" s="159"/>
+      <c r="H15" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="148"/>
-    </row>
-    <row r="16" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="219" t="s">
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="147"/>
+    </row>
+    <row r="16" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="225">
+      <c r="C16" s="224">
         <v>0.01</v>
       </c>
-      <c r="D16" s="226">
+      <c r="D16" s="225">
         <v>0.02</v>
       </c>
-      <c r="E16" s="226">
+      <c r="E16" s="225">
         <v>0.03</v>
       </c>
-      <c r="F16" s="226">
+      <c r="F16" s="225">
         <v>0.03</v>
       </c>
-      <c r="G16" s="226"/>
-      <c r="H16" s="229"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="231"/>
-      <c r="K16" s="231"/>
-      <c r="L16" s="235"/>
-      <c r="M16" s="218"/>
-    </row>
-    <row r="17" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="150" t="s">
+      <c r="G16" s="225"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="230"/>
+      <c r="J16" s="230"/>
+      <c r="K16" s="230"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="217"/>
+    </row>
+    <row r="17" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="168">
+      <c r="C17" s="167">
         <v>0.08</v>
       </c>
-      <c r="D17" s="160">
+      <c r="D17" s="159">
         <v>0.24</v>
       </c>
-      <c r="E17" s="160">
+      <c r="E17" s="159">
         <v>0.25</v>
       </c>
-      <c r="F17" s="160">
+      <c r="F17" s="159">
         <v>0.25</v>
       </c>
-      <c r="G17" s="160"/>
-      <c r="H17" s="161" t="s">
+      <c r="G17" s="159"/>
+      <c r="H17" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="106" t="s">
+      <c r="I17" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="106" t="s">
+      <c r="J17" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="106" t="s">
+      <c r="K17" s="105" t="s">
         <v>32</v>
       </c>
       <c r="M17" s="41"/>
     </row>
     <row r="18" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="173">
+      <c r="C18" s="172">
         <v>0.03</v>
       </c>
-      <c r="D18" s="164">
+      <c r="D18" s="163">
         <v>0.05</v>
       </c>
-      <c r="E18" s="164">
+      <c r="E18" s="163">
         <v>0.05</v>
       </c>
-      <c r="F18" s="164">
+      <c r="F18" s="163">
         <v>0.06</v>
       </c>
-      <c r="G18" s="164"/>
-      <c r="H18" s="180" t="s">
+      <c r="G18" s="163"/>
+      <c r="H18" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="238"/>
-    </row>
-    <row r="19" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="150" t="s">
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="237"/>
+    </row>
+    <row r="19" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="190" t="s">
+      <c r="B19" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="168">
+      <c r="C19" s="167">
         <v>0.04</v>
       </c>
-      <c r="D19" s="160">
+      <c r="D19" s="159">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E19" s="160">
+      <c r="E19" s="159">
         <v>0.16</v>
       </c>
-      <c r="F19" s="160">
+      <c r="F19" s="159">
         <v>0.2</v>
       </c>
-      <c r="G19" s="160"/>
-      <c r="H19" s="239" t="s">
+      <c r="G19" s="159"/>
+      <c r="H19" s="238" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
       <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="150" t="s">
+      <c r="A20" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="190" t="s">
+      <c r="B20" s="189" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="168">
+      <c r="C20" s="167">
         <v>0.03</v>
       </c>
-      <c r="D20" s="160">
+      <c r="D20" s="159">
         <v>0.11</v>
       </c>
-      <c r="E20" s="160">
+      <c r="E20" s="159">
         <v>0.11</v>
       </c>
-      <c r="F20" s="160">
+      <c r="F20" s="159">
         <v>0.12</v>
       </c>
-      <c r="G20" s="160"/>
-      <c r="H20" s="181" t="s">
+      <c r="G20" s="159"/>
+      <c r="H20" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
       <c r="M20" s="41"/>
     </row>
     <row r="21" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="168">
+      <c r="C21" s="167">
         <v>0.04</v>
       </c>
-      <c r="D21" s="160">
+      <c r="D21" s="159">
         <v>0.15</v>
       </c>
-      <c r="E21" s="160">
+      <c r="E21" s="159">
         <v>0.15</v>
       </c>
-      <c r="F21" s="160">
+      <c r="F21" s="159">
         <v>0.15</v>
       </c>
-      <c r="G21" s="160"/>
-      <c r="H21" s="181" t="s">
+      <c r="G21" s="159"/>
+      <c r="H21" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="156" t="s">
+      <c r="I21" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
       <c r="M21" s="41"/>
     </row>
-    <row r="22" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="150" t="s">
+    <row r="22" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="168">
+      <c r="C22" s="167">
         <v>0.02</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="159">
         <v>0.2</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="159">
         <v>0.21</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="159">
         <v>0.27</v>
       </c>
-      <c r="G22" s="160"/>
-      <c r="H22" s="161" t="s">
+      <c r="G22" s="159"/>
+      <c r="H22" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="106" t="s">
+      <c r="I22" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="106" t="s">
+      <c r="J22" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="106" t="s">
+      <c r="K22" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="106" t="s">
+      <c r="L22" s="105" t="s">
         <v>80</v>
       </c>
       <c r="M22" s="41"/>
     </row>
     <row r="23" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="190" t="s">
+      <c r="B23" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="168">
+      <c r="C23" s="167">
         <v>0.02</v>
       </c>
-      <c r="D23" s="160">
+      <c r="D23" s="159">
         <v>0.04</v>
       </c>
-      <c r="E23" s="160">
+      <c r="E23" s="159">
         <v>0.04</v>
       </c>
-      <c r="F23" s="160">
+      <c r="F23" s="159">
         <v>0.04</v>
       </c>
-      <c r="G23" s="160"/>
-      <c r="H23" s="181" t="s">
+      <c r="G23" s="159"/>
+      <c r="H23" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="156" t="s">
+      <c r="I23" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
       <c r="M23" s="41"/>
     </row>
     <row r="24" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="190" t="s">
+      <c r="B24" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="167">
         <v>0.06</v>
       </c>
-      <c r="D24" s="160">
+      <c r="D24" s="159">
         <v>0.09</v>
       </c>
-      <c r="E24" s="160">
+      <c r="E24" s="159">
         <v>0.09</v>
       </c>
-      <c r="F24" s="160">
+      <c r="F24" s="159">
         <v>0.09</v>
       </c>
-      <c r="G24" s="160"/>
-      <c r="H24" s="181" t="s">
+      <c r="G24" s="159"/>
+      <c r="H24" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="106" t="s">
+      <c r="J24" s="105" t="s">
         <v>86</v>
       </c>
       <c r="M24" s="41"/>
     </row>
-    <row r="25" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="150" t="s">
+    <row r="25" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="190" t="s">
+      <c r="B25" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="168">
+      <c r="C25" s="167">
         <v>0.05</v>
       </c>
-      <c r="D25" s="160">
+      <c r="D25" s="159">
         <v>0.36</v>
       </c>
-      <c r="E25" s="160">
+      <c r="E25" s="159">
         <v>0.36</v>
       </c>
-      <c r="F25" s="160">
+      <c r="F25" s="159">
         <v>0.4</v>
       </c>
-      <c r="G25" s="160"/>
-      <c r="H25" s="161" t="s">
+      <c r="G25" s="159"/>
+      <c r="H25" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="106" t="s">
+      <c r="I25" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="106" t="s">
+      <c r="J25" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="106" t="s">
+      <c r="K25" s="105" t="s">
         <v>89</v>
       </c>
       <c r="M25" s="41"/>
     </row>
-    <row r="26" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="151" t="s">
+    <row r="26" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="191" t="s">
+      <c r="B26" s="190" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="170">
+      <c r="C26" s="169">
         <v>0.09</v>
       </c>
-      <c r="D26" s="162">
+      <c r="D26" s="161">
         <v>0.44</v>
       </c>
-      <c r="E26" s="162">
+      <c r="E26" s="161">
         <v>0.45</v>
       </c>
-      <c r="F26" s="162">
+      <c r="F26" s="161">
         <v>0.46</v>
       </c>
-      <c r="G26" s="162"/>
-      <c r="H26" s="201" t="s">
+      <c r="G26" s="161"/>
+      <c r="H26" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="107" t="s">
+      <c r="I26" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="158"/>
-    </row>
-    <row r="27" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="152" t="s">
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="157"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="221" t="s">
+      <c r="B27" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="171">
+      <c r="C27" s="170">
         <v>0.05</v>
       </c>
-      <c r="D27" s="163">
+      <c r="D27" s="162">
         <v>0.22</v>
       </c>
-      <c r="E27" s="163">
+      <c r="E27" s="162">
         <v>0.24</v>
       </c>
-      <c r="F27" s="163">
+      <c r="F27" s="162">
         <v>0.39</v>
       </c>
-      <c r="G27" s="163"/>
-      <c r="H27" s="200" t="s">
+      <c r="G27" s="162"/>
+      <c r="H27" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="240" t="s">
+      <c r="I27" s="239" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="240" t="s">
+      <c r="J27" s="239" t="s">
         <v>94</v>
       </c>
-      <c r="K27" s="240"/>
-      <c r="L27" s="159"/>
-    </row>
-    <row r="28" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="150" t="s">
+      <c r="K27" s="239"/>
+      <c r="L27" s="158"/>
+    </row>
+    <row r="28" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="190" t="s">
+      <c r="B28" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="168">
+      <c r="C28" s="167">
         <v>0.02</v>
       </c>
-      <c r="D28" s="160">
+      <c r="D28" s="159">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E28" s="160">
+      <c r="E28" s="159">
         <v>0.17</v>
       </c>
-      <c r="F28" s="160">
+      <c r="F28" s="159">
         <v>0.19</v>
       </c>
-      <c r="G28" s="160"/>
-      <c r="H28" s="181" t="s">
+      <c r="G28" s="159"/>
+      <c r="H28" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="241" t="s">
+      <c r="I28" s="240" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
       <c r="M28" s="41"/>
     </row>
     <row r="29" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="189" t="s">
+      <c r="B29" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="173">
+      <c r="C29" s="172">
         <v>0.03</v>
       </c>
-      <c r="D29" s="164">
+      <c r="D29" s="163">
         <v>0.15</v>
       </c>
-      <c r="E29" s="164">
+      <c r="E29" s="163">
         <v>0.15</v>
       </c>
-      <c r="F29" s="164">
+      <c r="F29" s="163">
         <v>0.15</v>
       </c>
-      <c r="G29" s="164"/>
-      <c r="H29" s="180" t="s">
+      <c r="G29" s="163"/>
+      <c r="H29" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="108" t="s">
+      <c r="I29" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="108" t="s">
+      <c r="J29" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="108" t="s">
+      <c r="K29" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="108" t="s">
+      <c r="L29" s="107" t="s">
         <v>101</v>
       </c>
       <c r="M29" s="41"/>
     </row>
-    <row r="30" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="150" t="s">
+    <row r="30" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="168">
+      <c r="C30" s="167">
         <v>0.05</v>
       </c>
-      <c r="D30" s="160">
+      <c r="D30" s="159">
         <v>0.17</v>
       </c>
-      <c r="E30" s="160">
+      <c r="E30" s="159">
         <v>0.17</v>
       </c>
-      <c r="F30" s="160">
+      <c r="F30" s="159">
         <v>0.17</v>
       </c>
-      <c r="G30" s="160"/>
-      <c r="H30" s="161" t="s">
+      <c r="G30" s="159"/>
+      <c r="H30" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
       <c r="M30" s="41"/>
     </row>
-    <row r="31" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="150" t="s">
+    <row r="31" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="190" t="s">
+      <c r="B31" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="168">
+      <c r="C31" s="167">
         <v>0.02</v>
       </c>
-      <c r="D31" s="160">
+      <c r="D31" s="159">
         <v>0.31</v>
       </c>
-      <c r="E31" s="160">
+      <c r="E31" s="159">
         <v>0.34</v>
       </c>
-      <c r="F31" s="160">
+      <c r="F31" s="159">
         <v>0.4</v>
       </c>
-      <c r="G31" s="160"/>
-      <c r="H31" s="161" t="s">
+      <c r="G31" s="159"/>
+      <c r="H31" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="156" t="s">
+      <c r="I31" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
       <c r="M31" s="41"/>
     </row>
-    <row r="32" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="149" t="s">
+    <row r="32" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="189" t="s">
+      <c r="B32" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="173">
+      <c r="C32" s="172">
         <v>0.1</v>
       </c>
-      <c r="D32" s="164">
+      <c r="D32" s="163">
         <v>0.19</v>
       </c>
-      <c r="E32" s="164">
+      <c r="E32" s="163">
         <v>0.19</v>
       </c>
-      <c r="F32" s="164">
+      <c r="F32" s="163">
         <v>0.19</v>
       </c>
-      <c r="G32" s="164"/>
-      <c r="H32" s="180" t="s">
+      <c r="G32" s="163"/>
+      <c r="H32" s="179" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="178" t="s">
+      <c r="I32" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="108"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="107"/>
       <c r="M32" s="41"/>
     </row>
-    <row r="33" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="153" t="s">
+    <row r="33" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="193" t="s">
+      <c r="B33" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="174">
+      <c r="C33" s="173">
         <v>0.03</v>
       </c>
-      <c r="D33" s="165">
+      <c r="D33" s="164">
         <v>0.4</v>
       </c>
-      <c r="E33" s="165">
+      <c r="E33" s="164">
         <v>0.4</v>
       </c>
-      <c r="F33" s="165">
+      <c r="F33" s="164">
         <v>0.41</v>
       </c>
-      <c r="G33" s="165"/>
-      <c r="H33" s="230" t="s">
+      <c r="G33" s="164"/>
+      <c r="H33" s="229" t="s">
         <v>101</v>
       </c>
-      <c r="I33" s="232"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="232"/>
-      <c r="L33" s="109"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="231"/>
+      <c r="L33" s="108"/>
       <c r="M33" s="41"/>
     </row>
-    <row r="34" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="150" t="s">
+    <row r="34" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="168">
+      <c r="C34" s="167">
         <v>0.01</v>
       </c>
-      <c r="D34" s="160">
+      <c r="D34" s="159">
         <v>0.02</v>
       </c>
-      <c r="E34" s="160">
+      <c r="E34" s="159">
         <v>0.02</v>
       </c>
-      <c r="F34" s="160">
+      <c r="F34" s="159">
         <v>0.03</v>
       </c>
-      <c r="G34" s="160"/>
-      <c r="H34" s="161" t="s">
+      <c r="G34" s="159"/>
+      <c r="H34" s="160" t="s">
         <v>110</v>
       </c>
       <c r="M34" s="41"/>
     </row>
-    <row r="35" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="220" t="s">
+    <row r="35" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="219" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="223" t="s">
+      <c r="B35" s="222" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="175">
+      <c r="C35" s="174">
         <v>0.04</v>
       </c>
-      <c r="D35" s="166">
+      <c r="D35" s="165">
         <v>0.43</v>
       </c>
-      <c r="E35" s="166">
+      <c r="E35" s="165">
         <v>0.43</v>
       </c>
-      <c r="F35" s="166">
+      <c r="F35" s="165">
         <v>0.45</v>
       </c>
-      <c r="G35" s="166"/>
-      <c r="H35" s="182" t="s">
+      <c r="G35" s="165"/>
+      <c r="H35" s="181" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="233"/>
-      <c r="J35" s="233"/>
-      <c r="K35" s="233"/>
-      <c r="L35" s="236"/>
-      <c r="M35" s="237"/>
+      <c r="I35" s="232"/>
+      <c r="J35" s="232"/>
+      <c r="K35" s="232"/>
+      <c r="L35" s="235"/>
+      <c r="M35" s="236"/>
       <c r="N35" s="47"/>
       <c r="O35" s="47"/>
     </row>
     <row r="36" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="151"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
+      <c r="A36" s="150"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="166"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
       <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="151"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
+      <c r="A37" s="150"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="166"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
     </row>
     <row r="1048576" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G1048576" s="161"/>
+      <c r="G1048576" s="160"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M35" xr:uid="{12FC8A75-388D-4700-A62B-F6EDA7361E53}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Burkina Faso"/>
-        <filter val="Burundi"/>
-        <filter val="Cameroon"/>
-        <filter val="DRC"/>
-        <filter val="Gabon"/>
-        <filter val="Madagascar"/>
-        <filter val="Mali"/>
-        <filter val="Niger"/>
-        <filter val="PNG"/>
-        <filter val="Senegal"/>
-        <filter val="Sudan"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="0%"/>
-        <filter val="12%"/>
-        <filter val="14%"/>
-        <filter val="15%"/>
-        <filter val="3%"/>
-        <filter val="4%"/>
-        <filter val="6%"/>
-        <filter val="9%"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M35">
       <sortCondition ref="B1:B35"/>
     </sortState>
@@ -7785,7 +7754,7 @@
       <c r="A1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7793,7 +7762,7 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="112">
+      <c r="B2" s="111">
         <v>0.21251470586497501</v>
       </c>
     </row>
@@ -7809,7 +7778,7 @@
       <c r="A4" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="112">
+      <c r="B4" s="111">
         <v>0.14780003869463099</v>
       </c>
     </row>
@@ -7833,7 +7802,7 @@
       <c r="A7" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="111">
         <v>0.23240393677749599</v>
       </c>
     </row>
@@ -7921,7 +7890,7 @@
       <c r="A18" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="112">
+      <c r="B18" s="111">
         <v>0.73341413878513295</v>
       </c>
     </row>
@@ -7961,7 +7930,7 @@
       <c r="A23" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="112">
+      <c r="B23" s="111">
         <v>0.22189562161805401</v>
       </c>
     </row>
@@ -7977,7 +7946,7 @@
       <c r="A25" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="112">
+      <c r="B25" s="111">
         <v>0.87283309659827202</v>
       </c>
     </row>
@@ -7985,7 +7954,7 @@
       <c r="A26" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="112">
+      <c r="B26" s="111">
         <v>0.52348128218050805</v>
       </c>
     </row>
@@ -8041,7 +8010,7 @@
       <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="112">
+      <c r="B33" s="111">
         <v>7.8473308940661998E-2</v>
       </c>
     </row>
@@ -8049,7 +8018,7 @@
       <c r="A34" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="112">
+      <c r="B34" s="111">
         <v>1.41975499681097E-3</v>
       </c>
     </row>
@@ -8057,7 +8026,7 @@
       <c r="A35" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="112">
+      <c r="B35" s="111">
         <v>0.55404892560437502</v>
       </c>
     </row>
@@ -8065,7 +8034,7 @@
       <c r="A36" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="112">
+      <c r="B36" s="111">
         <v>0.86292237587673604</v>
       </c>
     </row>
@@ -8073,7 +8042,7 @@
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="112">
+      <c r="B37" s="111">
         <v>4.6209008160706597E-2</v>
       </c>
     </row>
@@ -8089,7 +8058,7 @@
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="112">
+      <c r="B39" s="111">
         <v>0.25787952089614202</v>
       </c>
     </row>
@@ -8105,7 +8074,7 @@
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="112">
+      <c r="B41" s="111">
         <v>0.12745277813087899</v>
       </c>
     </row>
@@ -8145,7 +8114,7 @@
       <c r="A46" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="112">
+      <c r="B46" s="111">
         <v>0.43931872203458799</v>
       </c>
     </row>
@@ -8153,7 +8122,7 @@
       <c r="A47" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="112">
+      <c r="B47" s="111">
         <v>0.118540900134412</v>
       </c>
     </row>
@@ -8174,7 +8143,7 @@
       <c r="A50" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="112">
+      <c r="B50" s="111">
         <v>0.31728884156711701</v>
       </c>
     </row>
@@ -8230,7 +8199,7 @@
       <c r="A57" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="112">
+      <c r="B57" s="111">
         <v>0.19298886639676099</v>
       </c>
     </row>
@@ -8238,7 +8207,7 @@
       <c r="A58" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="112">
+      <c r="B58" s="111">
         <v>0.424580850384075</v>
       </c>
     </row>
@@ -8254,13 +8223,13 @@
       <c r="A60" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="112"/>
+      <c r="B60" s="111"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="112">
+      <c r="B61" s="111">
         <v>2.7592365876626501E-2</v>
       </c>
     </row>
@@ -8276,7 +8245,7 @@
       <c r="A63" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="112">
+      <c r="B63" s="111">
         <v>0.37980236832180098</v>
       </c>
     </row>
@@ -8284,7 +8253,7 @@
       <c r="A64" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="112">
+      <c r="B64" s="111">
         <v>0.66545460712388804</v>
       </c>
     </row>
@@ -8300,7 +8269,7 @@
       <c r="A66" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="112"/>
+      <c r="B66" s="111"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
@@ -8314,7 +8283,7 @@
       <c r="A68" t="s">
         <v>175</v>
       </c>
-      <c r="B68" s="112">
+      <c r="B68" s="111">
         <v>0.29486176092345501</v>
       </c>
     </row>
@@ -8322,7 +8291,7 @@
       <c r="A69" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="112">
+      <c r="B69" s="111">
         <v>0.319295505982294</v>
       </c>
     </row>
@@ -8330,7 +8299,7 @@
       <c r="A70" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="112">
+      <c r="B70" s="111">
         <v>0.70963528158448097</v>
       </c>
     </row>
@@ -8378,7 +8347,7 @@
       <c r="A76" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="112">
+      <c r="B76" s="111">
         <v>0.147885435649414</v>
       </c>
     </row>
@@ -8402,7 +8371,7 @@
       <c r="A79" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="112">
+      <c r="B79" s="111">
         <v>0.257806052468804</v>
       </c>
     </row>
@@ -8418,7 +8387,7 @@
       <c r="A81" t="s">
         <v>185</v>
       </c>
-      <c r="B81" s="112">
+      <c r="B81" s="111">
         <v>0.343814153550829</v>
       </c>
     </row>
@@ -8450,7 +8419,7 @@
       <c r="A85" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="112">
+      <c r="B85" s="111">
         <v>0.20651308422921399</v>
       </c>
     </row>
@@ -8458,7 +8427,7 @@
       <c r="A86" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="112">
+      <c r="B86" s="111">
         <v>0.17397806200301699</v>
       </c>
     </row>
@@ -8466,7 +8435,7 @@
       <c r="A87" t="s">
         <v>190</v>
       </c>
-      <c r="B87" s="112">
+      <c r="B87" s="111">
         <v>0.47326940876127699</v>
       </c>
     </row>
@@ -8474,7 +8443,7 @@
       <c r="A88" t="s">
         <v>60</v>
       </c>
-      <c r="B88" s="112">
+      <c r="B88" s="111">
         <v>1.4259907978300901E-2</v>
       </c>
     </row>
@@ -8482,7 +8451,7 @@
       <c r="A89" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="112">
+      <c r="B89" s="111">
         <v>0.55465703990072501</v>
       </c>
     </row>
@@ -8511,7 +8480,7 @@
       <c r="A93" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="112">
+      <c r="B93" s="111">
         <v>0.67866948335819899</v>
       </c>
     </row>
@@ -8519,7 +8488,7 @@
       <c r="A94" t="s">
         <v>196</v>
       </c>
-      <c r="B94" s="112">
+      <c r="B94" s="111">
         <v>0.62282172235841504</v>
       </c>
     </row>
@@ -8599,7 +8568,7 @@
       <c r="A104" t="s">
         <v>61</v>
       </c>
-      <c r="B104" s="112">
+      <c r="B104" s="111">
         <v>0.17345339788722899</v>
       </c>
     </row>
@@ -8607,7 +8576,7 @@
       <c r="A105" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="112">
+      <c r="B105" s="111">
         <v>0.51884067677418799</v>
       </c>
     </row>
@@ -8615,7 +8584,7 @@
       <c r="A106" t="s">
         <v>207</v>
       </c>
-      <c r="B106" s="112">
+      <c r="B106" s="111">
         <v>0.45880859803549201</v>
       </c>
     </row>
@@ -8631,7 +8600,7 @@
       <c r="A108" t="s">
         <v>209</v>
       </c>
-      <c r="B108" s="112">
+      <c r="B108" s="111">
         <v>0.19708083347038699</v>
       </c>
     </row>
@@ -8639,7 +8608,7 @@
       <c r="A109" t="s">
         <v>210</v>
       </c>
-      <c r="B109" s="112">
+      <c r="B109" s="111">
         <v>0.70605946483844495</v>
       </c>
     </row>
@@ -8663,7 +8632,7 @@
       <c r="A112" t="s">
         <v>213</v>
       </c>
-      <c r="B112" s="112">
+      <c r="B112" s="111">
         <v>0.407357408032399</v>
       </c>
     </row>
@@ -8671,7 +8640,7 @@
       <c r="A113" t="s">
         <v>214</v>
       </c>
-      <c r="B113" s="112">
+      <c r="B113" s="111">
         <v>0.46031471735761897</v>
       </c>
     </row>
@@ -8708,7 +8677,7 @@
       <c r="A118" t="s">
         <v>65</v>
       </c>
-      <c r="B118" s="112">
+      <c r="B118" s="111">
         <v>4.84589623971209E-2</v>
       </c>
     </row>
@@ -8716,7 +8685,7 @@
       <c r="A119" t="s">
         <v>68</v>
       </c>
-      <c r="B119" s="112">
+      <c r="B119" s="111">
         <v>0.10102084939889</v>
       </c>
     </row>
@@ -8732,7 +8701,7 @@
       <c r="A121" t="s">
         <v>220</v>
       </c>
-      <c r="B121" s="112">
+      <c r="B121" s="111">
         <v>0.71185139415107701</v>
       </c>
     </row>
@@ -8740,7 +8709,7 @@
       <c r="A122" t="s">
         <v>70</v>
       </c>
-      <c r="B122" s="112">
+      <c r="B122" s="111">
         <v>7.3985104711494998E-2</v>
       </c>
     </row>
@@ -8756,7 +8725,7 @@
       <c r="A124" t="s">
         <v>222</v>
       </c>
-      <c r="B124" s="112">
+      <c r="B124" s="111">
         <v>0.49121532587762201</v>
       </c>
     </row>
@@ -8769,7 +8738,7 @@
       <c r="A126" t="s">
         <v>224</v>
       </c>
-      <c r="B126" s="112">
+      <c r="B126" s="111">
         <v>0.30329004842936802</v>
       </c>
     </row>
@@ -8793,7 +8762,7 @@
       <c r="A129" t="s">
         <v>227</v>
       </c>
-      <c r="B129" s="112">
+      <c r="B129" s="111">
         <v>0.53503212400998001</v>
       </c>
     </row>
@@ -8809,7 +8778,7 @@
       <c r="A131" t="s">
         <v>229</v>
       </c>
-      <c r="B131" s="112">
+      <c r="B131" s="111">
         <v>0.66412916489999296</v>
       </c>
     </row>
@@ -8833,7 +8802,7 @@
       <c r="A134" t="s">
         <v>232</v>
       </c>
-      <c r="B134" s="112">
+      <c r="B134" s="111">
         <v>0.63585421082746996</v>
       </c>
     </row>
@@ -8841,7 +8810,7 @@
       <c r="A135" t="s">
         <v>233</v>
       </c>
-      <c r="B135" s="112">
+      <c r="B135" s="111">
         <v>0.45107818848145897</v>
       </c>
     </row>
@@ -8849,7 +8818,7 @@
       <c r="A136" t="s">
         <v>234</v>
       </c>
-      <c r="B136" s="112">
+      <c r="B136" s="111">
         <v>0.50625675889269905</v>
       </c>
     </row>
@@ -8873,7 +8842,7 @@
       <c r="A139" t="s">
         <v>237</v>
       </c>
-      <c r="B139" s="112">
+      <c r="B139" s="111">
         <v>0.70839540830965397</v>
       </c>
     </row>
@@ -8905,7 +8874,7 @@
       <c r="A143" t="s">
         <v>241</v>
       </c>
-      <c r="B143" s="112">
+      <c r="B143" s="111">
         <v>0.84985525063272105</v>
       </c>
     </row>
@@ -8913,7 +8882,7 @@
       <c r="A144" t="s">
         <v>72</v>
       </c>
-      <c r="B144" s="112">
+      <c r="B144" s="111">
         <v>0.123364849749515</v>
       </c>
     </row>
@@ -8921,7 +8890,7 @@
       <c r="A145" t="s">
         <v>75</v>
       </c>
-      <c r="B145" s="112">
+      <c r="B145" s="111">
         <v>0.119703639265527</v>
       </c>
     </row>
@@ -8958,7 +8927,7 @@
       <c r="A150" t="s">
         <v>246</v>
       </c>
-      <c r="B150" s="112">
+      <c r="B150" s="111">
         <v>0.59316840955191097</v>
       </c>
     </row>
@@ -8982,7 +8951,7 @@
       <c r="A153" t="s">
         <v>249</v>
       </c>
-      <c r="B153" s="112">
+      <c r="B153" s="111">
         <v>3.1609393246290599E-2</v>
       </c>
     </row>
@@ -9006,7 +8975,7 @@
       <c r="A156" t="s">
         <v>252</v>
       </c>
-      <c r="B156" s="112">
+      <c r="B156" s="111">
         <v>0.65911396673794298</v>
       </c>
     </row>
@@ -9046,7 +9015,7 @@
       <c r="A161" t="s">
         <v>257</v>
       </c>
-      <c r="B161" s="112">
+      <c r="B161" s="111">
         <v>0.26463975995813499</v>
       </c>
     </row>
@@ -9075,7 +9044,7 @@
       <c r="A165" t="s">
         <v>261</v>
       </c>
-      <c r="B165" s="112">
+      <c r="B165" s="111">
         <v>0.80980446746649803</v>
       </c>
     </row>
@@ -9096,7 +9065,7 @@
       <c r="A168" t="s">
         <v>264</v>
       </c>
-      <c r="B168" s="112">
+      <c r="B168" s="111">
         <v>0.29739090656602701</v>
       </c>
     </row>
@@ -9104,7 +9073,7 @@
       <c r="A169" t="s">
         <v>265</v>
       </c>
-      <c r="B169" s="112">
+      <c r="B169" s="111">
         <v>0.28093564088696499</v>
       </c>
     </row>
@@ -9112,7 +9081,7 @@
       <c r="A170" t="s">
         <v>266</v>
       </c>
-      <c r="B170" s="112">
+      <c r="B170" s="111">
         <v>0.87758424304736504</v>
       </c>
     </row>
@@ -9128,7 +9097,7 @@
       <c r="A172" t="s">
         <v>268</v>
       </c>
-      <c r="B172" s="112">
+      <c r="B172" s="111">
         <v>0.45916891389356501</v>
       </c>
     </row>
@@ -9144,7 +9113,7 @@
       <c r="A174" t="s">
         <v>84</v>
       </c>
-      <c r="B174" s="112">
+      <c r="B174" s="111">
         <v>6.3984989901114495E-2</v>
       </c>
     </row>
@@ -9168,7 +9137,7 @@
       <c r="A177" t="s">
         <v>87</v>
       </c>
-      <c r="B177" s="112">
+      <c r="B177" s="111">
         <v>0.27207391566460598</v>
       </c>
     </row>
@@ -9208,7 +9177,7 @@
       <c r="A182" t="s">
         <v>90</v>
       </c>
-      <c r="B182" s="112">
+      <c r="B182" s="111">
         <v>0.27958578158757502</v>
       </c>
     </row>
@@ -9216,7 +9185,7 @@
       <c r="A183" t="s">
         <v>92</v>
       </c>
-      <c r="B183" s="112">
+      <c r="B183" s="111">
         <v>0.128388441311648</v>
       </c>
     </row>
@@ -9232,7 +9201,7 @@
       <c r="A185" t="s">
         <v>95</v>
       </c>
-      <c r="B185" s="112">
+      <c r="B185" s="111">
         <v>0.13143319136391099</v>
       </c>
     </row>
@@ -9248,7 +9217,7 @@
       <c r="A187" t="s">
         <v>278</v>
       </c>
-      <c r="B187" s="112">
+      <c r="B187" s="111">
         <v>0.67989299521992197</v>
       </c>
     </row>
@@ -9256,7 +9225,7 @@
       <c r="A188" t="s">
         <v>98</v>
       </c>
-      <c r="B188" s="112">
+      <c r="B188" s="111">
         <v>0.103467287703372</v>
       </c>
     </row>
@@ -9288,7 +9257,7 @@
       <c r="A192" t="s">
         <v>102</v>
       </c>
-      <c r="B192" s="112">
+      <c r="B192" s="111">
         <v>0.10941211467591599</v>
       </c>
     </row>
@@ -9296,7 +9265,7 @@
       <c r="A193" t="s">
         <v>282</v>
       </c>
-      <c r="B193" s="112">
+      <c r="B193" s="111">
         <v>0.52788928332600404</v>
       </c>
     </row>
@@ -9304,7 +9273,7 @@
       <c r="A194" t="s">
         <v>103</v>
       </c>
-      <c r="B194" s="112">
+      <c r="B194" s="111">
         <v>0.24734873067225799</v>
       </c>
     </row>
@@ -9320,7 +9289,7 @@
       <c r="A196" t="s">
         <v>284</v>
       </c>
-      <c r="B196" s="112">
+      <c r="B196" s="111">
         <v>0.55806802710769099</v>
       </c>
     </row>
@@ -9328,7 +9297,7 @@
       <c r="A197" t="s">
         <v>285</v>
       </c>
-      <c r="B197" s="112">
+      <c r="B197" s="111">
         <v>0.188137447268443</v>
       </c>
     </row>
@@ -9336,7 +9305,7 @@
       <c r="A198" t="s">
         <v>286</v>
       </c>
-      <c r="B198" s="112">
+      <c r="B198" s="111">
         <v>0.72436728322058697</v>
       </c>
     </row>
@@ -9352,7 +9321,7 @@
       <c r="A200" t="s">
         <v>288</v>
       </c>
-      <c r="B200" s="112">
+      <c r="B200" s="111">
         <v>0.53976619434131801</v>
       </c>
     </row>
@@ -9384,7 +9353,7 @@
       <c r="A204" t="s">
         <v>292</v>
       </c>
-      <c r="B204" s="112">
+      <c r="B204" s="111">
         <v>0.59252035278154602</v>
       </c>
     </row>
@@ -9400,7 +9369,7 @@
       <c r="A206" t="s">
         <v>108</v>
       </c>
-      <c r="B206" s="112">
+      <c r="B206" s="111">
         <v>0.27185203858760698</v>
       </c>
     </row>
@@ -9416,7 +9385,7 @@
       <c r="A208" t="s">
         <v>295</v>
       </c>
-      <c r="B208" s="112">
+      <c r="B208" s="111">
         <v>0.34649610155852301</v>
       </c>
     </row>
@@ -9445,7 +9414,7 @@
       <c r="A212" t="s">
         <v>299</v>
       </c>
-      <c r="B212" s="112">
+      <c r="B212" s="111">
         <v>0.47190056744411402</v>
       </c>
     </row>
@@ -9453,7 +9422,7 @@
       <c r="A213" t="s">
         <v>300</v>
       </c>
-      <c r="B213" s="112">
+      <c r="B213" s="111">
         <v>0.42522912630842102</v>
       </c>
     </row>
@@ -9469,7 +9438,7 @@
       <c r="A215" t="s">
         <v>302</v>
       </c>
-      <c r="B215" s="112">
+      <c r="B215" s="111">
         <v>0.83256441415689797</v>
       </c>
     </row>
@@ -9485,7 +9454,7 @@
       <c r="A217" t="s">
         <v>304</v>
       </c>
-      <c r="B217" s="112">
+      <c r="B217" s="111">
         <v>0.34763087253847602</v>
       </c>
     </row>
@@ -9493,7 +9462,7 @@
       <c r="A218" t="s">
         <v>109</v>
       </c>
-      <c r="B218" s="112">
+      <c r="B218" s="111">
         <v>1.5182845389339301E-2</v>
       </c>
     </row>
@@ -9501,7 +9470,7 @@
       <c r="A219" t="s">
         <v>111</v>
       </c>
-      <c r="B219" s="112">
+      <c r="B219" s="111">
         <v>0.29375833437364202</v>
       </c>
     </row>
@@ -9509,7 +9478,7 @@
       <c r="A220" t="s">
         <v>305</v>
       </c>
-      <c r="B220" s="112">
+      <c r="B220" s="111">
         <v>0.316388820934561</v>
       </c>
     </row>
@@ -9520,2152 +9489,2160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C93465-3509-43FC-8B1D-55C3E4001FB1}">
-  <dimension ref="A1:Y69"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:F1"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="18" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" style="54" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" style="54" customWidth="1"/>
-    <col min="3" max="4" width="21" style="54" customWidth="1"/>
-    <col min="5" max="5" width="24.86328125" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="71" customWidth="1"/>
-    <col min="7" max="7" width="61.1328125" style="71" customWidth="1"/>
-    <col min="8" max="8" width="32.3984375" style="62" customWidth="1"/>
-    <col min="9" max="9" width="42.86328125" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="25.3984375" style="54" customWidth="1"/>
-    <col min="11" max="11" width="35.1328125" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="35.1328125" style="62" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="35.1328125" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="15" width="25.86328125" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="78.59765625" style="54" customWidth="1"/>
-    <col min="17" max="17" width="75.59765625" style="54" customWidth="1"/>
-    <col min="18" max="18" width="27" style="75" customWidth="1"/>
-    <col min="19" max="19" width="31.3984375" style="76" customWidth="1"/>
-    <col min="20" max="20" width="23.86328125" style="76" customWidth="1"/>
-    <col min="21" max="22" width="23.86328125" style="75" customWidth="1"/>
-    <col min="23" max="23" width="43.3984375" style="54" customWidth="1"/>
-    <col min="24" max="24" width="36.59765625" style="54" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="61.3984375" style="54" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.59765625" style="54" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1328125" style="54"/>
+    <col min="1" max="1" width="23.86328125" style="54" customWidth="1"/>
+    <col min="2" max="3" width="21" style="54" customWidth="1"/>
+    <col min="4" max="4" width="24.86328125" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="71" customWidth="1"/>
+    <col min="6" max="6" width="61.1328125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="32.3984375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="42.86328125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="25.3984375" style="54" customWidth="1"/>
+    <col min="10" max="10" width="35.1328125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="35.1328125" style="62" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="35.1328125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="25.86328125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="78.59765625" style="54" customWidth="1"/>
+    <col min="16" max="16" width="75.59765625" style="54" customWidth="1"/>
+    <col min="17" max="17" width="27" style="74" customWidth="1"/>
+    <col min="18" max="18" width="31.3984375" style="75" customWidth="1"/>
+    <col min="19" max="19" width="23.86328125" style="75" customWidth="1"/>
+    <col min="20" max="21" width="23.86328125" style="74" customWidth="1"/>
+    <col min="22" max="22" width="43.3984375" style="54" customWidth="1"/>
+    <col min="23" max="23" width="36.59765625" style="54" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="61.3984375" style="54" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.59765625" style="54" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1328125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="62" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="115" t="s">
+    <row r="1" spans="1:24" s="62" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="B1" s="118" t="s">
         <v>306</v>
       </c>
+      <c r="C1" s="53" t="s">
+        <v>307</v>
+      </c>
       <c r="D1" s="53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="53" t="s">
         <v>311</v>
       </c>
+      <c r="H1" s="69" t="s">
+        <v>312</v>
+      </c>
       <c r="I1" s="69" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J1" s="69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K1" s="69" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N1" s="69" t="s">
-        <v>317</v>
-      </c>
-      <c r="O1" s="69" t="s">
         <v>318</v>
       </c>
+      <c r="O1" s="53" t="s">
+        <v>319</v>
+      </c>
       <c r="P1" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="T1" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="U1" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="V1" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="W1" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="X1" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="Q1" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="R1" s="53" t="s">
-        <v>321</v>
-      </c>
-      <c r="S1" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="T1" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="U1" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="V1" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="W1" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="X1" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y1" s="53" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="2:25" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="113" t="s">
+    </row>
+    <row r="2" spans="1:24" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="56" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="E2" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="99"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="68">
-        <f t="shared" ref="M2:M35" si="0">IF(OR(H2=$C$60,H2=$C$59, J2=$C$60, J2=$C$59),1,0)</f>
+      <c r="K2" s="98"/>
+      <c r="L2" s="68">
+        <f t="shared" ref="L2:L35" si="0">IF(OR(G2=$B$60,G2=$B$59, I2=$B$60, I2=$B$59),1,0)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B2,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M2" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A2,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.21251470586497501</v>
       </c>
-      <c r="O2" s="120">
-        <f t="shared" ref="O2:O35" si="1">IF(N2&lt;0.121, 1, 0)</f>
+      <c r="N2" s="119">
+        <f t="shared" ref="N2:N35" si="1">IF(M2&lt;0.121, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="O2" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="P2" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="57"/>
       <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="T2" s="38"/>
       <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="56" t="s">
+      <c r="V2" s="55"/>
+      <c r="W2" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y2" s="58"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="116" t="s">
+      <c r="X2" s="58"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="C3" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="F3" s="67" t="s">
         <v>330</v>
       </c>
+      <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56">
+      <c r="L3" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N3" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B3,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M3" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A3,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>7.8473308940661998E-2</v>
       </c>
-      <c r="O3" s="120">
+      <c r="N3" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="50" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="R3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="57"/>
       <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
+      <c r="T3" s="38"/>
       <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56" t="s">
+      <c r="V3" s="55"/>
+      <c r="W3" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y3" s="39"/>
-    </row>
-    <row r="4" spans="2:25" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="117" t="s">
+      <c r="X3" s="39"/>
+    </row>
+    <row r="4" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="F4" s="48" t="s">
         <v>330</v>
       </c>
+      <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56">
+      <c r="L4" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B4,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M4" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A4,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>1.41975499681097E-3</v>
       </c>
-      <c r="O4" s="120">
+      <c r="N4" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="O4" s="100" t="s">
+        <v>336</v>
+      </c>
       <c r="P4" s="101" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q4" s="102" t="s">
         <v>337</v>
       </c>
-      <c r="R4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="57"/>
       <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
+      <c r="T4" s="38"/>
       <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="56" t="s">
+      <c r="V4" s="55"/>
+      <c r="W4" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y4" s="39"/>
-    </row>
-    <row r="5" spans="2:25" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="117" t="s">
+      <c r="X4" s="39"/>
+    </row>
+    <row r="5" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="C5" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="E5" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="F5" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="G5" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="J5" s="70" t="s">
         <v>342</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N5" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B5,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M5" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A5,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.31728884156711701</v>
       </c>
-      <c r="O5" s="120">
+      <c r="N5" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="O5" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="Q5" s="50" t="s">
+      <c r="P5" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="R5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="57"/>
       <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
+      <c r="T5" s="38"/>
       <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="56" t="s">
+      <c r="V5" s="55"/>
+      <c r="W5" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y5" s="39"/>
-    </row>
-    <row r="6" spans="2:25" ht="194.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="113" t="s">
+      <c r="X5" s="39"/>
+    </row>
+    <row r="6" spans="1:24" ht="194.45" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="C6" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="D6" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="56" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="J6" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="56">
+      <c r="K6" s="70"/>
+      <c r="L6" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N6" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B6,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M6" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A6,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>4.6209008160706597E-2</v>
       </c>
-      <c r="O6" s="120">
+      <c r="N6" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="O6" s="52" t="s">
         <v>347</v>
       </c>
-      <c r="Q6" s="50" t="s">
+      <c r="P6" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="R6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="57"/>
       <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="56" t="s">
+      <c r="V6" s="55"/>
+      <c r="W6" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y6" s="39"/>
-    </row>
-    <row r="7" spans="2:25" ht="180" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="116" t="s">
+      <c r="X6" s="39"/>
+    </row>
+    <row r="7" spans="1:24" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="B7" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="C7" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="E7" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="F7" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="G7" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="56" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="56" t="s">
         <v>333</v>
       </c>
+      <c r="J7" s="56"/>
       <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56">
+      <c r="L7" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N7" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B7,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M7" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A7,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.25787952089614202</v>
       </c>
-      <c r="O7" s="120">
+      <c r="N7" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="O7" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="Q7" s="48" t="s">
+      <c r="P7" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="R7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="57"/>
       <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
+      <c r="T7" s="38"/>
       <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56" t="s">
+      <c r="V7" s="55"/>
+      <c r="W7" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y7" s="39"/>
-    </row>
-    <row r="8" spans="2:25" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="212" t="s">
+      <c r="X7" s="39"/>
+    </row>
+    <row r="8" spans="1:24" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="B8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="C8" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="D8" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="E8" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="F8" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="G8" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56">
+      <c r="L8" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N8" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B8,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M8" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A8,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.12745277813087899</v>
       </c>
-      <c r="O8" s="120">
+      <c r="N8" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="O8" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="Q8" s="51" t="s">
+      <c r="P8" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="R8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="57"/>
       <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
+      <c r="T8" s="38"/>
       <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="56" t="s">
+      <c r="V8" s="55"/>
+      <c r="W8" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y8" s="39"/>
-    </row>
-    <row r="9" spans="2:25" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="114" t="s">
+      <c r="X8" s="39"/>
+    </row>
+    <row r="9" spans="1:24" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="C9" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="E9" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="G9" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56" t="s">
+      <c r="K9" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="M9" s="56">
+      <c r="L9" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N9" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B9,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M9" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A9,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.19298886639676099</v>
       </c>
-      <c r="O9" s="120">
+      <c r="N9" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="52" t="s">
+      <c r="O9" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="Q9" s="88" t="s">
+      <c r="P9" s="87" t="s">
         <v>355</v>
       </c>
-      <c r="R9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="57"/>
       <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
+      <c r="T9" s="38"/>
       <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="56" t="s">
+      <c r="V9" s="55"/>
+      <c r="W9" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y9" s="39"/>
-    </row>
-    <row r="10" spans="2:25" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="117" t="s">
+      <c r="X9" s="39"/>
+    </row>
+    <row r="10" spans="1:24" ht="90" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="B10" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="C10" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="D10" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="E10" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="F10" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="G10" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56" t="s">
+      <c r="H10" s="56"/>
+      <c r="I10" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="J10" s="56"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56">
+      <c r="L10" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N10" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B10,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M10" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A10,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>2.7592365876626501E-2</v>
       </c>
-      <c r="O10" s="120">
+      <c r="N10" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="O10" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="Q10" s="103" t="s">
+      <c r="P10" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="R10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="57"/>
       <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
+      <c r="T10" s="38"/>
       <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="56" t="s">
+      <c r="V10" s="55"/>
+      <c r="W10" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y10" s="39"/>
-    </row>
-    <row r="11" spans="2:25" ht="108" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="113" t="s">
+      <c r="X10" s="39"/>
+    </row>
+    <row r="11" spans="1:24" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="56" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="F11" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="G11" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56">
+      <c r="L11" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N11" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B11,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M11" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A11,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.319295505982294</v>
       </c>
-      <c r="O11" s="120">
+      <c r="N11" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="52" t="s">
+      <c r="O11" s="52" t="s">
         <v>359</v>
       </c>
-      <c r="Q11" s="51" t="s">
+      <c r="P11" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="R11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="57"/>
       <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
+      <c r="T11" s="38"/>
       <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="56" t="s">
+      <c r="V11" s="55"/>
+      <c r="W11" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y11" s="39"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="116" t="s">
+      <c r="X11" s="39"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="C12" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="48" t="s">
+      <c r="E12" s="104"/>
+      <c r="F12" s="48" t="s">
         <v>330</v>
       </c>
+      <c r="G12" s="56"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56">
+      <c r="L12" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N12" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B12,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M12" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A12,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.11537856725017399</v>
       </c>
-      <c r="O12" s="120">
+      <c r="N12" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P12" s="52" t="s">
+      <c r="O12" s="52" t="s">
         <v>361</v>
       </c>
-      <c r="Q12" s="61" t="s">
+      <c r="P12" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="R12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="57"/>
       <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
+      <c r="T12" s="38"/>
       <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="56" t="s">
+      <c r="V12" s="55"/>
+      <c r="W12" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y12" s="39"/>
-    </row>
-    <row r="13" spans="2:25" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="117" t="s">
+      <c r="X12" s="39"/>
+    </row>
+    <row r="13" spans="1:24" ht="108" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="56" t="s">
+      <c r="C13" s="59"/>
+      <c r="D13" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="48" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="G13" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H13" s="56"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56">
+      <c r="L13" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N13" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B13,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M13" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A13,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.147885435649414</v>
       </c>
-      <c r="O13" s="120">
+      <c r="N13" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="52" t="s">
+      <c r="O13" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="Q13" s="51" t="s">
+      <c r="P13" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="R13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="57"/>
       <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
+      <c r="T13" s="38"/>
       <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="56" t="s">
+      <c r="V13" s="55"/>
+      <c r="W13" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y13" s="39"/>
-    </row>
-    <row r="14" spans="2:25" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="98" t="s">
+      <c r="X13" s="39"/>
+    </row>
+    <row r="14" spans="1:24" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="B14" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="56" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="E14" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="F14" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="G14" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56" t="s">
+      <c r="H14" s="56"/>
+      <c r="I14" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="J14" s="70"/>
       <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="56">
+      <c r="L14" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N14" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B14,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M14" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A14,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.257806052468804</v>
       </c>
-      <c r="O14" s="120">
+      <c r="N14" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P14" s="52" t="s">
+      <c r="O14" s="52" t="s">
         <v>365</v>
       </c>
-      <c r="Q14" s="50" t="s">
+      <c r="P14" s="50" t="s">
         <v>366</v>
       </c>
-      <c r="R14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="57"/>
       <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
+      <c r="T14" s="38"/>
       <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="56" t="s">
+      <c r="V14" s="55"/>
+      <c r="W14" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y14" s="39"/>
-    </row>
-    <row r="15" spans="2:25" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="204" t="s">
+      <c r="X14" s="39"/>
+    </row>
+    <row r="15" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="203" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="C15" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="D15" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="E15" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="F15" s="67" t="s">
         <v>345</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="G15" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H15" s="56"/>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56">
+      <c r="L15" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N15" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B15,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M15" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A15,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.20651308422921399</v>
       </c>
-      <c r="O15" s="120">
+      <c r="N15" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P15" s="52" t="s">
+      <c r="O15" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="Q15" s="50" t="s">
+      <c r="P15" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="R15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="57"/>
       <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
+      <c r="T15" s="38"/>
       <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="56" t="s">
+      <c r="V15" s="55"/>
+      <c r="W15" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y15" s="39"/>
-    </row>
-    <row r="16" spans="2:25" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
+      <c r="X15" s="39"/>
+    </row>
+    <row r="16" spans="1:24" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="B16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="C16" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="D16" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="E16" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="F16" s="67" t="s">
         <v>345</v>
       </c>
-      <c r="H16" s="56" t="s">
+      <c r="G16" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56">
+      <c r="L16" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N16" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B16,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M16" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A16,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.17397806200301699</v>
       </c>
-      <c r="O16" s="120">
+      <c r="N16" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P16" s="52" t="s">
+      <c r="O16" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="Q16" s="50" t="s">
+      <c r="P16" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="R16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="57"/>
       <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
+      <c r="T16" s="38"/>
       <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="56" t="s">
+      <c r="V16" s="55"/>
+      <c r="W16" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y16" s="39"/>
-    </row>
-    <row r="17" spans="1:25" ht="180" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="116" t="s">
+      <c r="X16" s="39"/>
+    </row>
+    <row r="17" spans="1:24" ht="198" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="C17" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="D17" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="E17" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="F17" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="G17" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="H17" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="I17" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="K17" s="46"/>
-      <c r="L17" s="70" t="s">
+      <c r="J17" s="46"/>
+      <c r="K17" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="M17" s="56">
+      <c r="L17" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N17" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B17,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M17" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A17,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>1.4259907978300901E-2</v>
       </c>
-      <c r="O17" s="120">
+      <c r="N17" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P17" s="52" t="s">
+      <c r="O17" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="Q17" s="43" t="s">
+      <c r="P17" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="R17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="57"/>
       <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
+      <c r="T17" s="38"/>
       <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="56" t="s">
+      <c r="V17" s="55"/>
+      <c r="W17" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y17" s="39"/>
-    </row>
-    <row r="18" spans="1:25" ht="180" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="113" t="s">
+      <c r="X17" s="39"/>
+    </row>
+    <row r="18" spans="1:24" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="B18" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="56" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="E18" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G18" s="86" t="s">
+      <c r="F18" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="G18" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H18" s="56"/>
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56">
+      <c r="L18" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N18" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B18,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M18" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A18,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.17345339788722899</v>
       </c>
-      <c r="O18" s="120">
+      <c r="N18" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P18" s="52" t="s">
+      <c r="O18" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="Q18" s="50" t="s">
+      <c r="P18" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="R18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="57"/>
       <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
+      <c r="T18" s="38"/>
       <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="56" t="s">
+      <c r="V18" s="55"/>
+      <c r="W18" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y18" s="39"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="116" t="s">
+      <c r="X18" s="39"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="B19" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="C19" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="D19" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="F19" s="105"/>
-      <c r="G19" s="48" t="s">
+      <c r="E19" s="104"/>
+      <c r="F19" s="48" t="s">
         <v>330</v>
       </c>
+      <c r="G19" s="56"/>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56">
+      <c r="L19" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N19" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B19,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M19" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A19,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>4.84589623971209E-2</v>
       </c>
-      <c r="O19" s="120">
+      <c r="N19" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="38"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="57"/>
       <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
+      <c r="T19" s="38"/>
       <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="56" t="s">
+      <c r="V19" s="55"/>
+      <c r="W19" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y19" s="39"/>
-    </row>
-    <row r="20" spans="1:25" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="116" t="s">
+      <c r="X19" s="39"/>
+    </row>
+    <row r="20" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="56" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="E20" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="F20" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="46" t="s">
+      <c r="G20" s="56"/>
+      <c r="H20" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="70" t="s">
+      <c r="I20" s="56"/>
+      <c r="J20" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="L20" s="70"/>
-      <c r="M20" s="56">
+      <c r="K20" s="70"/>
+      <c r="L20" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B20,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M20" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A20,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.10102084939889</v>
       </c>
-      <c r="O20" s="120">
+      <c r="N20" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P20" s="52" t="s">
+      <c r="O20" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="Q20" s="43" t="s">
+      <c r="P20" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="R20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="57"/>
       <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
+      <c r="T20" s="38"/>
       <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="56" t="s">
+      <c r="V20" s="55"/>
+      <c r="W20" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y20" s="39"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="116" t="s">
+      <c r="X20" s="39"/>
+    </row>
+    <row r="21" spans="1:24" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="B21" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="C21" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="D21" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="E21" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="F21" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="G21" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56" t="s">
+      <c r="H21" s="56"/>
+      <c r="I21" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="J21" s="56"/>
       <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56">
+      <c r="L21" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N21" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B21,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M21" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A21,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>7.3985104711494998E-2</v>
       </c>
-      <c r="O21" s="120">
+      <c r="N21" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="38"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="57"/>
       <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
+      <c r="T21" s="38"/>
       <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="56" t="s">
+      <c r="V21" s="55"/>
+      <c r="W21" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y21" s="39"/>
-    </row>
-    <row r="22" spans="1:25" ht="162" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="74"/>
-      <c r="B22" s="116" t="s">
+      <c r="X21" s="39"/>
+    </row>
+    <row r="22" spans="1:24" ht="162" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="B22" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="C22" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="D22" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="E22" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="F22" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="G22" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="H22" s="46" t="s">
         <v>381</v>
       </c>
+      <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56">
+      <c r="L22" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N22" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B22,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M22" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A22,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.123364849749515</v>
       </c>
-      <c r="O22" s="120">
+      <c r="N22" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P22" s="52" t="s">
+      <c r="O22" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="Q22" s="50" t="s">
+      <c r="P22" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="R22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="57"/>
       <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
+      <c r="T22" s="38"/>
       <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="56" t="s">
+      <c r="V22" s="55"/>
+      <c r="W22" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y22" s="39"/>
-    </row>
-    <row r="23" spans="1:25" ht="180" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="116" t="s">
+      <c r="X22" s="39"/>
+    </row>
+    <row r="23" spans="1:24" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="B23" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="56" t="s">
+      <c r="C23" s="59"/>
+      <c r="D23" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="E23" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="F23" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="G23" s="56" t="s">
         <v>384</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="56" t="s">
+      <c r="H23" s="46"/>
+      <c r="I23" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="K23" s="46" t="s">
+      <c r="J23" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="56">
+      <c r="K23" s="70"/>
+      <c r="L23" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N23" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B23,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M23" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A23,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.119703639265527</v>
       </c>
-      <c r="O23" s="120">
+      <c r="N23" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P23" s="52" t="s">
+      <c r="O23" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="Q23" s="43" t="s">
+      <c r="P23" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="R23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="57"/>
       <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
+      <c r="T23" s="38"/>
       <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="56" t="s">
+      <c r="V23" s="55"/>
+      <c r="W23" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y23" s="39"/>
-    </row>
-    <row r="24" spans="1:25" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="117" t="s">
+      <c r="X23" s="39"/>
+    </row>
+    <row r="24" spans="1:24" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="B24" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="56" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="48" t="s">
+      <c r="E24" s="49"/>
+      <c r="F24" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="H24" s="56" t="s">
+      <c r="G24" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H24" s="56"/>
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56">
+      <c r="L24" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N24" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B24,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M24" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A24,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>3.1609393246290599E-2</v>
       </c>
-      <c r="O24" s="120">
+      <c r="N24" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P24" s="52" t="s">
+      <c r="O24" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="Q24" s="50" t="s">
+      <c r="P24" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="R24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="57"/>
       <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
+      <c r="T24" s="38"/>
       <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="56" t="s">
+      <c r="V24" s="55"/>
+      <c r="W24" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y24" s="39"/>
-    </row>
-    <row r="25" spans="1:25" ht="126" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="116" t="s">
+      <c r="X24" s="39"/>
+    </row>
+    <row r="25" spans="1:24" ht="126" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="B25" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="C25" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="D25" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F25" s="105" t="s">
+      <c r="E25" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="F25" s="48" t="s">
         <v>330</v>
       </c>
+      <c r="G25" s="56"/>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56">
+      <c r="L25" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N25" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B25,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M25" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A25,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>6.3984989901114495E-2</v>
       </c>
-      <c r="O25" s="120">
+      <c r="N25" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P25" s="52" t="s">
+      <c r="O25" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="Q25" s="43" t="s">
+      <c r="P25" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="R25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="57"/>
       <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
+      <c r="T25" s="38"/>
       <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="56" t="s">
+      <c r="V25" s="55"/>
+      <c r="W25" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y25" s="39"/>
-    </row>
-    <row r="26" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="98" t="s">
+      <c r="X25" s="39"/>
+    </row>
+    <row r="26" spans="1:24" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="B26" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="56" t="s">
+      <c r="C26" s="59"/>
+      <c r="D26" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="E26" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="F26" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="G26" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="H26" s="46" t="s">
         <v>391</v>
       </c>
+      <c r="I26" s="56"/>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56">
+      <c r="L26" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N26" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B26,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M26" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A26,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.27207391566460598</v>
       </c>
-      <c r="O26" s="120">
+      <c r="N26" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P26" s="52" t="s">
+      <c r="O26" s="52" t="s">
         <v>392</v>
       </c>
-      <c r="Q26" s="43" t="s">
+      <c r="P26" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="R26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="57"/>
       <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
+      <c r="T26" s="38"/>
       <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="56" t="s">
+      <c r="V26" s="55"/>
+      <c r="W26" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y26" s="39"/>
-    </row>
-    <row r="27" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="114" t="s">
+      <c r="X26" s="39"/>
+    </row>
+    <row r="27" spans="1:24" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="56" t="s">
+      <c r="C27" s="59"/>
+      <c r="D27" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="87" t="s">
+      <c r="E27" s="73"/>
+      <c r="F27" s="86" t="s">
         <v>339</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="G27" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56" t="s">
+      <c r="K27" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="M27" s="56">
+      <c r="L27" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N27" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B27,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M27" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A27,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.27958578158757502</v>
       </c>
-      <c r="O27" s="120">
+      <c r="N27" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P27" s="52" t="s">
+      <c r="O27" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="Q27" s="50" t="s">
+      <c r="P27" s="50" t="s">
         <v>395</v>
       </c>
-      <c r="R27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="57"/>
       <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
+      <c r="T27" s="38"/>
       <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="56" t="s">
+      <c r="V27" s="55"/>
+      <c r="W27" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y27" s="39"/>
-    </row>
-    <row r="28" spans="1:25" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="118" t="s">
+      <c r="X27" s="39"/>
+    </row>
+    <row r="28" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="56" t="s">
+      <c r="C28" s="59"/>
+      <c r="D28" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="G28" s="87" t="s">
+      <c r="F28" s="86" t="s">
         <v>339</v>
       </c>
+      <c r="G28" s="56"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="56"/>
       <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56">
+      <c r="L28" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N28" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B28,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M28" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A28,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.128388441311648</v>
       </c>
-      <c r="O28" s="120">
+      <c r="N28" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P28" s="52" t="s">
+      <c r="O28" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="38"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="57"/>
       <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
+      <c r="T28" s="38"/>
       <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="56" t="s">
+      <c r="V28" s="55"/>
+      <c r="W28" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y28" s="39"/>
-    </row>
-    <row r="29" spans="1:25" ht="126" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="116" t="s">
+      <c r="X28" s="39"/>
+    </row>
+    <row r="29" spans="1:24" ht="126" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="B29" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="56" t="s">
+      <c r="C29" s="59"/>
+      <c r="D29" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F29" s="73" t="s">
+      <c r="E29" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="67" t="s">
+      <c r="F29" s="67" t="s">
         <v>376</v>
       </c>
+      <c r="G29" s="56" t="s">
+        <v>384</v>
+      </c>
       <c r="H29" s="56" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="I29" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="J29" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="K29" s="70" t="s">
+      <c r="J29" s="70" t="s">
         <v>398</v>
       </c>
-      <c r="L29" s="70"/>
-      <c r="M29" s="56">
+      <c r="K29" s="70"/>
+      <c r="L29" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N29" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B29,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M29" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A29,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.13143319136391099</v>
       </c>
-      <c r="O29" s="120">
+      <c r="N29" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P29" s="52" t="s">
+      <c r="O29" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="Q29" s="43" t="s">
+      <c r="P29" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="R29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="57"/>
       <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
+      <c r="T29" s="38"/>
       <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="56" t="s">
+      <c r="V29" s="55"/>
+      <c r="W29" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y29" s="39"/>
-    </row>
-    <row r="30" spans="1:25" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="116" t="s">
+      <c r="X29" s="39"/>
+    </row>
+    <row r="30" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="B30" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="56" t="s">
+      <c r="C30" s="59"/>
+      <c r="D30" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F30" s="71" t="s">
+      <c r="E30" s="71" t="s">
         <v>401</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="F30" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="46" t="s">
+      <c r="G30" s="56"/>
+      <c r="H30" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="J30" s="104" t="s">
+      <c r="I30" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="K30" s="46" t="s">
+      <c r="J30" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="L30" s="70"/>
-      <c r="M30" s="56">
+      <c r="K30" s="70"/>
+      <c r="L30" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N30" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B30,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M30" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A30,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.103467287703372</v>
       </c>
-      <c r="O30" s="120">
+      <c r="N30" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P30" s="52" t="s">
+      <c r="O30" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="Q30" s="43" t="s">
+      <c r="P30" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="R30" s="38">
+      <c r="Q30" s="38">
         <v>44825</v>
       </c>
-      <c r="S30" s="205">
+      <c r="R30" s="204">
         <v>22122557.629999999</v>
       </c>
-      <c r="T30" s="205">
+      <c r="S30" s="204">
         <v>-228945.61</v>
       </c>
+      <c r="T30" s="38">
+        <v>44743</v>
+      </c>
       <c r="U30" s="38">
-        <v>44743</v>
-      </c>
-      <c r="V30" s="38">
         <v>44926</v>
       </c>
-      <c r="W30" s="55" t="s">
+      <c r="V30" s="55" t="s">
         <v>406</v>
       </c>
-      <c r="X30" s="56" t="s">
+      <c r="W30" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="Y30" s="39" t="s">
+      <c r="X30" s="39" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="116" t="s">
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="B31" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="56" t="s">
+      <c r="C31" s="59"/>
+      <c r="D31" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="G31" s="87" t="s">
+      <c r="F31" s="86" t="s">
         <v>339</v>
       </c>
+      <c r="G31" s="56"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
       <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56">
+      <c r="L31" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N31" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B31,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M31" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A31,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.10941211467591599</v>
       </c>
-      <c r="O31" s="120">
+      <c r="N31" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P31" s="85" t="s">
+      <c r="O31" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="38"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="57"/>
       <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
+      <c r="T31" s="38"/>
       <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="56" t="s">
+      <c r="V31" s="55"/>
+      <c r="W31" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y31" s="39"/>
-    </row>
-    <row r="32" spans="1:25" ht="132.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="98" t="s">
+      <c r="X31" s="39"/>
+    </row>
+    <row r="32" spans="1:24" ht="132.6" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="B32" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="56" t="s">
+      <c r="C32" s="59"/>
+      <c r="D32" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F32" s="73" t="s">
+      <c r="E32" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G32" s="48" t="s">
+      <c r="F32" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="H32" s="56" t="s">
+      <c r="G32" s="56" t="s">
         <v>384</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="H32" s="46" t="s">
         <v>409</v>
       </c>
-      <c r="J32" s="104" t="s">
+      <c r="I32" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="K32" s="46" t="s">
+      <c r="J32" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="L32" s="70"/>
-      <c r="M32" s="56">
+      <c r="K32" s="70"/>
+      <c r="L32" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N32" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B32,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M32" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A32,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.24734873067225799</v>
       </c>
-      <c r="O32" s="120">
+      <c r="N32" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P32" s="52" t="s">
+      <c r="O32" s="52" t="s">
         <v>411</v>
       </c>
-      <c r="Q32" s="50" t="s">
+      <c r="P32" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="R32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="57"/>
       <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
+      <c r="T32" s="38"/>
       <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="56" t="s">
+      <c r="V32" s="55"/>
+      <c r="W32" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y32" s="39"/>
-    </row>
-    <row r="33" spans="2:25" ht="192.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="213" t="s">
+      <c r="X32" s="39"/>
+    </row>
+    <row r="33" spans="1:24" ht="192.95" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="B33" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="56" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="F33" s="105"/>
-      <c r="G33" s="48" t="s">
+      <c r="E33" s="104"/>
+      <c r="F33" s="48" t="s">
         <v>376</v>
       </c>
+      <c r="G33" s="56" t="s">
+        <v>340</v>
+      </c>
       <c r="H33" s="56" t="s">
-        <v>340</v>
+        <v>412</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="J33" s="56" t="s">
         <v>413</v>
       </c>
-      <c r="K33" s="46"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="56">
+      <c r="J33" s="46"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N33" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B33,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M33" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A33,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.27185203858760698</v>
       </c>
-      <c r="O33" s="120">
+      <c r="N33" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P33" s="52" t="s">
+      <c r="O33" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="Q33" s="43" t="s">
+      <c r="P33" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="R33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="57"/>
       <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
+      <c r="T33" s="38"/>
       <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="56" t="s">
+      <c r="V33" s="55"/>
+      <c r="W33" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y33" s="39"/>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="116" t="s">
+      <c r="X33" s="39"/>
+    </row>
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="B34" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="56" t="s">
+      <c r="C34" s="59"/>
+      <c r="D34" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="87" t="s">
+      <c r="E34" s="49"/>
+      <c r="F34" s="86" t="s">
         <v>339</v>
       </c>
+      <c r="G34" s="56"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56">
+      <c r="L34" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N34" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B34,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M34" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A34,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>1.5182845389339301E-2</v>
       </c>
-      <c r="O34" s="120">
+      <c r="N34" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P34" s="52" t="s">
+      <c r="O34" s="52" t="s">
         <v>415</v>
       </c>
-      <c r="Q34" s="48" t="s">
+      <c r="P34" s="48" t="s">
         <v>416</v>
       </c>
-      <c r="R34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="57"/>
       <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
+      <c r="T34" s="38"/>
       <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="56" t="s">
+      <c r="V34" s="55"/>
+      <c r="W34" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y34" s="39"/>
-    </row>
-    <row r="35" spans="2:25" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="211" t="s">
+      <c r="X34" s="39"/>
+    </row>
+    <row r="35" spans="1:24" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="210" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="B35" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="D35" s="91"/>
-      <c r="E35" s="64" t="s">
+      <c r="C35" s="90"/>
+      <c r="D35" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="E35" s="71" t="s">
         <v>338</v>
       </c>
+      <c r="F35" s="213" t="s">
+        <v>345</v>
+      </c>
       <c r="G35" s="214" t="s">
-        <v>345</v>
-      </c>
-      <c r="H35" s="215" t="s">
         <v>384</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="H35" s="56" t="s">
         <v>417</v>
       </c>
-      <c r="J35" s="64" t="s">
+      <c r="I35" s="64" t="s">
         <v>413</v>
       </c>
+      <c r="J35" s="64"/>
       <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64">
+      <c r="L35" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N35" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B35,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M35" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A35,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.29375833437364202</v>
       </c>
-      <c r="O35" s="120">
+      <c r="N35" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P35" s="72" t="s">
+      <c r="O35" s="72" t="s">
         <v>418</v>
       </c>
-      <c r="Q35" s="216"/>
-      <c r="R35" s="44"/>
+      <c r="P35" s="215"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="65"/>
       <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
+      <c r="T35" s="44"/>
       <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="64" t="s">
+      <c r="V35" s="63"/>
+      <c r="W35" s="64" t="s">
         <v>333</v>
       </c>
-      <c r="Y35" s="45"/>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D36" s="90"/>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D37" s="90"/>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D38" s="90"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D39" s="90"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" s="77" t="s">
+      <c r="X35" s="45"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" s="89"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" s="89"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="89"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" s="89"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="76" t="s">
         <v>419</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="77"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" s="78" t="s">
+      <c r="C40" s="91"/>
+      <c r="D40" s="76"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="D41" s="93"/>
-      <c r="E41" s="77"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="71" t="s">
+      <c r="C41" s="92"/>
+      <c r="D41" s="76"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="D42" s="95"/>
-      <c r="E42" s="73"/>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" s="79" t="s">
+      <c r="C42" s="94"/>
+      <c r="D42" s="73"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="73"/>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" s="80" t="s">
+      <c r="C43" s="93"/>
+      <c r="D43" s="73"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="79" t="s">
         <v>420</v>
       </c>
-      <c r="D44" s="95"/>
-      <c r="E44" s="73"/>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" s="73"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="73"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" s="77" t="s">
+      <c r="C44" s="94"/>
+      <c r="D44" s="73"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="73"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="73"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="76" t="s">
         <v>421</v>
       </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="77"/>
-    </row>
-    <row r="47" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" s="73" t="s">
+      <c r="C46" s="91"/>
+      <c r="D46" s="76"/>
+    </row>
+    <row r="47" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="73"/>
-    </row>
-    <row r="48" spans="2:25" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" s="73" t="s">
+      <c r="C47" s="95"/>
+      <c r="D47" s="73"/>
+    </row>
+    <row r="48" spans="1:24" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="73" t="s">
         <v>338</v>
       </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="73" t="s">
+      <c r="C48" s="95"/>
+      <c r="D48" s="73" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" s="73" t="s">
+    <row r="49" spans="2:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="D49" s="96"/>
-      <c r="E49" s="73" t="s">
+      <c r="C49" s="95"/>
+      <c r="D49" s="73" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" s="73" t="s">
+    <row r="50" spans="2:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="73" t="s">
         <v>401</v>
       </c>
-      <c r="D50" s="96"/>
-      <c r="E50" s="73" t="s">
+      <c r="C50" s="95"/>
+      <c r="D50" s="73" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" s="73"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="73"/>
-    </row>
-    <row r="52" spans="3:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" s="73"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="73"/>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C53" s="73"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="73"/>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D54" s="81"/>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D55" s="81"/>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D56" s="81"/>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C57" s="81" t="s">
+    <row r="51" spans="2:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="73"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="73"/>
+    </row>
+    <row r="52" spans="2:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="73"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="73"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="73"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="73"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" s="80"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" s="80"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" s="80"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="80" t="s">
         <v>425</v>
       </c>
-      <c r="D57" s="81"/>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C58" s="82" t="s">
+      <c r="C57" s="80"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="81" t="s">
         <v>384</v>
       </c>
-      <c r="D58" s="81"/>
-    </row>
-    <row r="59" spans="3:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C59" s="83" t="s">
+      <c r="C58" s="80"/>
+    </row>
+    <row r="59" spans="2:4" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="82" t="s">
         <v>341</v>
       </c>
-      <c r="D59" s="81"/>
-    </row>
-    <row r="60" spans="3:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" s="84" t="s">
+      <c r="C59" s="80"/>
+    </row>
+    <row r="60" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="D60" s="81"/>
-    </row>
-    <row r="61" spans="3:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C61" s="89" t="s">
+      <c r="C60" s="80"/>
+    </row>
+    <row r="61" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="88" t="s">
         <v>334</v>
       </c>
-      <c r="D61" s="81"/>
-    </row>
-    <row r="62" spans="3:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C62" s="89" t="s">
+      <c r="C61" s="80"/>
+    </row>
+    <row r="62" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="D62" s="81"/>
-    </row>
-    <row r="63" spans="3:5" ht="48.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D63" s="90"/>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C64" s="81" t="s">
+      <c r="C62" s="80"/>
+    </row>
+    <row r="63" spans="2:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" s="89"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="D64" s="81"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C65" s="54" t="s">
+      <c r="C64" s="80"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="54" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="3:3" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C66" s="54" t="s">
+    <row r="66" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="54" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="3:3" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C67" s="54" t="s">
+    <row r="67" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="54" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C68" s="54" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C69" s="54" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="54" t="s">
         <v>376</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:Y35" xr:uid="{1A186435-F3E8-415E-AF75-175B7DA327D8}"/>
+  <autoFilter ref="A1:X35" xr:uid="{1A186435-F3E8-415E-AF75-175B7DA327D8}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="On hold"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X35">
+      <sortCondition ref="A1:A35"/>
+    </sortState>
+  </autoFilter>
   <dataConsolidate/>
-  <conditionalFormatting sqref="W15:W17 W26 W19 W28:W32 W2:W8 W34:W35">
+  <conditionalFormatting sqref="V15:V17 V26 V19 V28:V32 V2:V8 V34:V35">
     <cfRule type="cellIs" dxfId="154" priority="166" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11676,7 +11653,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
+  <conditionalFormatting sqref="V4">
     <cfRule type="cellIs" dxfId="151" priority="163" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11687,7 +11664,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W22 W25">
+  <conditionalFormatting sqref="V22 V25">
     <cfRule type="cellIs" dxfId="148" priority="160" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11698,7 +11675,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W22 W25">
+  <conditionalFormatting sqref="V22 V25">
     <cfRule type="cellIs" dxfId="145" priority="157" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11709,7 +11686,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W17">
+  <conditionalFormatting sqref="V17">
     <cfRule type="cellIs" dxfId="142" priority="154" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11720,7 +11697,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W15">
+  <conditionalFormatting sqref="V15">
     <cfRule type="cellIs" dxfId="139" priority="151" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11731,7 +11708,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W19">
+  <conditionalFormatting sqref="V19">
     <cfRule type="cellIs" dxfId="136" priority="148" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11742,7 +11719,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W18">
+  <conditionalFormatting sqref="V18">
     <cfRule type="cellIs" dxfId="133" priority="145" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11753,7 +11730,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
+  <conditionalFormatting sqref="V25">
     <cfRule type="cellIs" dxfId="130" priority="142" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11764,7 +11741,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
+  <conditionalFormatting sqref="V25">
     <cfRule type="cellIs" dxfId="127" priority="139" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11775,7 +11752,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27">
+  <conditionalFormatting sqref="V27">
     <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11786,7 +11763,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W11">
+  <conditionalFormatting sqref="V11">
     <cfRule type="cellIs" dxfId="121" priority="133" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11797,7 +11774,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W11">
+  <conditionalFormatting sqref="V11">
     <cfRule type="cellIs" dxfId="118" priority="130" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11808,7 +11785,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W31">
+  <conditionalFormatting sqref="V31">
     <cfRule type="cellIs" dxfId="115" priority="127" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11819,7 +11796,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
+  <conditionalFormatting sqref="V23">
     <cfRule type="cellIs" dxfId="112" priority="124" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11830,7 +11807,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W20">
+  <conditionalFormatting sqref="V20">
     <cfRule type="cellIs" dxfId="109" priority="121" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11841,7 +11818,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21">
+  <conditionalFormatting sqref="V21">
     <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11852,7 +11829,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W35">
+  <conditionalFormatting sqref="V35">
     <cfRule type="cellIs" dxfId="103" priority="115" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11863,7 +11840,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W9">
+  <conditionalFormatting sqref="V9">
     <cfRule type="cellIs" dxfId="100" priority="112" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11874,7 +11851,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W10">
+  <conditionalFormatting sqref="V10">
     <cfRule type="cellIs" dxfId="97" priority="109" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11885,7 +11862,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+  <conditionalFormatting sqref="V12">
     <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11896,7 +11873,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13">
+  <conditionalFormatting sqref="V13">
     <cfRule type="cellIs" dxfId="91" priority="103" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11907,7 +11884,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W14">
+  <conditionalFormatting sqref="V14">
     <cfRule type="cellIs" dxfId="88" priority="100" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11918,7 +11895,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W33">
+  <conditionalFormatting sqref="V33">
     <cfRule type="cellIs" dxfId="85" priority="97" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11929,7 +11906,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W24">
+  <conditionalFormatting sqref="V24">
     <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11940,7 +11917,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W24">
+  <conditionalFormatting sqref="V24">
     <cfRule type="cellIs" dxfId="79" priority="91" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11951,29 +11928,29 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X35">
+  <conditionalFormatting sqref="W2:W35">
     <cfRule type="expression" dxfId="76" priority="90">
       <formula>No</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X35">
+  <conditionalFormatting sqref="W2:W35">
     <cfRule type="containsText" dxfId="75" priority="89" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",X2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",W2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2 F24:F25 F12:F13 F34 F6:F7 F17:F19">
+  <conditionalFormatting sqref="E2 E24:E25 E12:E13 E34 E6:E7 E17:E19">
     <cfRule type="containsText" dxfId="74" priority="87" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",F2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4 H24:H35 H6:H22">
+  <conditionalFormatting sqref="G2:G4 G24:G35 G6:G22">
     <cfRule type="cellIs" dxfId="73" priority="86" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E35">
+  <conditionalFormatting sqref="D2:D35">
     <cfRule type="cellIs" dxfId="72" priority="64" operator="equal">
-      <formula>$C$41</formula>
+      <formula>$B$41</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
       <formula>"Complete"</formula>
@@ -11982,25 +11959,25 @@
       <formula>"In progress"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="69" priority="84" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q9 Q29:Q35 Q11:Q27 H32:H33 I5 I23 P2:Q3 H2:O4 H34:I34 I32 J33:P35 H35 H14:I14 M2:O35 H30:I30 E2:F2 E3:E5 E24:F25 E8:E11 E12:F13 E34:F34 K5:P5 K23:P23 K32:P32 H24:P29 H15:P22 K14:P14 H31:P31 K30:P30 H6:P13 E6:F7 E17:F19 E14:E16 E20:E23 E26:E35">
+  <conditionalFormatting sqref="P5:P9 P29:P35 P11:P27 G32:G33 H5 H23 O2:P3 G2:N4 G34:H34 H32 I33:O35 G35 G14:H14 L2:N35 G30:H30 D2:E2 D3:D5 D24:E25 D8:D11 D12:E13 D34:E34 J5:O5 J23:O23 J32:O32 G24:O29 G15:O22 J14:O14 G31:O31 J30:O30 G6:O13 D6:E7 D17:E19 D14:D16 D20:D23 D26:D35">
     <cfRule type="containsBlanks" dxfId="68" priority="83">
-      <formula>LEN(TRIM(E2))=0</formula>
+      <formula>LEN(TRIM(D2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
+  <conditionalFormatting sqref="P19">
     <cfRule type="cellIs" dxfId="67" priority="82" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C62">
+  <conditionalFormatting sqref="B60:B62">
     <cfRule type="containsBlanks" dxfId="66" priority="77">
-      <formula>LEN(TRIM(C60))=0</formula>
+      <formula>LEN(TRIM(B60))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="B42">
     <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
@@ -12008,254 +11985,254 @@
       <formula>"In progress"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="63" priority="70" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",C42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",B42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="B42">
     <cfRule type="containsBlanks" dxfId="62" priority="69">
-      <formula>LEN(TRIM(C42))=0</formula>
+      <formula>LEN(TRIM(B42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H35">
+  <conditionalFormatting sqref="G2:G35">
     <cfRule type="cellIs" dxfId="61" priority="169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="60" priority="170" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="59" priority="171" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="172" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="57" priority="173" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="56" priority="174" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="G5">
     <cfRule type="containsBlanks" dxfId="55" priority="56">
-      <formula>LEN(TRIM(H5))=0</formula>
+      <formula>LEN(TRIM(G5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="I5">
     <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="I23">
     <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="51" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="45" priority="52" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="43" priority="54" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="55" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G35">
+  <conditionalFormatting sqref="F2:F35">
     <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
-      <formula>$C$39</formula>
+      <formula>$B$39</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
+  <conditionalFormatting sqref="H33">
     <cfRule type="containsBlanks" dxfId="40" priority="46">
-      <formula>LEN(TRIM(I33))=0</formula>
+      <formula>LEN(TRIM(H33))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="I10">
     <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="I10">
     <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="44" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+  <conditionalFormatting sqref="H35">
     <cfRule type="containsBlanks" dxfId="32" priority="38">
-      <formula>LEN(TRIM(I35))=0</formula>
+      <formula>LEN(TRIM(H35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="I17">
     <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="I17">
     <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+  <conditionalFormatting sqref="I14">
     <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+  <conditionalFormatting sqref="I14">
     <cfRule type="containsBlanks" dxfId="23" priority="17">
-      <formula>LEN(TRIM(J14))=0</formula>
+      <formula>LEN(TRIM(I14))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+  <conditionalFormatting sqref="I14">
     <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+  <conditionalFormatting sqref="K9">
     <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+  <conditionalFormatting sqref="K9">
     <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="I8">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="I8">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F9:F10">
+  <conditionalFormatting sqref="E22 E9:E10">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",F9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F9:F10">
+  <conditionalFormatting sqref="E22 E9:E10">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(F9))=0</formula>
+      <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X35 Q19" xr:uid="{B7A8975D-CB84-425B-8A6F-95987CF249BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W35 P19" xr:uid="{B7A8975D-CB84-425B-8A6F-95987CF249BC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35" xr:uid="{16FF1F92-0DCB-4700-AEDD-B4D1B4D0DA6F}">
-      <formula1>$C$41:$C$44</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D35" xr:uid="{16FF1F92-0DCB-4700-AEDD-B4D1B4D0DA6F}">
+      <formula1>$B$41:$B$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J8 J14 J17 H2:H35 J10 J23" xr:uid="{77E1CF57-F98E-469D-9A79-8E9013ADF3DA}">
-      <formula1>$C$58:$C$60</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I23 I10 G2:G35 I17 I14 I8" xr:uid="{77E1CF57-F98E-469D-9A79-8E9013ADF3DA}">
+      <formula1>$B$58:$B$60</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G35" xr:uid="{2D1D7843-7087-49EA-92ED-E28CAA0086D4}">
-      <formula1>$C$65:$C$69</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35" xr:uid="{2D1D7843-7087-49EA-92ED-E28CAA0086D4}">
+      <formula1>$B$65:$B$69</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35" xr:uid="{7A5FC86F-CF90-4DB9-A7BB-16619C3427D5}">
-      <formula1>$C$47:$C$50</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35" xr:uid="{7A5FC86F-CF90-4DB9-A7BB-16619C3427D5}">
+      <formula1>$B$47:$B$50</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12267,1362 +12244,1369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A691B4-AA68-48E3-AD22-997914FE3569}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="4" width="26.3984375" customWidth="1"/>
+    <col min="3" max="4" width="26.3984375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="37.1328125" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="28.59765625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="31.1328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.59765625" customWidth="1"/>
     <col min="9" max="9" width="33.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47" style="121" customWidth="1"/>
+    <col min="11" max="11" width="47" style="120" customWidth="1"/>
     <col min="12" max="12" width="45.3984375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="34.86328125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="23.86328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="97" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:14" s="96" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="121" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="122" t="s">
         <v>428</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="123" t="s">
         <v>308</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="121" t="s">
         <v>429</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="121" t="s">
         <v>430</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="121" t="s">
         <v>431</v>
       </c>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="121" t="s">
         <v>432</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="121" t="s">
         <v>433</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="121" t="s">
         <v>434</v>
       </c>
-      <c r="K1" s="122" t="s">
+      <c r="K1" s="121" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="123" t="s">
+      <c r="L1" s="122" t="s">
         <v>435</v>
       </c>
-      <c r="M1" s="125" t="s">
+      <c r="M1" s="124" t="s">
         <v>436</v>
       </c>
-      <c r="N1" s="125" t="s">
+      <c r="N1" s="124" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A2" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="127" t="s">
+      <c r="D2" s="128"/>
+      <c r="E2" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="142" t="s">
+      <c r="F2" s="126"/>
+      <c r="G2" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I2" s="147" t="s">
+      <c r="I2" s="146" t="s">
         <v>441</v>
       </c>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="142" t="s">
         <v>440</v>
       </c>
-      <c r="K2" s="137" t="s">
+      <c r="K2" s="136" t="s">
         <v>442</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="126">
         <f>IFERROR(MATCH(A2, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>1</v>
       </c>
-      <c r="M2" s="128"/>
-      <c r="N2" s="133"/>
-    </row>
-    <row r="3" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A3" s="127" t="s">
+      <c r="M2" s="127"/>
+      <c r="N2" s="132"/>
+    </row>
+    <row r="3" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A3" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="139" t="s">
+      <c r="D3" s="128"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="J3" s="136" t="s">
+      <c r="J3" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K3" s="145" t="s">
+      <c r="K3" s="144" t="s">
         <v>444</v>
       </c>
-      <c r="L3" s="127">
+      <c r="L3" s="126">
         <f>IFERROR(MATCH(A3, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>4</v>
       </c>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-    </row>
-    <row r="4" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A4" s="127" t="s">
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+    </row>
+    <row r="4" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A4" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="127" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="129" t="s">
         <v>446</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="130" t="s">
         <v>333</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="127">
+      <c r="K4" s="131"/>
+      <c r="L4" s="126">
         <f>IFERROR(MATCH(A4, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>5</v>
       </c>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-    </row>
-    <row r="5" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A5" s="127" t="s">
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+    </row>
+    <row r="5" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A5" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="127" t="s">
+      <c r="D5" s="128"/>
+      <c r="E5" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F5" s="138" t="s">
+      <c r="F5" s="137" t="s">
         <v>448</v>
       </c>
-      <c r="G5" s="142" t="s">
+      <c r="G5" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I5" s="136" t="s">
+      <c r="I5" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="J5" s="136" t="s">
+      <c r="J5" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K5" s="137"/>
-      <c r="L5" s="127">
+      <c r="K5" s="136"/>
+      <c r="L5" s="126">
         <f>IFERROR(MATCH(A5, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>7</v>
       </c>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-    </row>
-    <row r="6" spans="1:14" s="134" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="127" t="s">
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+    </row>
+    <row r="6" spans="1:14" s="133" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="127" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="126" t="s">
         <v>449</v>
       </c>
-      <c r="F6" s="127"/>
-      <c r="G6" s="135" t="s">
+      <c r="F6" s="126"/>
+      <c r="G6" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I6" s="136" t="s">
+      <c r="I6" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="J6" s="136" t="s">
+      <c r="J6" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="L6" s="127">
+      <c r="L6" s="126">
         <f>IFERROR(MATCH(A6, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>8</v>
       </c>
-      <c r="M6" s="127"/>
-      <c r="N6" s="141"/>
-    </row>
-    <row r="7" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A7" s="127" t="s">
+      <c r="M6" s="126"/>
+      <c r="N6" s="140"/>
+    </row>
+    <row r="7" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A7" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="127" t="s">
+      <c r="D7" s="128"/>
+      <c r="E7" s="126" t="s">
         <v>453</v>
       </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="135" t="s">
+      <c r="F7" s="126"/>
+      <c r="G7" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="135" t="s">
         <v>454</v>
       </c>
-      <c r="J7" s="136" t="s">
+      <c r="J7" s="135" t="s">
         <v>455</v>
       </c>
-      <c r="K7" s="128"/>
-      <c r="L7" s="127">
+      <c r="K7" s="127"/>
+      <c r="L7" s="126">
         <f>IFERROR(MATCH(A7, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>9</v>
       </c>
-      <c r="M7" s="127"/>
-      <c r="N7" s="141"/>
-    </row>
-    <row r="8" spans="1:14" s="134" customFormat="1" ht="45" x14ac:dyDescent="0.45">
-      <c r="A8" s="127" t="s">
+      <c r="M7" s="126"/>
+      <c r="N7" s="140"/>
+    </row>
+    <row r="8" spans="1:14" s="133" customFormat="1" ht="45" x14ac:dyDescent="0.45">
+      <c r="A8" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="127" t="s">
+      <c r="D8" s="128"/>
+      <c r="E8" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="139" t="s">
         <v>456</v>
       </c>
-      <c r="G8" s="207" t="s">
+      <c r="G8" s="206" t="s">
         <v>457</v>
       </c>
-      <c r="H8" s="210" t="s">
+      <c r="H8" s="209" t="s">
         <v>334</v>
       </c>
-      <c r="I8" s="136" t="s">
+      <c r="I8" s="135" t="s">
         <v>458</v>
       </c>
-      <c r="J8" s="143" t="s">
+      <c r="J8" s="142" t="s">
         <v>440</v>
       </c>
-      <c r="K8" s="144"/>
-      <c r="L8" s="127">
+      <c r="K8" s="143"/>
+      <c r="L8" s="126">
         <f>IFERROR(MATCH(A8, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>11</v>
       </c>
-      <c r="M8" s="128"/>
-      <c r="N8" s="133"/>
-    </row>
-    <row r="9" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A9" s="127" t="s">
+      <c r="M8" s="127"/>
+      <c r="N8" s="132"/>
+    </row>
+    <row r="9" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A9" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D9" s="129"/>
-      <c r="E9" s="127" t="s">
+      <c r="D9" s="128"/>
+      <c r="E9" s="126" t="s">
         <v>449</v>
       </c>
-      <c r="F9" s="127"/>
-      <c r="G9" s="135" t="s">
+      <c r="F9" s="126"/>
+      <c r="G9" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="J9" s="136" t="s">
+      <c r="J9" s="135" t="s">
         <v>459</v>
       </c>
-      <c r="K9" s="137" t="s">
+      <c r="K9" s="136" t="s">
         <v>460</v>
       </c>
-      <c r="L9" s="127">
+      <c r="L9" s="126">
         <f>IFERROR(MATCH(A9, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>14</v>
       </c>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-    </row>
-    <row r="10" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A10" s="127" t="s">
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+    </row>
+    <row r="10" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A10" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="128"/>
+      <c r="E10" s="126" t="s">
         <v>461</v>
       </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="135" t="s">
+      <c r="F10" s="126"/>
+      <c r="G10" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H10" s="136" t="s">
+      <c r="H10" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I10" s="146" t="s">
+      <c r="I10" s="145" t="s">
         <v>462</v>
       </c>
-      <c r="J10" s="136" t="s">
+      <c r="J10" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K10" s="137"/>
-      <c r="L10" s="127">
+      <c r="K10" s="136"/>
+      <c r="L10" s="126">
         <f>IFERROR(MATCH(A10, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>13</v>
       </c>
-      <c r="M10" s="128" t="s">
+      <c r="M10" s="127" t="s">
         <v>463</v>
       </c>
-      <c r="N10" s="133" t="s">
+      <c r="N10" s="132" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A11" s="127" t="s">
+    <row r="11" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A11" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="139" t="s">
+      <c r="D11" s="128"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H11" s="136" t="s">
+      <c r="H11" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I11" s="136" t="s">
+      <c r="I11" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J11" s="136" t="s">
+      <c r="J11" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K11" s="128"/>
-      <c r="L11" s="127">
+      <c r="K11" s="127"/>
+      <c r="L11" s="126">
         <f>IFERROR(MATCH(A11, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>16</v>
       </c>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-    </row>
-    <row r="12" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A12" s="127" t="s">
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+    </row>
+    <row r="12" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A12" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="127" t="s">
+      <c r="D12" s="128"/>
+      <c r="E12" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="F12" s="127" t="s">
+      <c r="F12" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H12" s="131" t="s">
+      <c r="H12" s="130" t="s">
         <v>333</v>
       </c>
-      <c r="I12" s="131" t="s">
+      <c r="I12" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="J12" s="131" t="s">
+      <c r="J12" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="K12" s="132"/>
-      <c r="L12" s="127" t="str">
+      <c r="K12" s="131"/>
+      <c r="L12" s="126" t="str">
         <f>IFERROR(MATCH(A12, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>No</v>
       </c>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-    </row>
-    <row r="13" spans="1:14" s="134" customFormat="1" ht="105" x14ac:dyDescent="0.45">
-      <c r="A13" s="127" t="s">
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+    </row>
+    <row r="13" spans="1:14" s="133" customFormat="1" ht="105" x14ac:dyDescent="0.45">
+      <c r="A13" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="127" t="s">
+      <c r="D13" s="128"/>
+      <c r="E13" s="126" t="s">
         <v>453</v>
       </c>
-      <c r="F13" s="138"/>
-      <c r="G13" s="135" t="s">
+      <c r="F13" s="137"/>
+      <c r="G13" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H13" s="136" t="s">
+      <c r="H13" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I13" s="136" t="s">
+      <c r="I13" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="J13" s="136" t="s">
+      <c r="J13" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K13" s="128" t="s">
+      <c r="K13" s="127" t="s">
         <v>466</v>
       </c>
-      <c r="L13" s="127">
+      <c r="L13" s="126">
         <f>IFERROR(MATCH(A13, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>18</v>
       </c>
-      <c r="M13" s="127" t="s">
+      <c r="M13" s="126" t="s">
         <v>467</v>
       </c>
-      <c r="N13" s="141" t="s">
+      <c r="N13" s="140" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A14" s="127" t="s">
+    <row r="14" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A14" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D14" s="129" t="s">
+      <c r="D14" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E14" s="127" t="s">
+      <c r="E14" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F14" s="127"/>
-      <c r="G14" s="206" t="s">
+      <c r="F14" s="126"/>
+      <c r="G14" s="205" t="s">
         <v>470</v>
       </c>
-      <c r="H14" s="136" t="s">
+      <c r="H14" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I14" s="136" t="s">
+      <c r="I14" s="135" t="s">
         <v>471</v>
       </c>
-      <c r="J14" s="136" t="s">
+      <c r="J14" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K14" s="128"/>
-      <c r="L14" s="127">
+      <c r="K14" s="127"/>
+      <c r="L14" s="126">
         <f>IFERROR(MATCH(A14, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>19</v>
       </c>
-      <c r="M14" s="127" t="s">
+      <c r="M14" s="126" t="s">
         <v>472</v>
       </c>
-      <c r="N14" s="141" t="s">
+      <c r="N14" s="140" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A15" s="127" t="s">
+    <row r="15" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A15" s="126" t="s">
         <v>474</v>
       </c>
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="126" t="s">
         <v>475</v>
       </c>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E15" s="127" t="s">
+      <c r="E15" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F15" s="127"/>
-      <c r="G15" s="206" t="s">
+      <c r="F15" s="126"/>
+      <c r="G15" s="205" t="s">
         <v>470</v>
       </c>
-      <c r="H15" s="136" t="s">
+      <c r="H15" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I15" s="136" t="s">
+      <c r="I15" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J15" s="136" t="s">
+      <c r="J15" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K15" s="128"/>
-      <c r="L15" s="127">
+      <c r="K15" s="127"/>
+      <c r="L15" s="126">
         <f>IFERROR(MATCH(A15, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>20</v>
       </c>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-    </row>
-    <row r="16" spans="1:14" s="134" customFormat="1" ht="30.4" x14ac:dyDescent="0.45">
-      <c r="A16" s="127" t="s">
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+    </row>
+    <row r="16" spans="1:14" s="133" customFormat="1" ht="30.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="127" t="s">
+      <c r="D16" s="128"/>
+      <c r="E16" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="F16" s="140" t="s">
+      <c r="F16" s="139" t="s">
         <v>476</v>
       </c>
-      <c r="G16" s="135" t="s">
+      <c r="G16" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H16" s="136" t="s">
+      <c r="H16" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I16" s="146" t="s">
+      <c r="I16" s="145" t="s">
         <v>477</v>
       </c>
-      <c r="J16" s="136" t="s">
+      <c r="J16" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K16" s="137" t="s">
+      <c r="K16" s="136" t="s">
         <v>478</v>
       </c>
-      <c r="L16" s="127">
+      <c r="L16" s="126">
         <f>IFERROR(MATCH(A16, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>21</v>
       </c>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-    </row>
-    <row r="17" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A17" s="127" t="s">
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+    </row>
+    <row r="17" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A17" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="127" t="s">
+      <c r="D17" s="128"/>
+      <c r="E17" s="126" t="s">
         <v>449</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="249" t="s">
+      <c r="F17" s="126"/>
+      <c r="G17" s="248" t="s">
         <v>335</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="135" t="s">
         <v>479</v>
       </c>
-      <c r="I17" s="136" t="s">
+      <c r="I17" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="J17" s="136" t="s">
+      <c r="J17" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K17" s="137" t="s">
+      <c r="K17" s="136" t="s">
         <v>480</v>
       </c>
-      <c r="L17" s="127">
+      <c r="L17" s="126">
         <f>IFERROR(MATCH(A17, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>23</v>
       </c>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-    </row>
-    <row r="18" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A18" s="127" t="s">
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+    </row>
+    <row r="18" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A18" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D18" s="129"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="139" t="s">
+      <c r="D18" s="128"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H18" s="136" t="s">
+      <c r="H18" s="135" t="s">
         <v>479</v>
       </c>
-      <c r="I18" s="136" t="s">
+      <c r="I18" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J18" s="136" t="s">
+      <c r="J18" s="135" t="s">
         <v>479</v>
       </c>
-      <c r="K18" s="137" t="s">
+      <c r="K18" s="136" t="s">
         <v>481</v>
       </c>
-      <c r="L18" s="127">
+      <c r="L18" s="126">
         <f>IFERROR(MATCH(A18, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>28</v>
       </c>
-      <c r="M18" s="127" t="s">
+      <c r="M18" s="126" t="s">
         <v>482</v>
       </c>
-      <c r="N18" s="141" t="s">
+      <c r="N18" s="140" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A19" s="127" t="s">
+    <row r="19" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A19" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E19" s="127" t="s">
+      <c r="E19" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F19" s="138" t="s">
+      <c r="F19" s="137" t="s">
         <v>484</v>
       </c>
-      <c r="G19" s="142" t="s">
+      <c r="G19" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H19" s="136" t="s">
+      <c r="H19" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I19" s="202" t="s">
+      <c r="I19" s="201" t="s">
         <v>485</v>
       </c>
-      <c r="J19" s="202"/>
-      <c r="K19" s="137" t="s">
+      <c r="J19" s="201"/>
+      <c r="K19" s="136" t="s">
         <v>486</v>
       </c>
-      <c r="L19" s="127">
+      <c r="L19" s="126">
         <f>IFERROR(MATCH(A19, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>29</v>
       </c>
-      <c r="M19" s="127"/>
-      <c r="N19" s="141"/>
-    </row>
-    <row r="20" spans="1:14" s="134" customFormat="1" ht="60.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="127" t="s">
+      <c r="M19" s="126"/>
+      <c r="N19" s="140"/>
+    </row>
+    <row r="20" spans="1:14" s="133" customFormat="1" ht="60.4" x14ac:dyDescent="0.45">
+      <c r="A20" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="127" t="s">
+      <c r="D20" s="128"/>
+      <c r="E20" s="126" t="s">
         <v>453</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F20" s="139" t="s">
         <v>487</v>
       </c>
-      <c r="G20" s="142" t="s">
+      <c r="G20" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H20" s="136" t="s">
+      <c r="H20" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I20" s="136" t="s">
+      <c r="I20" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J20" s="136" t="s">
+      <c r="J20" s="135" t="s">
         <v>479</v>
       </c>
-      <c r="K20" s="137"/>
-      <c r="L20" s="127">
+      <c r="K20" s="136"/>
+      <c r="L20" s="126">
         <f>IFERROR(MATCH(A20, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>30</v>
       </c>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-    </row>
-    <row r="21" spans="1:14" s="134" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="127" t="s">
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+    </row>
+    <row r="21" spans="1:14" s="133" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D21" s="129"/>
-      <c r="E21" s="127" t="s">
+      <c r="D21" s="128"/>
+      <c r="E21" s="126" t="s">
         <v>453</v>
       </c>
-      <c r="F21" s="127"/>
-      <c r="G21" s="135" t="s">
+      <c r="F21" s="126"/>
+      <c r="G21" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H21" s="136" t="s">
+      <c r="H21" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I21" s="136" t="s">
+      <c r="I21" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J21" s="136" t="s">
+      <c r="J21" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K21" s="128"/>
-      <c r="L21" s="127">
+      <c r="K21" s="127"/>
+      <c r="L21" s="126">
         <f>IFERROR(MATCH(A21, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>36</v>
       </c>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-    </row>
-    <row r="22" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A22" s="127" t="s">
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+    </row>
+    <row r="22" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A22" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="127" t="s">
+      <c r="D22" s="128"/>
+      <c r="E22" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F22" s="138" t="s">
+      <c r="F22" s="137" t="s">
         <v>488</v>
       </c>
-      <c r="G22" s="142" t="s">
+      <c r="G22" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H22" s="136" t="s">
+      <c r="H22" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I22" s="136" t="s">
+      <c r="I22" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J22" s="136" t="s">
+      <c r="J22" s="135" t="s">
         <v>489</v>
       </c>
-      <c r="K22" s="128"/>
-      <c r="L22" s="127">
+      <c r="K22" s="127"/>
+      <c r="L22" s="126">
         <f>IFERROR(MATCH(A22, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>37</v>
       </c>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-    </row>
-    <row r="23" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A23" s="127" t="s">
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+    </row>
+    <row r="23" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A23" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D23" s="129"/>
-      <c r="E23" s="208" t="s">
+      <c r="D23" s="128"/>
+      <c r="E23" s="207" t="s">
         <v>449</v>
       </c>
-      <c r="F23" s="127"/>
-      <c r="G23" s="135" t="s">
+      <c r="F23" s="126"/>
+      <c r="G23" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H23" s="136" t="s">
+      <c r="H23" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I23" s="136" t="s">
+      <c r="I23" s="135" t="s">
         <v>471</v>
       </c>
-      <c r="J23" s="136" t="s">
+      <c r="J23" s="135" t="s">
         <v>376</v>
       </c>
-      <c r="K23" s="137"/>
-      <c r="L23" s="127">
+      <c r="K23" s="136"/>
+      <c r="L23" s="126">
         <f>IFERROR(MATCH(A23, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>39</v>
       </c>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-    </row>
-    <row r="24" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A24" s="127" t="s">
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+    </row>
+    <row r="24" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A24" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="128" t="s">
+      <c r="B24" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="127" t="s">
+      <c r="D24" s="128"/>
+      <c r="E24" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="F24" s="127"/>
-      <c r="G24" s="129" t="s">
+      <c r="F24" s="126"/>
+      <c r="G24" s="128" t="s">
         <v>446</v>
       </c>
-      <c r="H24" s="136" t="s">
+      <c r="H24" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I24" s="136" t="s">
+      <c r="I24" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J24" s="136" t="s">
+      <c r="J24" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K24" s="140" t="s">
+      <c r="K24" s="139" t="s">
         <v>490</v>
       </c>
-      <c r="L24" s="127">
+      <c r="L24" s="126">
         <f>IFERROR(MATCH(A24, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>44</v>
       </c>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-    </row>
-    <row r="25" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A25" s="127" t="s">
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+    </row>
+    <row r="25" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A25" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D25" s="129" t="s">
+      <c r="D25" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E25" s="127" t="s">
+      <c r="E25" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>491</v>
       </c>
-      <c r="G25" s="142" t="s">
+      <c r="G25" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H25" s="136" t="s">
+      <c r="H25" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I25" s="136" t="s">
+      <c r="I25" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="J25" s="143" t="s">
+      <c r="J25" s="142" t="s">
         <v>440</v>
       </c>
-      <c r="K25" s="137" t="s">
+      <c r="K25" s="136" t="s">
         <v>492</v>
       </c>
-      <c r="L25" s="127">
+      <c r="L25" s="126">
         <f>IFERROR(MATCH(A25, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>45</v>
       </c>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-    </row>
-    <row r="26" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A26" s="127" t="s">
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+    </row>
+    <row r="26" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A26" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D26" s="129"/>
-      <c r="E26" s="127" t="s">
+      <c r="D26" s="128"/>
+      <c r="E26" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="F26" s="127"/>
-      <c r="G26" s="206" t="s">
+      <c r="F26" s="126"/>
+      <c r="G26" s="205" t="s">
         <v>470</v>
       </c>
-      <c r="H26" s="136" t="s">
+      <c r="H26" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I26" s="146" t="s">
+      <c r="I26" s="145" t="s">
         <v>493</v>
       </c>
-      <c r="J26" s="147" t="s">
+      <c r="J26" s="146" t="s">
         <v>494</v>
       </c>
-      <c r="K26" s="137" t="s">
+      <c r="K26" s="136" t="s">
         <v>495</v>
       </c>
-      <c r="L26" s="127">
+      <c r="L26" s="126">
         <f>IFERROR(MATCH(A26, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>46</v>
       </c>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-    </row>
-    <row r="27" spans="1:14" s="134" customFormat="1" ht="75" x14ac:dyDescent="0.45">
-      <c r="A27" s="126" t="s">
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+    </row>
+    <row r="27" spans="1:14" s="133" customFormat="1" ht="75" x14ac:dyDescent="0.45">
+      <c r="A27" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="128" t="s">
+      <c r="B27" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D27" s="129"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="139" t="s">
+      <c r="D27" s="128"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H27" s="136" t="s">
+      <c r="H27" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I27" s="136" t="s">
+      <c r="I27" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="J27" s="202"/>
-      <c r="K27" s="137" t="s">
+      <c r="J27" s="201"/>
+      <c r="K27" s="136" t="s">
         <v>496</v>
       </c>
-      <c r="L27" s="127">
+      <c r="L27" s="126">
         <f>IFERROR(MATCH(A27, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>47</v>
       </c>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-    </row>
-    <row r="28" spans="1:14" s="134" customFormat="1" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="127" t="s">
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+    </row>
+    <row r="28" spans="1:14" s="133" customFormat="1" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A28" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D28" s="129" t="s">
+      <c r="D28" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E28" s="127" t="s">
+      <c r="E28" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F28" s="138" t="s">
+      <c r="F28" s="137" t="s">
         <v>497</v>
       </c>
-      <c r="G28" s="142" t="s">
+      <c r="G28" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H28" s="136" t="s">
+      <c r="H28" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I28" s="136" t="s">
+      <c r="I28" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J28" s="203" t="s">
+      <c r="J28" s="202" t="s">
         <v>498</v>
       </c>
-      <c r="K28" s="137"/>
-      <c r="L28" s="127">
+      <c r="K28" s="136"/>
+      <c r="L28" s="126">
         <f>IFERROR(MATCH(A28, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>48</v>
       </c>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-    </row>
-    <row r="29" spans="1:14" s="134" customFormat="1" ht="75" x14ac:dyDescent="0.45">
-      <c r="A29" s="127" t="s">
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+    </row>
+    <row r="29" spans="1:14" s="133" customFormat="1" ht="75" x14ac:dyDescent="0.45">
+      <c r="A29" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D29" s="129" t="s">
+      <c r="D29" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E29" s="127" t="s">
+      <c r="E29" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F29" s="138" t="s">
+      <c r="F29" s="137" t="s">
         <v>499</v>
       </c>
-      <c r="G29" s="142" t="s">
+      <c r="G29" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H29" s="136" t="s">
+      <c r="H29" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I29" s="136" t="s">
+      <c r="I29" s="135" t="s">
         <v>500</v>
       </c>
-      <c r="J29" s="136" t="s">
+      <c r="J29" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K29" s="144" t="s">
+      <c r="K29" s="143" t="s">
         <v>501</v>
       </c>
-      <c r="L29" s="127">
+      <c r="L29" s="126">
         <f>IFERROR(MATCH(A29, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>41</v>
       </c>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-    </row>
-    <row r="30" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A30" s="127" t="s">
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+    </row>
+    <row r="30" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A30" s="126" t="s">
         <v>502</v>
       </c>
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D30" s="129"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="139" t="s">
+      <c r="D30" s="128"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H30" s="136" t="s">
+      <c r="H30" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I30" s="136" t="s">
+      <c r="I30" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J30" s="136" t="s">
+      <c r="J30" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="L30" s="127" t="str">
+      <c r="L30" s="126" t="str">
         <f>IFERROR(MATCH(A30, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>No</v>
       </c>
-      <c r="M30" s="127" t="s">
+      <c r="M30" s="126" t="s">
         <v>503</v>
       </c>
-      <c r="N30" s="141" t="s">
+      <c r="N30" s="140" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A31" s="127" t="s">
+    <row r="31" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A31" s="126" t="s">
         <v>505</v>
       </c>
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D31" s="129"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="139" t="s">
+      <c r="D31" s="128"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136" t="s">
+      <c r="H31" s="135"/>
+      <c r="I31" s="135" t="s">
         <v>506</v>
       </c>
-      <c r="J31" s="136"/>
-      <c r="K31" s="145" t="s">
+      <c r="J31" s="135"/>
+      <c r="K31" s="144" t="s">
         <v>507</v>
       </c>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-    </row>
-    <row r="32" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A32" s="127" t="s">
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+    </row>
+    <row r="32" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A32" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D32" s="129" t="s">
+      <c r="D32" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E32" s="127" t="s">
+      <c r="E32" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F32" s="138" t="s">
+      <c r="F32" s="137" t="s">
         <v>499</v>
       </c>
-      <c r="G32" s="142" t="s">
+      <c r="G32" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H32" s="136" t="s">
+      <c r="H32" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I32" s="202" t="s">
+      <c r="I32" s="201" t="s">
         <v>471</v>
       </c>
-      <c r="J32" s="136" t="s">
+      <c r="J32" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K32" s="137" t="s">
+      <c r="K32" s="136" t="s">
         <v>508</v>
       </c>
-      <c r="L32" s="127">
+      <c r="L32" s="126">
         <f>IFERROR(MATCH(A32, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>51</v>
       </c>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-    </row>
-    <row r="33" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A33" s="127" t="s">
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
+    </row>
+    <row r="33" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A33" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="128" t="s">
+      <c r="B33" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="139" t="s">
+      <c r="D33" s="128"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H33" s="136" t="s">
+      <c r="H33" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I33" s="136" t="s">
+      <c r="I33" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J33" s="136" t="s">
+      <c r="J33" s="135" t="s">
         <v>509</v>
       </c>
-      <c r="K33" s="128"/>
-      <c r="L33" s="127">
+      <c r="K33" s="127"/>
+      <c r="L33" s="126">
         <f>IFERROR(MATCH(A33, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>17</v>
       </c>
-      <c r="M33" s="128" t="s">
+      <c r="M33" s="127" t="s">
         <v>510</v>
       </c>
-      <c r="N33" s="133" t="s">
+      <c r="N33" s="132" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A34" s="127" t="s">
+    <row r="34" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A34" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="127" t="s">
+      <c r="D34" s="128"/>
+      <c r="E34" s="126" t="s">
         <v>479</v>
       </c>
-      <c r="F34" s="127"/>
-      <c r="G34" s="139" t="s">
+      <c r="F34" s="126"/>
+      <c r="G34" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H34" s="136" t="s">
+      <c r="H34" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I34" s="136" t="s">
+      <c r="I34" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J34" s="136" t="s">
+      <c r="J34" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K34" s="137"/>
-      <c r="L34" s="127">
+      <c r="K34" s="136"/>
+      <c r="L34" s="126">
         <f>IFERROR(MATCH(A34, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>53</v>
       </c>
-      <c r="M34" s="127"/>
-      <c r="N34" s="127"/>
-    </row>
-    <row r="35" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A35" s="127" t="s">
+      <c r="M34" s="126"/>
+      <c r="N34" s="126"/>
+    </row>
+    <row r="35" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A35" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="128" t="s">
+      <c r="B35" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D35" s="129"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="139" t="s">
+      <c r="D35" s="128"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H35" s="136" t="s">
+      <c r="H35" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I35" s="136" t="s">
+      <c r="I35" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="J35" s="136" t="s">
+      <c r="J35" s="135" t="s">
         <v>479</v>
       </c>
-      <c r="K35" s="128"/>
-      <c r="L35" s="127">
+      <c r="K35" s="127"/>
+      <c r="L35" s="126">
         <f>IFERROR(MATCH(A35, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>55</v>
       </c>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-    </row>
-    <row r="36" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A36" s="126" t="s">
+      <c r="M35" s="126"/>
+      <c r="N35" s="126"/>
+    </row>
+    <row r="36" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A36" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="128" t="s">
+      <c r="B36" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D36" s="129"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="139" t="s">
+      <c r="D36" s="128"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H36" s="136" t="s">
+      <c r="H36" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I36" s="136" t="s">
+      <c r="I36" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="J36" s="136" t="s">
+      <c r="J36" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K36" s="137"/>
-      <c r="L36" s="127">
+      <c r="K36" s="136"/>
+      <c r="L36" s="126">
         <f>IFERROR(MATCH(A36, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>56</v>
       </c>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L36" xr:uid="{01A691B4-AA68-48E3-AD22-997914FE3569}"/>
+  <autoFilter ref="A1:L36" xr:uid="{01A691B4-AA68-48E3-AD22-997914FE3569}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L36">
+      <sortCondition ref="A1:A36"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="L17">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(L17))=0</formula>
@@ -26012,177 +25996,177 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="96" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="96" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="96" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="96" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="96" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="96" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="96" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="96" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="96" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="96" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="96" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="96" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="96" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="96" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="96" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="96" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="96" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="96" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="96" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="96" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="96" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="96" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="96" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="96" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="96" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="96" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="96" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="96" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="96" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="96" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="96" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="96" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="96" t="s">
         <v>241</v>
       </c>
       <c r="B36" t="s">
@@ -26190,32 +26174,32 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="96" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="96" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="96" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A40" s="97" t="s">
+      <c r="A40" s="96" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="96" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="96" t="s">
         <v>98</v>
       </c>
       <c r="B42" t="s">
@@ -26223,32 +26207,32 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="96" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="96" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="96" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A46" s="97" t="s">
+      <c r="A46" s="96" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="96" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="96" t="s">
         <v>92</v>
       </c>
       <c r="B48" t="s">
@@ -26256,7 +26240,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="96" t="s">
         <v>95</v>
       </c>
       <c r="B49" t="s">
@@ -26264,7 +26248,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A50" s="97" t="s">
+      <c r="A50" s="96" t="s">
         <v>102</v>
       </c>
       <c r="B50" t="s">
@@ -26272,32 +26256,32 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="96" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="96" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A53" s="97" t="s">
+      <c r="A53" s="96" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A54" s="97" t="s">
+      <c r="A54" s="96" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A55" s="97" t="s">
+      <c r="A55" s="96" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="96" t="s">
         <v>109</v>
       </c>
       <c r="B56" t="s">
@@ -26305,12 +26289,12 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A57" s="97" t="s">
+      <c r="A57" s="96" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="96" t="s">
         <v>305</v>
       </c>
     </row>
@@ -26340,14 +26324,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cd273273-2d29-47ce-b53b-3ecfd61fda9e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf217452-244c-46eb-9f4c-99f380b0c60c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26594,21 +26576,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cd273273-2d29-47ce-b53b-3ecfd61fda9e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf217452-244c-46eb-9f4c-99f380b0c60c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC106C94-D7F3-45A3-A47C-129DAA9EEEA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9895CAF2-115F-4D6B-AFC0-E986E2DAAA4B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cd273273-2d29-47ce-b53b-3ecfd61fda9e"/>
-    <ds:schemaRef ds:uri="cf217452-244c-46eb-9f4c-99f380b0c60c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26633,9 +26614,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9895CAF2-115F-4D6B-AFC0-E986E2DAAA4B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC106C94-D7F3-45A3-A47C-129DAA9EEEA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cd273273-2d29-47ce-b53b-3ecfd61fda9e"/>
+    <ds:schemaRef ds:uri="cf217452-244c-46eb-9f4c-99f380b0c60c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/input/base_funding_tracker.xlsx
+++ b/data/input/base_funding_tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/panlilioj_who_int/Documents/covid19_vaccination_analysis/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{D5254A32-F093-4EA6-BC20-FC2E28D07CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4093454C-F47C-4434-8429-7735D4BEC646}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B6BB9124-47B9-4F54-92A8-6F92B0BC56CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7291669D-3436-4729-8BD4-FA13523EEF49}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="3" xr2:uid="{7AD3A49B-7938-47E2-9067-2612B2635868}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{7AD3A49B-7938-47E2-9067-2612B2635868}"/>
   </bookViews>
   <sheets>
     <sheet name="Country Deep Dives" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Country Deep Dives'!$A$1:$M$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Gavi Country Groups'!$A$2:$G$229</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'One Budget &amp; CDS '!$A$1:$L$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'One Budget tracker'!$B$1:$Y$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'One Budget tracker'!$A$1:$X$35</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -3160,12 +3160,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,,\ &quot;M&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,\ &quot;K&quot;"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,,\ &quot;M&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,\ &quot;K&quot;"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -4049,16 +4049,16 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4076,9 +4076,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4258,9 +4258,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4632,7 +4629,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="2" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6579,11 +6576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FC8A75-388D-4700-A62B-F6EDA7361E53}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
@@ -6591,17 +6587,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="150" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="154" customWidth="1"/>
-    <col min="3" max="3" width="13" style="169" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" style="161" customWidth="1"/>
-    <col min="5" max="5" width="12.1328125" style="176" customWidth="1"/>
-    <col min="6" max="7" width="15.265625" style="176" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" style="161" customWidth="1"/>
-    <col min="9" max="9" width="15.1328125" style="106" customWidth="1"/>
-    <col min="10" max="10" width="16.1328125" style="106" customWidth="1"/>
-    <col min="11" max="11" width="13.86328125" style="106" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" style="106" customWidth="1"/>
+    <col min="1" max="1" width="9" style="149" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="153" customWidth="1"/>
+    <col min="3" max="3" width="13" style="168" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" style="160" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" style="175" customWidth="1"/>
+    <col min="6" max="7" width="15.265625" style="175" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" style="160" customWidth="1"/>
+    <col min="9" max="9" width="15.1328125" style="105" customWidth="1"/>
+    <col min="10" max="10" width="16.1328125" style="105" customWidth="1"/>
+    <col min="11" max="11" width="13.86328125" style="105" customWidth="1"/>
+    <col min="12" max="12" width="14.3984375" style="105" customWidth="1"/>
     <col min="13" max="13" width="13.59765625" style="40" customWidth="1"/>
     <col min="14" max="14" width="16.1328125" style="40" customWidth="1"/>
     <col min="15" max="15" width="18.265625" style="40" customWidth="1"/>
@@ -6616,1148 +6612,1121 @@
     <col min="16384" max="16384" width="9.1328125" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="110" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="185" t="s">
+    <row r="1" spans="1:15" s="109" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="248" t="s">
+      <c r="D1" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="187" t="s">
+      <c r="E1" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="209" t="s">
+      <c r="F1" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="209" t="s">
+      <c r="G1" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="185" t="s">
+      <c r="H1" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="185" t="s">
+      <c r="I1" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="185" t="s">
+      <c r="J1" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="185" t="s">
+      <c r="K1" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="188" t="s">
+      <c r="L1" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="188" t="s">
+      <c r="M1" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-    </row>
-    <row r="2" spans="1:15" s="110" customFormat="1" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="149" t="s">
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+    </row>
+    <row r="2" spans="1:15" s="109" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="224">
+      <c r="C2" s="223">
         <v>0.1</v>
       </c>
-      <c r="D2" s="160">
+      <c r="D2" s="159">
         <v>0.27</v>
       </c>
-      <c r="E2" s="224">
+      <c r="E2" s="223">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F2" s="224">
+      <c r="F2" s="223">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G2" s="224"/>
-      <c r="H2" s="227" t="s">
+      <c r="G2" s="223"/>
+      <c r="H2" s="226" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="234" t="s">
+      <c r="K2" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="106" t="s">
+      <c r="L2" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="148" t="s">
+      <c r="M2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="168">
+      <c r="C3" s="167">
         <v>0.03</v>
       </c>
-      <c r="D3" s="160">
+      <c r="D3" s="159">
         <v>0.12</v>
       </c>
-      <c r="E3" s="160">
+      <c r="E3" s="159">
         <v>0.13</v>
       </c>
-      <c r="F3" s="160">
+      <c r="F3" s="159">
         <v>0.15</v>
       </c>
-      <c r="G3" s="160"/>
-      <c r="H3" s="181" t="s">
+      <c r="G3" s="159"/>
+      <c r="H3" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="156" t="s">
+      <c r="J3" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="156"/>
-      <c r="L3" s="157"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="156"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:15" s="245" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A4" s="219" t="s">
+    <row r="4" spans="1:15" s="244" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="246" t="s">
+      <c r="C4" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="247">
+      <c r="D4" s="246">
         <v>0</v>
       </c>
-      <c r="E4" s="247">
+      <c r="E4" s="246">
         <v>0</v>
       </c>
-      <c r="F4" s="247">
+      <c r="F4" s="246">
         <v>0</v>
       </c>
-      <c r="G4" s="247"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="243"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="243"/>
-      <c r="M4" s="244"/>
-      <c r="N4" s="218"/>
-      <c r="O4" s="218"/>
+      <c r="G4" s="246"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
     </row>
     <row r="5" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="168">
+      <c r="C5" s="167">
         <v>0.02</v>
       </c>
-      <c r="D5" s="160">
+      <c r="D5" s="159">
         <v>0.06</v>
       </c>
-      <c r="E5" s="160">
+      <c r="E5" s="159">
         <v>0.06</v>
       </c>
-      <c r="F5" s="160">
+      <c r="F5" s="159">
         <v>0.06</v>
       </c>
-      <c r="G5" s="160"/>
-      <c r="H5" s="181" t="s">
+      <c r="G5" s="159"/>
+      <c r="H5" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="156" t="s">
+      <c r="I5" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
       <c r="M5" s="41"/>
     </row>
-    <row r="6" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="151" t="s">
+    <row r="6" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="170">
+      <c r="C6" s="169">
         <v>0.1</v>
       </c>
-      <c r="D6" s="162">
+      <c r="D6" s="161">
         <v>0.27</v>
       </c>
-      <c r="E6" s="162">
+      <c r="E6" s="161">
         <v>0.31</v>
       </c>
-      <c r="F6" s="160">
+      <c r="F6" s="159">
         <v>0.35</v>
       </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="167" t="s">
+      <c r="G6" s="161"/>
+      <c r="H6" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="184"/>
-    </row>
-    <row r="7" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="150" t="s">
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="183"/>
+    </row>
+    <row r="7" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="190" t="s">
+      <c r="B7" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="168">
+      <c r="C7" s="167">
         <v>0.01</v>
       </c>
-      <c r="D7" s="160">
+      <c r="D7" s="159">
         <v>0.23</v>
       </c>
-      <c r="E7" s="160">
+      <c r="E7" s="159">
         <v>0.23</v>
       </c>
-      <c r="F7" s="160">
+      <c r="F7" s="159">
         <v>0.24</v>
       </c>
-      <c r="G7" s="160"/>
-      <c r="H7" s="161" t="s">
+      <c r="G7" s="159"/>
+      <c r="H7" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="148"/>
-    </row>
-    <row r="8" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="152" t="s">
+      <c r="L7" s="147"/>
+    </row>
+    <row r="8" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="171">
+      <c r="C8" s="170">
         <v>0.08</v>
       </c>
-      <c r="D8" s="163">
+      <c r="D8" s="162">
         <v>0.41</v>
       </c>
-      <c r="E8" s="163">
+      <c r="E8" s="162">
         <v>0.41</v>
       </c>
-      <c r="F8" s="162">
+      <c r="F8" s="161">
         <v>0.41</v>
       </c>
-      <c r="G8" s="164"/>
-      <c r="H8" s="200" t="s">
+      <c r="G8" s="163"/>
+      <c r="H8" s="199" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="183"/>
-    </row>
-    <row r="9" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="150" t="s">
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="182"/>
+    </row>
+    <row r="9" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="168">
+      <c r="C9" s="167">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D9" s="160">
+      <c r="D9" s="159">
         <v>0.23</v>
       </c>
-      <c r="E9" s="160">
+      <c r="E9" s="159">
         <v>0.23</v>
       </c>
-      <c r="F9" s="160">
+      <c r="F9" s="159">
         <v>0.25</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="181" t="s">
+      <c r="G9" s="159"/>
+      <c r="H9" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
       <c r="M9" s="41"/>
     </row>
     <row r="10" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="161">
         <v>0.04</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="161">
         <v>0.05</v>
       </c>
-      <c r="F10" s="162">
+      <c r="F10" s="161">
         <v>0.06</v>
       </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="228" t="s">
+      <c r="G10" s="161"/>
+      <c r="H10" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="107" t="s">
+      <c r="I10" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="107" t="s">
+      <c r="J10" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="107" t="s">
+      <c r="K10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="107"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="151" t="s">
+    <row r="11" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="191" t="s">
+      <c r="B11" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="170">
+      <c r="C11" s="169">
         <v>0.04</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="161">
         <v>0.37</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="161">
         <v>0.37</v>
       </c>
-      <c r="F11" s="162">
+      <c r="F11" s="161">
         <v>0.37</v>
       </c>
-      <c r="G11" s="162"/>
-      <c r="H11" s="179" t="s">
+      <c r="G11" s="161"/>
+      <c r="H11" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="107" t="s">
+      <c r="J11" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="107" t="s">
+      <c r="K11" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="158" t="s">
+      <c r="L11" s="157" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="194" t="s">
+      <c r="A12" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="195" t="s">
+      <c r="B12" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="199">
+      <c r="C12" s="198">
         <v>0.1</v>
       </c>
-      <c r="D12" s="196">
+      <c r="D12" s="195">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E12" s="196">
+      <c r="E12" s="195">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F12" s="196">
+      <c r="F12" s="195">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="217"/>
-      <c r="M12" s="218"/>
-    </row>
-    <row r="13" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="150" t="s">
+      <c r="G12" s="195"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="217"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="190" t="s">
+      <c r="B13" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="168">
+      <c r="C13" s="167">
         <v>0.08</v>
       </c>
-      <c r="D13" s="160">
+      <c r="D13" s="159">
         <v>0.36</v>
       </c>
-      <c r="E13" s="160">
+      <c r="E13" s="159">
         <v>0.37</v>
       </c>
-      <c r="F13" s="160">
+      <c r="F13" s="159">
         <v>0.38</v>
       </c>
-      <c r="G13" s="160"/>
-      <c r="H13" s="161" t="s">
+      <c r="G13" s="159"/>
+      <c r="H13" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="106" t="s">
+      <c r="I13" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="106" t="s">
+      <c r="J13" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="148"/>
-    </row>
-    <row r="14" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="150" t="s">
+      <c r="L13" s="147"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="168">
+      <c r="C14" s="167">
         <v>0.08</v>
       </c>
-      <c r="D14" s="160">
+      <c r="D14" s="159">
         <v>0.35</v>
       </c>
-      <c r="E14" s="160">
+      <c r="E14" s="159">
         <v>0.39</v>
       </c>
-      <c r="F14" s="160">
+      <c r="F14" s="159">
         <v>0.4</v>
       </c>
-      <c r="G14" s="160"/>
-      <c r="H14" s="161" t="s">
+      <c r="G14" s="159"/>
+      <c r="H14" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="148"/>
-    </row>
-    <row r="15" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="150" t="s">
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="147"/>
+    </row>
+    <row r="15" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="189" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="168">
+      <c r="C15" s="167">
         <v>0.01</v>
       </c>
-      <c r="D15" s="160">
+      <c r="D15" s="159">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E15" s="160">
+      <c r="E15" s="159">
         <v>0.3</v>
       </c>
-      <c r="F15" s="160">
+      <c r="F15" s="159">
         <v>0.33</v>
       </c>
-      <c r="G15" s="160"/>
-      <c r="H15" s="181" t="s">
+      <c r="G15" s="159"/>
+      <c r="H15" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="148"/>
-    </row>
-    <row r="16" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="219" t="s">
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="147"/>
+    </row>
+    <row r="16" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="225">
+      <c r="C16" s="224">
         <v>0.01</v>
       </c>
-      <c r="D16" s="226">
+      <c r="D16" s="225">
         <v>0.02</v>
       </c>
-      <c r="E16" s="226">
+      <c r="E16" s="225">
         <v>0.03</v>
       </c>
-      <c r="F16" s="226">
+      <c r="F16" s="225">
         <v>0.03</v>
       </c>
-      <c r="G16" s="226"/>
-      <c r="H16" s="229"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="231"/>
-      <c r="K16" s="231"/>
-      <c r="L16" s="235"/>
-      <c r="M16" s="218"/>
-    </row>
-    <row r="17" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="150" t="s">
+      <c r="G16" s="225"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="230"/>
+      <c r="J16" s="230"/>
+      <c r="K16" s="230"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="217"/>
+    </row>
+    <row r="17" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="168">
+      <c r="C17" s="167">
         <v>0.08</v>
       </c>
-      <c r="D17" s="160">
+      <c r="D17" s="159">
         <v>0.24</v>
       </c>
-      <c r="E17" s="160">
+      <c r="E17" s="159">
         <v>0.25</v>
       </c>
-      <c r="F17" s="160">
+      <c r="F17" s="159">
         <v>0.25</v>
       </c>
-      <c r="G17" s="160"/>
-      <c r="H17" s="161" t="s">
+      <c r="G17" s="159"/>
+      <c r="H17" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="106" t="s">
+      <c r="I17" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="106" t="s">
+      <c r="J17" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="106" t="s">
+      <c r="K17" s="105" t="s">
         <v>32</v>
       </c>
       <c r="M17" s="41"/>
     </row>
     <row r="18" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="173">
+      <c r="C18" s="172">
         <v>0.03</v>
       </c>
-      <c r="D18" s="164">
+      <c r="D18" s="163">
         <v>0.05</v>
       </c>
-      <c r="E18" s="164">
+      <c r="E18" s="163">
         <v>0.05</v>
       </c>
-      <c r="F18" s="164">
+      <c r="F18" s="163">
         <v>0.06</v>
       </c>
-      <c r="G18" s="164"/>
-      <c r="H18" s="180" t="s">
+      <c r="G18" s="163"/>
+      <c r="H18" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="238"/>
-    </row>
-    <row r="19" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="150" t="s">
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="237"/>
+    </row>
+    <row r="19" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="190" t="s">
+      <c r="B19" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="168">
+      <c r="C19" s="167">
         <v>0.04</v>
       </c>
-      <c r="D19" s="160">
+      <c r="D19" s="159">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E19" s="160">
+      <c r="E19" s="159">
         <v>0.16</v>
       </c>
-      <c r="F19" s="160">
+      <c r="F19" s="159">
         <v>0.2</v>
       </c>
-      <c r="G19" s="160"/>
-      <c r="H19" s="239" t="s">
+      <c r="G19" s="159"/>
+      <c r="H19" s="238" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
       <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="150" t="s">
+      <c r="A20" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="190" t="s">
+      <c r="B20" s="189" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="168">
+      <c r="C20" s="167">
         <v>0.03</v>
       </c>
-      <c r="D20" s="160">
+      <c r="D20" s="159">
         <v>0.11</v>
       </c>
-      <c r="E20" s="160">
+      <c r="E20" s="159">
         <v>0.11</v>
       </c>
-      <c r="F20" s="160">
+      <c r="F20" s="159">
         <v>0.12</v>
       </c>
-      <c r="G20" s="160"/>
-      <c r="H20" s="181" t="s">
+      <c r="G20" s="159"/>
+      <c r="H20" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
       <c r="M20" s="41"/>
     </row>
     <row r="21" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="168">
+      <c r="C21" s="167">
         <v>0.04</v>
       </c>
-      <c r="D21" s="160">
+      <c r="D21" s="159">
         <v>0.15</v>
       </c>
-      <c r="E21" s="160">
+      <c r="E21" s="159">
         <v>0.15</v>
       </c>
-      <c r="F21" s="160">
+      <c r="F21" s="159">
         <v>0.15</v>
       </c>
-      <c r="G21" s="160"/>
-      <c r="H21" s="181" t="s">
+      <c r="G21" s="159"/>
+      <c r="H21" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="156" t="s">
+      <c r="I21" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
       <c r="M21" s="41"/>
     </row>
-    <row r="22" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="150" t="s">
+    <row r="22" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="168">
+      <c r="C22" s="167">
         <v>0.02</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="159">
         <v>0.2</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="159">
         <v>0.21</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="159">
         <v>0.27</v>
       </c>
-      <c r="G22" s="160"/>
-      <c r="H22" s="161" t="s">
+      <c r="G22" s="159"/>
+      <c r="H22" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="106" t="s">
+      <c r="I22" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="106" t="s">
+      <c r="J22" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="106" t="s">
+      <c r="K22" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="106" t="s">
+      <c r="L22" s="105" t="s">
         <v>80</v>
       </c>
       <c r="M22" s="41"/>
     </row>
     <row r="23" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="190" t="s">
+      <c r="B23" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="168">
+      <c r="C23" s="167">
         <v>0.02</v>
       </c>
-      <c r="D23" s="160">
+      <c r="D23" s="159">
         <v>0.04</v>
       </c>
-      <c r="E23" s="160">
+      <c r="E23" s="159">
         <v>0.04</v>
       </c>
-      <c r="F23" s="160">
+      <c r="F23" s="159">
         <v>0.04</v>
       </c>
-      <c r="G23" s="160"/>
-      <c r="H23" s="181" t="s">
+      <c r="G23" s="159"/>
+      <c r="H23" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="156" t="s">
+      <c r="I23" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
       <c r="M23" s="41"/>
     </row>
     <row r="24" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="190" t="s">
+      <c r="B24" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="167">
         <v>0.06</v>
       </c>
-      <c r="D24" s="160">
+      <c r="D24" s="159">
         <v>0.09</v>
       </c>
-      <c r="E24" s="160">
+      <c r="E24" s="159">
         <v>0.09</v>
       </c>
-      <c r="F24" s="160">
+      <c r="F24" s="159">
         <v>0.09</v>
       </c>
-      <c r="G24" s="160"/>
-      <c r="H24" s="181" t="s">
+      <c r="G24" s="159"/>
+      <c r="H24" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="106" t="s">
+      <c r="J24" s="105" t="s">
         <v>86</v>
       </c>
       <c r="M24" s="41"/>
     </row>
-    <row r="25" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="150" t="s">
+    <row r="25" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="190" t="s">
+      <c r="B25" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="168">
+      <c r="C25" s="167">
         <v>0.05</v>
       </c>
-      <c r="D25" s="160">
+      <c r="D25" s="159">
         <v>0.36</v>
       </c>
-      <c r="E25" s="160">
+      <c r="E25" s="159">
         <v>0.36</v>
       </c>
-      <c r="F25" s="160">
+      <c r="F25" s="159">
         <v>0.4</v>
       </c>
-      <c r="G25" s="160"/>
-      <c r="H25" s="161" t="s">
+      <c r="G25" s="159"/>
+      <c r="H25" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="106" t="s">
+      <c r="I25" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="106" t="s">
+      <c r="J25" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="106" t="s">
+      <c r="K25" s="105" t="s">
         <v>89</v>
       </c>
       <c r="M25" s="41"/>
     </row>
-    <row r="26" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="151" t="s">
+    <row r="26" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="191" t="s">
+      <c r="B26" s="190" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="170">
+      <c r="C26" s="169">
         <v>0.09</v>
       </c>
-      <c r="D26" s="162">
+      <c r="D26" s="161">
         <v>0.44</v>
       </c>
-      <c r="E26" s="162">
+      <c r="E26" s="161">
         <v>0.45</v>
       </c>
-      <c r="F26" s="162">
+      <c r="F26" s="161">
         <v>0.46</v>
       </c>
-      <c r="G26" s="162"/>
-      <c r="H26" s="201" t="s">
+      <c r="G26" s="161"/>
+      <c r="H26" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="107" t="s">
+      <c r="I26" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="158"/>
-    </row>
-    <row r="27" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="152" t="s">
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="157"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="221" t="s">
+      <c r="B27" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="171">
+      <c r="C27" s="170">
         <v>0.05</v>
       </c>
-      <c r="D27" s="163">
+      <c r="D27" s="162">
         <v>0.22</v>
       </c>
-      <c r="E27" s="163">
+      <c r="E27" s="162">
         <v>0.24</v>
       </c>
-      <c r="F27" s="163">
+      <c r="F27" s="162">
         <v>0.39</v>
       </c>
-      <c r="G27" s="163"/>
-      <c r="H27" s="200" t="s">
+      <c r="G27" s="162"/>
+      <c r="H27" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="240" t="s">
+      <c r="I27" s="239" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="240" t="s">
+      <c r="J27" s="239" t="s">
         <v>94</v>
       </c>
-      <c r="K27" s="240"/>
-      <c r="L27" s="159"/>
-    </row>
-    <row r="28" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="150" t="s">
+      <c r="K27" s="239"/>
+      <c r="L27" s="158"/>
+    </row>
+    <row r="28" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="190" t="s">
+      <c r="B28" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="168">
+      <c r="C28" s="167">
         <v>0.02</v>
       </c>
-      <c r="D28" s="160">
+      <c r="D28" s="159">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E28" s="160">
+      <c r="E28" s="159">
         <v>0.17</v>
       </c>
-      <c r="F28" s="160">
+      <c r="F28" s="159">
         <v>0.19</v>
       </c>
-      <c r="G28" s="160"/>
-      <c r="H28" s="181" t="s">
+      <c r="G28" s="159"/>
+      <c r="H28" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="241" t="s">
+      <c r="I28" s="240" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
       <c r="M28" s="41"/>
     </row>
     <row r="29" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="189" t="s">
+      <c r="B29" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="173">
+      <c r="C29" s="172">
         <v>0.03</v>
       </c>
-      <c r="D29" s="164">
+      <c r="D29" s="163">
         <v>0.15</v>
       </c>
-      <c r="E29" s="164">
+      <c r="E29" s="163">
         <v>0.15</v>
       </c>
-      <c r="F29" s="164">
+      <c r="F29" s="163">
         <v>0.15</v>
       </c>
-      <c r="G29" s="164"/>
-      <c r="H29" s="180" t="s">
+      <c r="G29" s="163"/>
+      <c r="H29" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="108" t="s">
+      <c r="I29" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="108" t="s">
+      <c r="J29" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="108" t="s">
+      <c r="K29" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="108" t="s">
+      <c r="L29" s="107" t="s">
         <v>101</v>
       </c>
       <c r="M29" s="41"/>
     </row>
-    <row r="30" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="150" t="s">
+    <row r="30" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="168">
+      <c r="C30" s="167">
         <v>0.05</v>
       </c>
-      <c r="D30" s="160">
+      <c r="D30" s="159">
         <v>0.17</v>
       </c>
-      <c r="E30" s="160">
+      <c r="E30" s="159">
         <v>0.17</v>
       </c>
-      <c r="F30" s="160">
+      <c r="F30" s="159">
         <v>0.17</v>
       </c>
-      <c r="G30" s="160"/>
-      <c r="H30" s="161" t="s">
+      <c r="G30" s="159"/>
+      <c r="H30" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
       <c r="M30" s="41"/>
     </row>
-    <row r="31" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="150" t="s">
+    <row r="31" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="190" t="s">
+      <c r="B31" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="168">
+      <c r="C31" s="167">
         <v>0.02</v>
       </c>
-      <c r="D31" s="160">
+      <c r="D31" s="159">
         <v>0.31</v>
       </c>
-      <c r="E31" s="160">
+      <c r="E31" s="159">
         <v>0.34</v>
       </c>
-      <c r="F31" s="160">
+      <c r="F31" s="159">
         <v>0.4</v>
       </c>
-      <c r="G31" s="160"/>
-      <c r="H31" s="161" t="s">
+      <c r="G31" s="159"/>
+      <c r="H31" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="156" t="s">
+      <c r="I31" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
       <c r="M31" s="41"/>
     </row>
-    <row r="32" spans="1:13" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="149" t="s">
+    <row r="32" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="189" t="s">
+      <c r="B32" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="173">
+      <c r="C32" s="172">
         <v>0.1</v>
       </c>
-      <c r="D32" s="164">
+      <c r="D32" s="163">
         <v>0.19</v>
       </c>
-      <c r="E32" s="164">
+      <c r="E32" s="163">
         <v>0.19</v>
       </c>
-      <c r="F32" s="164">
+      <c r="F32" s="163">
         <v>0.19</v>
       </c>
-      <c r="G32" s="164"/>
-      <c r="H32" s="180" t="s">
+      <c r="G32" s="163"/>
+      <c r="H32" s="179" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="178" t="s">
+      <c r="I32" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="108"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="107"/>
       <c r="M32" s="41"/>
     </row>
-    <row r="33" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="153" t="s">
+    <row r="33" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="193" t="s">
+      <c r="B33" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="174">
+      <c r="C33" s="173">
         <v>0.03</v>
       </c>
-      <c r="D33" s="165">
+      <c r="D33" s="164">
         <v>0.4</v>
       </c>
-      <c r="E33" s="165">
+      <c r="E33" s="164">
         <v>0.4</v>
       </c>
-      <c r="F33" s="165">
+      <c r="F33" s="164">
         <v>0.41</v>
       </c>
-      <c r="G33" s="165"/>
-      <c r="H33" s="230" t="s">
+      <c r="G33" s="164"/>
+      <c r="H33" s="229" t="s">
         <v>101</v>
       </c>
-      <c r="I33" s="232"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="232"/>
-      <c r="L33" s="109"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="231"/>
+      <c r="L33" s="108"/>
       <c r="M33" s="41"/>
     </row>
-    <row r="34" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="150" t="s">
+    <row r="34" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="168">
+      <c r="C34" s="167">
         <v>0.01</v>
       </c>
-      <c r="D34" s="160">
+      <c r="D34" s="159">
         <v>0.02</v>
       </c>
-      <c r="E34" s="160">
+      <c r="E34" s="159">
         <v>0.02</v>
       </c>
-      <c r="F34" s="160">
+      <c r="F34" s="159">
         <v>0.03</v>
       </c>
-      <c r="G34" s="160"/>
-      <c r="H34" s="161" t="s">
+      <c r="G34" s="159"/>
+      <c r="H34" s="160" t="s">
         <v>110</v>
       </c>
       <c r="M34" s="41"/>
     </row>
-    <row r="35" spans="1:15" ht="13.15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="220" t="s">
+    <row r="35" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="219" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="223" t="s">
+      <c r="B35" s="222" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="175">
+      <c r="C35" s="174">
         <v>0.04</v>
       </c>
-      <c r="D35" s="166">
+      <c r="D35" s="165">
         <v>0.43</v>
       </c>
-      <c r="E35" s="166">
+      <c r="E35" s="165">
         <v>0.43</v>
       </c>
-      <c r="F35" s="166">
+      <c r="F35" s="165">
         <v>0.45</v>
       </c>
-      <c r="G35" s="166"/>
-      <c r="H35" s="182" t="s">
+      <c r="G35" s="165"/>
+      <c r="H35" s="181" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="233"/>
-      <c r="J35" s="233"/>
-      <c r="K35" s="233"/>
-      <c r="L35" s="236"/>
-      <c r="M35" s="237"/>
+      <c r="I35" s="232"/>
+      <c r="J35" s="232"/>
+      <c r="K35" s="232"/>
+      <c r="L35" s="235"/>
+      <c r="M35" s="236"/>
       <c r="N35" s="47"/>
       <c r="O35" s="47"/>
     </row>
     <row r="36" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="151"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
+      <c r="A36" s="150"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="166"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
       <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="151"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
+      <c r="A37" s="150"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="166"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
     </row>
     <row r="1048576" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G1048576" s="161"/>
+      <c r="G1048576" s="160"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M35" xr:uid="{12FC8A75-388D-4700-A62B-F6EDA7361E53}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Burkina Faso"/>
-        <filter val="Burundi"/>
-        <filter val="Cameroon"/>
-        <filter val="DRC"/>
-        <filter val="Gabon"/>
-        <filter val="Madagascar"/>
-        <filter val="Mali"/>
-        <filter val="Niger"/>
-        <filter val="PNG"/>
-        <filter val="Senegal"/>
-        <filter val="Sudan"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="0%"/>
-        <filter val="12%"/>
-        <filter val="14%"/>
-        <filter val="15%"/>
-        <filter val="3%"/>
-        <filter val="4%"/>
-        <filter val="6%"/>
-        <filter val="9%"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M35">
       <sortCondition ref="B1:B35"/>
     </sortState>
@@ -7785,7 +7754,7 @@
       <c r="A1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7793,7 +7762,7 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="112">
+      <c r="B2" s="111">
         <v>0.21251470586497501</v>
       </c>
     </row>
@@ -7809,7 +7778,7 @@
       <c r="A4" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="112">
+      <c r="B4" s="111">
         <v>0.14780003869463099</v>
       </c>
     </row>
@@ -7833,7 +7802,7 @@
       <c r="A7" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="111">
         <v>0.23240393677749599</v>
       </c>
     </row>
@@ -7921,7 +7890,7 @@
       <c r="A18" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="112">
+      <c r="B18" s="111">
         <v>0.73341413878513295</v>
       </c>
     </row>
@@ -7961,7 +7930,7 @@
       <c r="A23" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="112">
+      <c r="B23" s="111">
         <v>0.22189562161805401</v>
       </c>
     </row>
@@ -7977,7 +7946,7 @@
       <c r="A25" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="112">
+      <c r="B25" s="111">
         <v>0.87283309659827202</v>
       </c>
     </row>
@@ -7985,7 +7954,7 @@
       <c r="A26" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="112">
+      <c r="B26" s="111">
         <v>0.52348128218050805</v>
       </c>
     </row>
@@ -8041,7 +8010,7 @@
       <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="112">
+      <c r="B33" s="111">
         <v>7.8473308940661998E-2</v>
       </c>
     </row>
@@ -8049,7 +8018,7 @@
       <c r="A34" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="112">
+      <c r="B34" s="111">
         <v>1.41975499681097E-3</v>
       </c>
     </row>
@@ -8057,7 +8026,7 @@
       <c r="A35" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="112">
+      <c r="B35" s="111">
         <v>0.55404892560437502</v>
       </c>
     </row>
@@ -8065,7 +8034,7 @@
       <c r="A36" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="112">
+      <c r="B36" s="111">
         <v>0.86292237587673604</v>
       </c>
     </row>
@@ -8073,7 +8042,7 @@
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="112">
+      <c r="B37" s="111">
         <v>4.6209008160706597E-2</v>
       </c>
     </row>
@@ -8089,7 +8058,7 @@
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="112">
+      <c r="B39" s="111">
         <v>0.25787952089614202</v>
       </c>
     </row>
@@ -8105,7 +8074,7 @@
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="112">
+      <c r="B41" s="111">
         <v>0.12745277813087899</v>
       </c>
     </row>
@@ -8145,7 +8114,7 @@
       <c r="A46" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="112">
+      <c r="B46" s="111">
         <v>0.43931872203458799</v>
       </c>
     </row>
@@ -8153,7 +8122,7 @@
       <c r="A47" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="112">
+      <c r="B47" s="111">
         <v>0.118540900134412</v>
       </c>
     </row>
@@ -8174,7 +8143,7 @@
       <c r="A50" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="112">
+      <c r="B50" s="111">
         <v>0.31728884156711701</v>
       </c>
     </row>
@@ -8230,7 +8199,7 @@
       <c r="A57" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="112">
+      <c r="B57" s="111">
         <v>0.19298886639676099</v>
       </c>
     </row>
@@ -8238,7 +8207,7 @@
       <c r="A58" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="112">
+      <c r="B58" s="111">
         <v>0.424580850384075</v>
       </c>
     </row>
@@ -8254,13 +8223,13 @@
       <c r="A60" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="112"/>
+      <c r="B60" s="111"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="112">
+      <c r="B61" s="111">
         <v>2.7592365876626501E-2</v>
       </c>
     </row>
@@ -8276,7 +8245,7 @@
       <c r="A63" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="112">
+      <c r="B63" s="111">
         <v>0.37980236832180098</v>
       </c>
     </row>
@@ -8284,7 +8253,7 @@
       <c r="A64" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="112">
+      <c r="B64" s="111">
         <v>0.66545460712388804</v>
       </c>
     </row>
@@ -8300,7 +8269,7 @@
       <c r="A66" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="112"/>
+      <c r="B66" s="111"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
@@ -8314,7 +8283,7 @@
       <c r="A68" t="s">
         <v>175</v>
       </c>
-      <c r="B68" s="112">
+      <c r="B68" s="111">
         <v>0.29486176092345501</v>
       </c>
     </row>
@@ -8322,7 +8291,7 @@
       <c r="A69" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="112">
+      <c r="B69" s="111">
         <v>0.319295505982294</v>
       </c>
     </row>
@@ -8330,7 +8299,7 @@
       <c r="A70" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="112">
+      <c r="B70" s="111">
         <v>0.70963528158448097</v>
       </c>
     </row>
@@ -8378,7 +8347,7 @@
       <c r="A76" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="112">
+      <c r="B76" s="111">
         <v>0.147885435649414</v>
       </c>
     </row>
@@ -8402,7 +8371,7 @@
       <c r="A79" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="112">
+      <c r="B79" s="111">
         <v>0.257806052468804</v>
       </c>
     </row>
@@ -8418,7 +8387,7 @@
       <c r="A81" t="s">
         <v>185</v>
       </c>
-      <c r="B81" s="112">
+      <c r="B81" s="111">
         <v>0.343814153550829</v>
       </c>
     </row>
@@ -8450,7 +8419,7 @@
       <c r="A85" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="112">
+      <c r="B85" s="111">
         <v>0.20651308422921399</v>
       </c>
     </row>
@@ -8458,7 +8427,7 @@
       <c r="A86" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="112">
+      <c r="B86" s="111">
         <v>0.17397806200301699</v>
       </c>
     </row>
@@ -8466,7 +8435,7 @@
       <c r="A87" t="s">
         <v>190</v>
       </c>
-      <c r="B87" s="112">
+      <c r="B87" s="111">
         <v>0.47326940876127699</v>
       </c>
     </row>
@@ -8474,7 +8443,7 @@
       <c r="A88" t="s">
         <v>60</v>
       </c>
-      <c r="B88" s="112">
+      <c r="B88" s="111">
         <v>1.4259907978300901E-2</v>
       </c>
     </row>
@@ -8482,7 +8451,7 @@
       <c r="A89" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="112">
+      <c r="B89" s="111">
         <v>0.55465703990072501</v>
       </c>
     </row>
@@ -8511,7 +8480,7 @@
       <c r="A93" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="112">
+      <c r="B93" s="111">
         <v>0.67866948335819899</v>
       </c>
     </row>
@@ -8519,7 +8488,7 @@
       <c r="A94" t="s">
         <v>196</v>
       </c>
-      <c r="B94" s="112">
+      <c r="B94" s="111">
         <v>0.62282172235841504</v>
       </c>
     </row>
@@ -8599,7 +8568,7 @@
       <c r="A104" t="s">
         <v>61</v>
       </c>
-      <c r="B104" s="112">
+      <c r="B104" s="111">
         <v>0.17345339788722899</v>
       </c>
     </row>
@@ -8607,7 +8576,7 @@
       <c r="A105" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="112">
+      <c r="B105" s="111">
         <v>0.51884067677418799</v>
       </c>
     </row>
@@ -8615,7 +8584,7 @@
       <c r="A106" t="s">
         <v>207</v>
       </c>
-      <c r="B106" s="112">
+      <c r="B106" s="111">
         <v>0.45880859803549201</v>
       </c>
     </row>
@@ -8631,7 +8600,7 @@
       <c r="A108" t="s">
         <v>209</v>
       </c>
-      <c r="B108" s="112">
+      <c r="B108" s="111">
         <v>0.19708083347038699</v>
       </c>
     </row>
@@ -8639,7 +8608,7 @@
       <c r="A109" t="s">
         <v>210</v>
       </c>
-      <c r="B109" s="112">
+      <c r="B109" s="111">
         <v>0.70605946483844495</v>
       </c>
     </row>
@@ -8663,7 +8632,7 @@
       <c r="A112" t="s">
         <v>213</v>
       </c>
-      <c r="B112" s="112">
+      <c r="B112" s="111">
         <v>0.407357408032399</v>
       </c>
     </row>
@@ -8671,7 +8640,7 @@
       <c r="A113" t="s">
         <v>214</v>
       </c>
-      <c r="B113" s="112">
+      <c r="B113" s="111">
         <v>0.46031471735761897</v>
       </c>
     </row>
@@ -8708,7 +8677,7 @@
       <c r="A118" t="s">
         <v>65</v>
       </c>
-      <c r="B118" s="112">
+      <c r="B118" s="111">
         <v>4.84589623971209E-2</v>
       </c>
     </row>
@@ -8716,7 +8685,7 @@
       <c r="A119" t="s">
         <v>68</v>
       </c>
-      <c r="B119" s="112">
+      <c r="B119" s="111">
         <v>0.10102084939889</v>
       </c>
     </row>
@@ -8732,7 +8701,7 @@
       <c r="A121" t="s">
         <v>220</v>
       </c>
-      <c r="B121" s="112">
+      <c r="B121" s="111">
         <v>0.71185139415107701</v>
       </c>
     </row>
@@ -8740,7 +8709,7 @@
       <c r="A122" t="s">
         <v>70</v>
       </c>
-      <c r="B122" s="112">
+      <c r="B122" s="111">
         <v>7.3985104711494998E-2</v>
       </c>
     </row>
@@ -8756,7 +8725,7 @@
       <c r="A124" t="s">
         <v>222</v>
       </c>
-      <c r="B124" s="112">
+      <c r="B124" s="111">
         <v>0.49121532587762201</v>
       </c>
     </row>
@@ -8769,7 +8738,7 @@
       <c r="A126" t="s">
         <v>224</v>
       </c>
-      <c r="B126" s="112">
+      <c r="B126" s="111">
         <v>0.30329004842936802</v>
       </c>
     </row>
@@ -8793,7 +8762,7 @@
       <c r="A129" t="s">
         <v>227</v>
       </c>
-      <c r="B129" s="112">
+      <c r="B129" s="111">
         <v>0.53503212400998001</v>
       </c>
     </row>
@@ -8809,7 +8778,7 @@
       <c r="A131" t="s">
         <v>229</v>
       </c>
-      <c r="B131" s="112">
+      <c r="B131" s="111">
         <v>0.66412916489999296</v>
       </c>
     </row>
@@ -8833,7 +8802,7 @@
       <c r="A134" t="s">
         <v>232</v>
       </c>
-      <c r="B134" s="112">
+      <c r="B134" s="111">
         <v>0.63585421082746996</v>
       </c>
     </row>
@@ -8841,7 +8810,7 @@
       <c r="A135" t="s">
         <v>233</v>
       </c>
-      <c r="B135" s="112">
+      <c r="B135" s="111">
         <v>0.45107818848145897</v>
       </c>
     </row>
@@ -8849,7 +8818,7 @@
       <c r="A136" t="s">
         <v>234</v>
       </c>
-      <c r="B136" s="112">
+      <c r="B136" s="111">
         <v>0.50625675889269905</v>
       </c>
     </row>
@@ -8873,7 +8842,7 @@
       <c r="A139" t="s">
         <v>237</v>
       </c>
-      <c r="B139" s="112">
+      <c r="B139" s="111">
         <v>0.70839540830965397</v>
       </c>
     </row>
@@ -8905,7 +8874,7 @@
       <c r="A143" t="s">
         <v>241</v>
       </c>
-      <c r="B143" s="112">
+      <c r="B143" s="111">
         <v>0.84985525063272105</v>
       </c>
     </row>
@@ -8913,7 +8882,7 @@
       <c r="A144" t="s">
         <v>72</v>
       </c>
-      <c r="B144" s="112">
+      <c r="B144" s="111">
         <v>0.123364849749515</v>
       </c>
     </row>
@@ -8921,7 +8890,7 @@
       <c r="A145" t="s">
         <v>75</v>
       </c>
-      <c r="B145" s="112">
+      <c r="B145" s="111">
         <v>0.119703639265527</v>
       </c>
     </row>
@@ -8958,7 +8927,7 @@
       <c r="A150" t="s">
         <v>246</v>
       </c>
-      <c r="B150" s="112">
+      <c r="B150" s="111">
         <v>0.59316840955191097</v>
       </c>
     </row>
@@ -8982,7 +8951,7 @@
       <c r="A153" t="s">
         <v>249</v>
       </c>
-      <c r="B153" s="112">
+      <c r="B153" s="111">
         <v>3.1609393246290599E-2</v>
       </c>
     </row>
@@ -9006,7 +8975,7 @@
       <c r="A156" t="s">
         <v>252</v>
       </c>
-      <c r="B156" s="112">
+      <c r="B156" s="111">
         <v>0.65911396673794298</v>
       </c>
     </row>
@@ -9046,7 +9015,7 @@
       <c r="A161" t="s">
         <v>257</v>
       </c>
-      <c r="B161" s="112">
+      <c r="B161" s="111">
         <v>0.26463975995813499</v>
       </c>
     </row>
@@ -9075,7 +9044,7 @@
       <c r="A165" t="s">
         <v>261</v>
       </c>
-      <c r="B165" s="112">
+      <c r="B165" s="111">
         <v>0.80980446746649803</v>
       </c>
     </row>
@@ -9096,7 +9065,7 @@
       <c r="A168" t="s">
         <v>264</v>
       </c>
-      <c r="B168" s="112">
+      <c r="B168" s="111">
         <v>0.29739090656602701</v>
       </c>
     </row>
@@ -9104,7 +9073,7 @@
       <c r="A169" t="s">
         <v>265</v>
       </c>
-      <c r="B169" s="112">
+      <c r="B169" s="111">
         <v>0.28093564088696499</v>
       </c>
     </row>
@@ -9112,7 +9081,7 @@
       <c r="A170" t="s">
         <v>266</v>
       </c>
-      <c r="B170" s="112">
+      <c r="B170" s="111">
         <v>0.87758424304736504</v>
       </c>
     </row>
@@ -9128,7 +9097,7 @@
       <c r="A172" t="s">
         <v>268</v>
       </c>
-      <c r="B172" s="112">
+      <c r="B172" s="111">
         <v>0.45916891389356501</v>
       </c>
     </row>
@@ -9144,7 +9113,7 @@
       <c r="A174" t="s">
         <v>84</v>
       </c>
-      <c r="B174" s="112">
+      <c r="B174" s="111">
         <v>6.3984989901114495E-2</v>
       </c>
     </row>
@@ -9168,7 +9137,7 @@
       <c r="A177" t="s">
         <v>87</v>
       </c>
-      <c r="B177" s="112">
+      <c r="B177" s="111">
         <v>0.27207391566460598</v>
       </c>
     </row>
@@ -9208,7 +9177,7 @@
       <c r="A182" t="s">
         <v>90</v>
       </c>
-      <c r="B182" s="112">
+      <c r="B182" s="111">
         <v>0.27958578158757502</v>
       </c>
     </row>
@@ -9216,7 +9185,7 @@
       <c r="A183" t="s">
         <v>92</v>
       </c>
-      <c r="B183" s="112">
+      <c r="B183" s="111">
         <v>0.128388441311648</v>
       </c>
     </row>
@@ -9232,7 +9201,7 @@
       <c r="A185" t="s">
         <v>95</v>
       </c>
-      <c r="B185" s="112">
+      <c r="B185" s="111">
         <v>0.13143319136391099</v>
       </c>
     </row>
@@ -9248,7 +9217,7 @@
       <c r="A187" t="s">
         <v>278</v>
       </c>
-      <c r="B187" s="112">
+      <c r="B187" s="111">
         <v>0.67989299521992197</v>
       </c>
     </row>
@@ -9256,7 +9225,7 @@
       <c r="A188" t="s">
         <v>98</v>
       </c>
-      <c r="B188" s="112">
+      <c r="B188" s="111">
         <v>0.103467287703372</v>
       </c>
     </row>
@@ -9288,7 +9257,7 @@
       <c r="A192" t="s">
         <v>102</v>
       </c>
-      <c r="B192" s="112">
+      <c r="B192" s="111">
         <v>0.10941211467591599</v>
       </c>
     </row>
@@ -9296,7 +9265,7 @@
       <c r="A193" t="s">
         <v>282</v>
       </c>
-      <c r="B193" s="112">
+      <c r="B193" s="111">
         <v>0.52788928332600404</v>
       </c>
     </row>
@@ -9304,7 +9273,7 @@
       <c r="A194" t="s">
         <v>103</v>
       </c>
-      <c r="B194" s="112">
+      <c r="B194" s="111">
         <v>0.24734873067225799</v>
       </c>
     </row>
@@ -9320,7 +9289,7 @@
       <c r="A196" t="s">
         <v>284</v>
       </c>
-      <c r="B196" s="112">
+      <c r="B196" s="111">
         <v>0.55806802710769099</v>
       </c>
     </row>
@@ -9328,7 +9297,7 @@
       <c r="A197" t="s">
         <v>285</v>
       </c>
-      <c r="B197" s="112">
+      <c r="B197" s="111">
         <v>0.188137447268443</v>
       </c>
     </row>
@@ -9336,7 +9305,7 @@
       <c r="A198" t="s">
         <v>286</v>
       </c>
-      <c r="B198" s="112">
+      <c r="B198" s="111">
         <v>0.72436728322058697</v>
       </c>
     </row>
@@ -9352,7 +9321,7 @@
       <c r="A200" t="s">
         <v>288</v>
       </c>
-      <c r="B200" s="112">
+      <c r="B200" s="111">
         <v>0.53976619434131801</v>
       </c>
     </row>
@@ -9384,7 +9353,7 @@
       <c r="A204" t="s">
         <v>292</v>
       </c>
-      <c r="B204" s="112">
+      <c r="B204" s="111">
         <v>0.59252035278154602</v>
       </c>
     </row>
@@ -9400,7 +9369,7 @@
       <c r="A206" t="s">
         <v>108</v>
       </c>
-      <c r="B206" s="112">
+      <c r="B206" s="111">
         <v>0.27185203858760698</v>
       </c>
     </row>
@@ -9416,7 +9385,7 @@
       <c r="A208" t="s">
         <v>295</v>
       </c>
-      <c r="B208" s="112">
+      <c r="B208" s="111">
         <v>0.34649610155852301</v>
       </c>
     </row>
@@ -9445,7 +9414,7 @@
       <c r="A212" t="s">
         <v>299</v>
       </c>
-      <c r="B212" s="112">
+      <c r="B212" s="111">
         <v>0.47190056744411402</v>
       </c>
     </row>
@@ -9453,7 +9422,7 @@
       <c r="A213" t="s">
         <v>300</v>
       </c>
-      <c r="B213" s="112">
+      <c r="B213" s="111">
         <v>0.42522912630842102</v>
       </c>
     </row>
@@ -9469,7 +9438,7 @@
       <c r="A215" t="s">
         <v>302</v>
       </c>
-      <c r="B215" s="112">
+      <c r="B215" s="111">
         <v>0.83256441415689797</v>
       </c>
     </row>
@@ -9485,7 +9454,7 @@
       <c r="A217" t="s">
         <v>304</v>
       </c>
-      <c r="B217" s="112">
+      <c r="B217" s="111">
         <v>0.34763087253847602</v>
       </c>
     </row>
@@ -9493,7 +9462,7 @@
       <c r="A218" t="s">
         <v>109</v>
       </c>
-      <c r="B218" s="112">
+      <c r="B218" s="111">
         <v>1.5182845389339301E-2</v>
       </c>
     </row>
@@ -9501,7 +9470,7 @@
       <c r="A219" t="s">
         <v>111</v>
       </c>
-      <c r="B219" s="112">
+      <c r="B219" s="111">
         <v>0.29375833437364202</v>
       </c>
     </row>
@@ -9509,7 +9478,7 @@
       <c r="A220" t="s">
         <v>305</v>
       </c>
-      <c r="B220" s="112">
+      <c r="B220" s="111">
         <v>0.316388820934561</v>
       </c>
     </row>
@@ -9520,2152 +9489,2160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C93465-3509-43FC-8B1D-55C3E4001FB1}">
-  <dimension ref="A1:Y69"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:F1"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="18" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" style="54" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" style="54" customWidth="1"/>
-    <col min="3" max="4" width="21" style="54" customWidth="1"/>
-    <col min="5" max="5" width="24.86328125" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="71" customWidth="1"/>
-    <col min="7" max="7" width="61.1328125" style="71" customWidth="1"/>
-    <col min="8" max="8" width="32.3984375" style="62" customWidth="1"/>
-    <col min="9" max="9" width="42.86328125" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="25.3984375" style="54" customWidth="1"/>
-    <col min="11" max="11" width="35.1328125" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="35.1328125" style="62" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="35.1328125" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="15" width="25.86328125" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="78.59765625" style="54" customWidth="1"/>
-    <col min="17" max="17" width="75.59765625" style="54" customWidth="1"/>
-    <col min="18" max="18" width="27" style="75" customWidth="1"/>
-    <col min="19" max="19" width="31.3984375" style="76" customWidth="1"/>
-    <col min="20" max="20" width="23.86328125" style="76" customWidth="1"/>
-    <col min="21" max="22" width="23.86328125" style="75" customWidth="1"/>
-    <col min="23" max="23" width="43.3984375" style="54" customWidth="1"/>
-    <col min="24" max="24" width="36.59765625" style="54" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="61.3984375" style="54" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.59765625" style="54" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1328125" style="54"/>
+    <col min="1" max="1" width="23.86328125" style="54" customWidth="1"/>
+    <col min="2" max="3" width="21" style="54" customWidth="1"/>
+    <col min="4" max="4" width="24.86328125" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="71" customWidth="1"/>
+    <col min="6" max="6" width="61.1328125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="32.3984375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="42.86328125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="25.3984375" style="54" customWidth="1"/>
+    <col min="10" max="10" width="35.1328125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="35.1328125" style="62" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="35.1328125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="25.86328125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="78.59765625" style="54" customWidth="1"/>
+    <col min="16" max="16" width="75.59765625" style="54" customWidth="1"/>
+    <col min="17" max="17" width="27" style="74" customWidth="1"/>
+    <col min="18" max="18" width="31.3984375" style="75" customWidth="1"/>
+    <col min="19" max="19" width="23.86328125" style="75" customWidth="1"/>
+    <col min="20" max="21" width="23.86328125" style="74" customWidth="1"/>
+    <col min="22" max="22" width="43.3984375" style="54" customWidth="1"/>
+    <col min="23" max="23" width="36.59765625" style="54" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="61.3984375" style="54" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.59765625" style="54" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1328125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="62" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="115" t="s">
+    <row r="1" spans="1:24" s="62" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="B1" s="118" t="s">
         <v>306</v>
       </c>
+      <c r="C1" s="53" t="s">
+        <v>307</v>
+      </c>
       <c r="D1" s="53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="53" t="s">
         <v>311</v>
       </c>
+      <c r="H1" s="69" t="s">
+        <v>312</v>
+      </c>
       <c r="I1" s="69" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J1" s="69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K1" s="69" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N1" s="69" t="s">
-        <v>317</v>
-      </c>
-      <c r="O1" s="69" t="s">
         <v>318</v>
       </c>
+      <c r="O1" s="53" t="s">
+        <v>319</v>
+      </c>
       <c r="P1" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="T1" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="U1" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="V1" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="W1" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="X1" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="Q1" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="R1" s="53" t="s">
-        <v>321</v>
-      </c>
-      <c r="S1" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="T1" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="U1" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="V1" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="W1" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="X1" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y1" s="53" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="2:25" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="113" t="s">
+    </row>
+    <row r="2" spans="1:24" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="56" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="E2" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="99"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="68">
-        <f t="shared" ref="M2:M35" si="0">IF(OR(H2=$C$60,H2=$C$59, J2=$C$60, J2=$C$59),1,0)</f>
+      <c r="K2" s="98"/>
+      <c r="L2" s="68">
+        <f t="shared" ref="L2:L35" si="0">IF(OR(G2=$B$60,G2=$B$59, I2=$B$60, I2=$B$59),1,0)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B2,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M2" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A2,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.21251470586497501</v>
       </c>
-      <c r="O2" s="120">
-        <f t="shared" ref="O2:O35" si="1">IF(N2&lt;0.121, 1, 0)</f>
+      <c r="N2" s="119">
+        <f t="shared" ref="N2:N35" si="1">IF(M2&lt;0.121, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="O2" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="P2" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="57"/>
       <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="T2" s="38"/>
       <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="56" t="s">
+      <c r="V2" s="55"/>
+      <c r="W2" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y2" s="58"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="116" t="s">
+      <c r="X2" s="58"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="C3" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="F3" s="67" t="s">
         <v>330</v>
       </c>
+      <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56">
+      <c r="L3" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N3" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B3,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M3" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A3,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>7.8473308940661998E-2</v>
       </c>
-      <c r="O3" s="120">
+      <c r="N3" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="50" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="R3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="57"/>
       <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
+      <c r="T3" s="38"/>
       <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56" t="s">
+      <c r="V3" s="55"/>
+      <c r="W3" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y3" s="39"/>
-    </row>
-    <row r="4" spans="2:25" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="117" t="s">
+      <c r="X3" s="39"/>
+    </row>
+    <row r="4" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="F4" s="48" t="s">
         <v>330</v>
       </c>
+      <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56">
+      <c r="L4" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B4,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M4" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A4,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>1.41975499681097E-3</v>
       </c>
-      <c r="O4" s="120">
+      <c r="N4" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="O4" s="100" t="s">
+        <v>336</v>
+      </c>
       <c r="P4" s="101" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q4" s="102" t="s">
         <v>337</v>
       </c>
-      <c r="R4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="57"/>
       <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
+      <c r="T4" s="38"/>
       <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="56" t="s">
+      <c r="V4" s="55"/>
+      <c r="W4" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y4" s="39"/>
-    </row>
-    <row r="5" spans="2:25" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="117" t="s">
+      <c r="X4" s="39"/>
+    </row>
+    <row r="5" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="C5" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="E5" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="F5" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="G5" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="J5" s="70" t="s">
         <v>342</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N5" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B5,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M5" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A5,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.31728884156711701</v>
       </c>
-      <c r="O5" s="120">
+      <c r="N5" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="O5" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="Q5" s="50" t="s">
+      <c r="P5" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="R5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="57"/>
       <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
+      <c r="T5" s="38"/>
       <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="56" t="s">
+      <c r="V5" s="55"/>
+      <c r="W5" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y5" s="39"/>
-    </row>
-    <row r="6" spans="2:25" ht="194.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="113" t="s">
+      <c r="X5" s="39"/>
+    </row>
+    <row r="6" spans="1:24" ht="194.45" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="C6" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="D6" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="56" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="J6" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="56">
+      <c r="K6" s="70"/>
+      <c r="L6" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N6" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B6,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M6" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A6,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>4.6209008160706597E-2</v>
       </c>
-      <c r="O6" s="120">
+      <c r="N6" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="O6" s="52" t="s">
         <v>347</v>
       </c>
-      <c r="Q6" s="50" t="s">
+      <c r="P6" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="R6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="57"/>
       <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="56" t="s">
+      <c r="V6" s="55"/>
+      <c r="W6" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y6" s="39"/>
-    </row>
-    <row r="7" spans="2:25" ht="180" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="116" t="s">
+      <c r="X6" s="39"/>
+    </row>
+    <row r="7" spans="1:24" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="B7" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="C7" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="E7" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="F7" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="G7" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="56" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="56" t="s">
         <v>333</v>
       </c>
+      <c r="J7" s="56"/>
       <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56">
+      <c r="L7" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N7" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B7,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M7" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A7,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.25787952089614202</v>
       </c>
-      <c r="O7" s="120">
+      <c r="N7" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="O7" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="Q7" s="48" t="s">
+      <c r="P7" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="R7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="57"/>
       <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
+      <c r="T7" s="38"/>
       <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56" t="s">
+      <c r="V7" s="55"/>
+      <c r="W7" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y7" s="39"/>
-    </row>
-    <row r="8" spans="2:25" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="212" t="s">
+      <c r="X7" s="39"/>
+    </row>
+    <row r="8" spans="1:24" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="B8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="C8" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="D8" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="E8" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="F8" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="G8" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56">
+      <c r="L8" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N8" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B8,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M8" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A8,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.12745277813087899</v>
       </c>
-      <c r="O8" s="120">
+      <c r="N8" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="O8" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="Q8" s="51" t="s">
+      <c r="P8" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="R8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="57"/>
       <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
+      <c r="T8" s="38"/>
       <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="56" t="s">
+      <c r="V8" s="55"/>
+      <c r="W8" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y8" s="39"/>
-    </row>
-    <row r="9" spans="2:25" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="114" t="s">
+      <c r="X8" s="39"/>
+    </row>
+    <row r="9" spans="1:24" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="C9" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="E9" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="G9" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56" t="s">
+      <c r="K9" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="M9" s="56">
+      <c r="L9" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N9" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B9,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M9" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A9,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.19298886639676099</v>
       </c>
-      <c r="O9" s="120">
+      <c r="N9" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="52" t="s">
+      <c r="O9" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="Q9" s="88" t="s">
+      <c r="P9" s="87" t="s">
         <v>355</v>
       </c>
-      <c r="R9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="57"/>
       <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
+      <c r="T9" s="38"/>
       <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="56" t="s">
+      <c r="V9" s="55"/>
+      <c r="W9" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y9" s="39"/>
-    </row>
-    <row r="10" spans="2:25" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="117" t="s">
+      <c r="X9" s="39"/>
+    </row>
+    <row r="10" spans="1:24" ht="90" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="B10" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="C10" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="D10" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="E10" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="F10" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="G10" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56" t="s">
+      <c r="H10" s="56"/>
+      <c r="I10" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="J10" s="56"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56">
+      <c r="L10" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N10" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B10,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M10" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A10,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>2.7592365876626501E-2</v>
       </c>
-      <c r="O10" s="120">
+      <c r="N10" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="O10" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="Q10" s="103" t="s">
+      <c r="P10" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="R10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="57"/>
       <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
+      <c r="T10" s="38"/>
       <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="56" t="s">
+      <c r="V10" s="55"/>
+      <c r="W10" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y10" s="39"/>
-    </row>
-    <row r="11" spans="2:25" ht="108" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="113" t="s">
+      <c r="X10" s="39"/>
+    </row>
+    <row r="11" spans="1:24" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="56" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="F11" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="G11" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56">
+      <c r="L11" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N11" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B11,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M11" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A11,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.319295505982294</v>
       </c>
-      <c r="O11" s="120">
+      <c r="N11" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="52" t="s">
+      <c r="O11" s="52" t="s">
         <v>359</v>
       </c>
-      <c r="Q11" s="51" t="s">
+      <c r="P11" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="R11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="57"/>
       <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
+      <c r="T11" s="38"/>
       <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="56" t="s">
+      <c r="V11" s="55"/>
+      <c r="W11" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y11" s="39"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="116" t="s">
+      <c r="X11" s="39"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="C12" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="48" t="s">
+      <c r="E12" s="104"/>
+      <c r="F12" s="48" t="s">
         <v>330</v>
       </c>
+      <c r="G12" s="56"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56">
+      <c r="L12" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N12" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B12,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M12" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A12,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.11537856725017399</v>
       </c>
-      <c r="O12" s="120">
+      <c r="N12" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P12" s="52" t="s">
+      <c r="O12" s="52" t="s">
         <v>361</v>
       </c>
-      <c r="Q12" s="61" t="s">
+      <c r="P12" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="R12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="57"/>
       <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
+      <c r="T12" s="38"/>
       <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="56" t="s">
+      <c r="V12" s="55"/>
+      <c r="W12" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y12" s="39"/>
-    </row>
-    <row r="13" spans="2:25" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="117" t="s">
+      <c r="X12" s="39"/>
+    </row>
+    <row r="13" spans="1:24" ht="108" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="56" t="s">
+      <c r="C13" s="59"/>
+      <c r="D13" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="48" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="G13" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H13" s="56"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56">
+      <c r="L13" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N13" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B13,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M13" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A13,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.147885435649414</v>
       </c>
-      <c r="O13" s="120">
+      <c r="N13" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="52" t="s">
+      <c r="O13" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="Q13" s="51" t="s">
+      <c r="P13" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="R13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="57"/>
       <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
+      <c r="T13" s="38"/>
       <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="56" t="s">
+      <c r="V13" s="55"/>
+      <c r="W13" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y13" s="39"/>
-    </row>
-    <row r="14" spans="2:25" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="98" t="s">
+      <c r="X13" s="39"/>
+    </row>
+    <row r="14" spans="1:24" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="B14" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="56" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="E14" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="F14" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="G14" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56" t="s">
+      <c r="H14" s="56"/>
+      <c r="I14" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="J14" s="70"/>
       <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="56">
+      <c r="L14" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N14" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B14,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M14" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A14,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.257806052468804</v>
       </c>
-      <c r="O14" s="120">
+      <c r="N14" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P14" s="52" t="s">
+      <c r="O14" s="52" t="s">
         <v>365</v>
       </c>
-      <c r="Q14" s="50" t="s">
+      <c r="P14" s="50" t="s">
         <v>366</v>
       </c>
-      <c r="R14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="57"/>
       <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
+      <c r="T14" s="38"/>
       <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="56" t="s">
+      <c r="V14" s="55"/>
+      <c r="W14" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y14" s="39"/>
-    </row>
-    <row r="15" spans="2:25" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="204" t="s">
+      <c r="X14" s="39"/>
+    </row>
+    <row r="15" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="203" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="C15" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="D15" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="E15" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="F15" s="67" t="s">
         <v>345</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="G15" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H15" s="56"/>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56">
+      <c r="L15" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N15" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B15,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M15" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A15,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.20651308422921399</v>
       </c>
-      <c r="O15" s="120">
+      <c r="N15" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P15" s="52" t="s">
+      <c r="O15" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="Q15" s="50" t="s">
+      <c r="P15" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="R15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="57"/>
       <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
+      <c r="T15" s="38"/>
       <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="56" t="s">
+      <c r="V15" s="55"/>
+      <c r="W15" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y15" s="39"/>
-    </row>
-    <row r="16" spans="2:25" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
+      <c r="X15" s="39"/>
+    </row>
+    <row r="16" spans="1:24" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="B16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="C16" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="D16" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="E16" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="F16" s="67" t="s">
         <v>345</v>
       </c>
-      <c r="H16" s="56" t="s">
+      <c r="G16" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56">
+      <c r="L16" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N16" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B16,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M16" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A16,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.17397806200301699</v>
       </c>
-      <c r="O16" s="120">
+      <c r="N16" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P16" s="52" t="s">
+      <c r="O16" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="Q16" s="50" t="s">
+      <c r="P16" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="R16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="57"/>
       <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
+      <c r="T16" s="38"/>
       <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="56" t="s">
+      <c r="V16" s="55"/>
+      <c r="W16" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y16" s="39"/>
-    </row>
-    <row r="17" spans="1:25" ht="180" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="116" t="s">
+      <c r="X16" s="39"/>
+    </row>
+    <row r="17" spans="1:24" ht="198" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="C17" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="D17" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="E17" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="F17" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="G17" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="H17" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="I17" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="K17" s="46"/>
-      <c r="L17" s="70" t="s">
+      <c r="J17" s="46"/>
+      <c r="K17" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="M17" s="56">
+      <c r="L17" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N17" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B17,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M17" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A17,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>1.4259907978300901E-2</v>
       </c>
-      <c r="O17" s="120">
+      <c r="N17" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P17" s="52" t="s">
+      <c r="O17" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="Q17" s="43" t="s">
+      <c r="P17" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="R17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="57"/>
       <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
+      <c r="T17" s="38"/>
       <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="56" t="s">
+      <c r="V17" s="55"/>
+      <c r="W17" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y17" s="39"/>
-    </row>
-    <row r="18" spans="1:25" ht="180" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="113" t="s">
+      <c r="X17" s="39"/>
+    </row>
+    <row r="18" spans="1:24" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="B18" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="56" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="E18" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G18" s="86" t="s">
+      <c r="F18" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="G18" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H18" s="56"/>
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56">
+      <c r="L18" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N18" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B18,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M18" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A18,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.17345339788722899</v>
       </c>
-      <c r="O18" s="120">
+      <c r="N18" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P18" s="52" t="s">
+      <c r="O18" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="Q18" s="50" t="s">
+      <c r="P18" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="R18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="57"/>
       <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
+      <c r="T18" s="38"/>
       <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="56" t="s">
+      <c r="V18" s="55"/>
+      <c r="W18" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y18" s="39"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="116" t="s">
+      <c r="X18" s="39"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="B19" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="C19" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="D19" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="F19" s="105"/>
-      <c r="G19" s="48" t="s">
+      <c r="E19" s="104"/>
+      <c r="F19" s="48" t="s">
         <v>330</v>
       </c>
+      <c r="G19" s="56"/>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56">
+      <c r="L19" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N19" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B19,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M19" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A19,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>4.84589623971209E-2</v>
       </c>
-      <c r="O19" s="120">
+      <c r="N19" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="38"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="57"/>
       <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
+      <c r="T19" s="38"/>
       <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="56" t="s">
+      <c r="V19" s="55"/>
+      <c r="W19" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y19" s="39"/>
-    </row>
-    <row r="20" spans="1:25" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="116" t="s">
+      <c r="X19" s="39"/>
+    </row>
+    <row r="20" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="56" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="E20" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="F20" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="46" t="s">
+      <c r="G20" s="56"/>
+      <c r="H20" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="70" t="s">
+      <c r="I20" s="56"/>
+      <c r="J20" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="L20" s="70"/>
-      <c r="M20" s="56">
+      <c r="K20" s="70"/>
+      <c r="L20" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B20,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M20" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A20,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.10102084939889</v>
       </c>
-      <c r="O20" s="120">
+      <c r="N20" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P20" s="52" t="s">
+      <c r="O20" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="Q20" s="43" t="s">
+      <c r="P20" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="R20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="57"/>
       <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
+      <c r="T20" s="38"/>
       <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="56" t="s">
+      <c r="V20" s="55"/>
+      <c r="W20" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y20" s="39"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="116" t="s">
+      <c r="X20" s="39"/>
+    </row>
+    <row r="21" spans="1:24" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="B21" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="C21" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="D21" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="E21" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="F21" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="G21" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56" t="s">
+      <c r="H21" s="56"/>
+      <c r="I21" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="J21" s="56"/>
       <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56">
+      <c r="L21" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N21" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B21,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M21" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A21,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>7.3985104711494998E-2</v>
       </c>
-      <c r="O21" s="120">
+      <c r="N21" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="38"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="57"/>
       <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
+      <c r="T21" s="38"/>
       <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="56" t="s">
+      <c r="V21" s="55"/>
+      <c r="W21" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y21" s="39"/>
-    </row>
-    <row r="22" spans="1:25" ht="162" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="74"/>
-      <c r="B22" s="116" t="s">
+      <c r="X21" s="39"/>
+    </row>
+    <row r="22" spans="1:24" ht="162" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="B22" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="C22" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="D22" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="E22" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="F22" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="G22" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="H22" s="46" t="s">
         <v>381</v>
       </c>
+      <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56">
+      <c r="L22" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N22" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B22,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M22" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A22,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.123364849749515</v>
       </c>
-      <c r="O22" s="120">
+      <c r="N22" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P22" s="52" t="s">
+      <c r="O22" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="Q22" s="50" t="s">
+      <c r="P22" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="R22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="57"/>
       <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
+      <c r="T22" s="38"/>
       <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="56" t="s">
+      <c r="V22" s="55"/>
+      <c r="W22" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y22" s="39"/>
-    </row>
-    <row r="23" spans="1:25" ht="180" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="116" t="s">
+      <c r="X22" s="39"/>
+    </row>
+    <row r="23" spans="1:24" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="B23" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="56" t="s">
+      <c r="C23" s="59"/>
+      <c r="D23" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="E23" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="F23" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="G23" s="56" t="s">
         <v>384</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="56" t="s">
+      <c r="H23" s="46"/>
+      <c r="I23" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="K23" s="46" t="s">
+      <c r="J23" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="56">
+      <c r="K23" s="70"/>
+      <c r="L23" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N23" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B23,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M23" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A23,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.119703639265527</v>
       </c>
-      <c r="O23" s="120">
+      <c r="N23" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P23" s="52" t="s">
+      <c r="O23" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="Q23" s="43" t="s">
+      <c r="P23" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="R23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="57"/>
       <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
+      <c r="T23" s="38"/>
       <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="56" t="s">
+      <c r="V23" s="55"/>
+      <c r="W23" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y23" s="39"/>
-    </row>
-    <row r="24" spans="1:25" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="117" t="s">
+      <c r="X23" s="39"/>
+    </row>
+    <row r="24" spans="1:24" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="B24" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="56" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="48" t="s">
+      <c r="E24" s="49"/>
+      <c r="F24" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="H24" s="56" t="s">
+      <c r="G24" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H24" s="56"/>
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56">
+      <c r="L24" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N24" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B24,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M24" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A24,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>3.1609393246290599E-2</v>
       </c>
-      <c r="O24" s="120">
+      <c r="N24" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P24" s="52" t="s">
+      <c r="O24" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="Q24" s="50" t="s">
+      <c r="P24" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="R24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="57"/>
       <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
+      <c r="T24" s="38"/>
       <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="56" t="s">
+      <c r="V24" s="55"/>
+      <c r="W24" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y24" s="39"/>
-    </row>
-    <row r="25" spans="1:25" ht="126" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="116" t="s">
+      <c r="X24" s="39"/>
+    </row>
+    <row r="25" spans="1:24" ht="126" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="B25" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="C25" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="D25" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F25" s="105" t="s">
+      <c r="E25" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="F25" s="48" t="s">
         <v>330</v>
       </c>
+      <c r="G25" s="56"/>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56">
+      <c r="L25" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N25" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B25,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M25" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A25,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>6.3984989901114495E-2</v>
       </c>
-      <c r="O25" s="120">
+      <c r="N25" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P25" s="52" t="s">
+      <c r="O25" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="Q25" s="43" t="s">
+      <c r="P25" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="R25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="57"/>
       <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
+      <c r="T25" s="38"/>
       <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="56" t="s">
+      <c r="V25" s="55"/>
+      <c r="W25" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y25" s="39"/>
-    </row>
-    <row r="26" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="98" t="s">
+      <c r="X25" s="39"/>
+    </row>
+    <row r="26" spans="1:24" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="B26" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="56" t="s">
+      <c r="C26" s="59"/>
+      <c r="D26" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="E26" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="F26" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="G26" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="H26" s="46" t="s">
         <v>391</v>
       </c>
+      <c r="I26" s="56"/>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56">
+      <c r="L26" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N26" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B26,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M26" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A26,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.27207391566460598</v>
       </c>
-      <c r="O26" s="120">
+      <c r="N26" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P26" s="52" t="s">
+      <c r="O26" s="52" t="s">
         <v>392</v>
       </c>
-      <c r="Q26" s="43" t="s">
+      <c r="P26" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="R26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="57"/>
       <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
+      <c r="T26" s="38"/>
       <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="56" t="s">
+      <c r="V26" s="55"/>
+      <c r="W26" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y26" s="39"/>
-    </row>
-    <row r="27" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="114" t="s">
+      <c r="X26" s="39"/>
+    </row>
+    <row r="27" spans="1:24" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="56" t="s">
+      <c r="C27" s="59"/>
+      <c r="D27" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="87" t="s">
+      <c r="E27" s="73"/>
+      <c r="F27" s="86" t="s">
         <v>339</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="G27" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56" t="s">
+      <c r="K27" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="M27" s="56">
+      <c r="L27" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N27" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B27,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M27" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A27,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.27958578158757502</v>
       </c>
-      <c r="O27" s="120">
+      <c r="N27" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P27" s="52" t="s">
+      <c r="O27" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="Q27" s="50" t="s">
+      <c r="P27" s="50" t="s">
         <v>395</v>
       </c>
-      <c r="R27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="57"/>
       <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
+      <c r="T27" s="38"/>
       <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="56" t="s">
+      <c r="V27" s="55"/>
+      <c r="W27" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y27" s="39"/>
-    </row>
-    <row r="28" spans="1:25" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="118" t="s">
+      <c r="X27" s="39"/>
+    </row>
+    <row r="28" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="56" t="s">
+      <c r="C28" s="59"/>
+      <c r="D28" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="G28" s="87" t="s">
+      <c r="F28" s="86" t="s">
         <v>339</v>
       </c>
+      <c r="G28" s="56"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="56"/>
       <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56">
+      <c r="L28" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N28" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B28,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M28" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A28,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.128388441311648</v>
       </c>
-      <c r="O28" s="120">
+      <c r="N28" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P28" s="52" t="s">
+      <c r="O28" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="38"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="57"/>
       <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
+      <c r="T28" s="38"/>
       <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="56" t="s">
+      <c r="V28" s="55"/>
+      <c r="W28" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y28" s="39"/>
-    </row>
-    <row r="29" spans="1:25" ht="126" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="116" t="s">
+      <c r="X28" s="39"/>
+    </row>
+    <row r="29" spans="1:24" ht="126" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="B29" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="56" t="s">
+      <c r="C29" s="59"/>
+      <c r="D29" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F29" s="73" t="s">
+      <c r="E29" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="67" t="s">
+      <c r="F29" s="67" t="s">
         <v>376</v>
       </c>
+      <c r="G29" s="56" t="s">
+        <v>384</v>
+      </c>
       <c r="H29" s="56" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="I29" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="J29" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="K29" s="70" t="s">
+      <c r="J29" s="70" t="s">
         <v>398</v>
       </c>
-      <c r="L29" s="70"/>
-      <c r="M29" s="56">
+      <c r="K29" s="70"/>
+      <c r="L29" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N29" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B29,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M29" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A29,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.13143319136391099</v>
       </c>
-      <c r="O29" s="120">
+      <c r="N29" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P29" s="52" t="s">
+      <c r="O29" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="Q29" s="43" t="s">
+      <c r="P29" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="R29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="57"/>
       <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
+      <c r="T29" s="38"/>
       <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="56" t="s">
+      <c r="V29" s="55"/>
+      <c r="W29" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y29" s="39"/>
-    </row>
-    <row r="30" spans="1:25" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="116" t="s">
+      <c r="X29" s="39"/>
+    </row>
+    <row r="30" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="B30" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="56" t="s">
+      <c r="C30" s="59"/>
+      <c r="D30" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F30" s="71" t="s">
+      <c r="E30" s="71" t="s">
         <v>401</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="F30" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="46" t="s">
+      <c r="G30" s="56"/>
+      <c r="H30" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="J30" s="104" t="s">
+      <c r="I30" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="K30" s="46" t="s">
+      <c r="J30" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="L30" s="70"/>
-      <c r="M30" s="56">
+      <c r="K30" s="70"/>
+      <c r="L30" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N30" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B30,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M30" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A30,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.103467287703372</v>
       </c>
-      <c r="O30" s="120">
+      <c r="N30" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P30" s="52" t="s">
+      <c r="O30" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="Q30" s="43" t="s">
+      <c r="P30" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="R30" s="38">
+      <c r="Q30" s="38">
         <v>44825</v>
       </c>
-      <c r="S30" s="205">
+      <c r="R30" s="204">
         <v>22122557.629999999</v>
       </c>
-      <c r="T30" s="205">
+      <c r="S30" s="204">
         <v>-228945.61</v>
       </c>
+      <c r="T30" s="38">
+        <v>44743</v>
+      </c>
       <c r="U30" s="38">
-        <v>44743</v>
-      </c>
-      <c r="V30" s="38">
         <v>44926</v>
       </c>
-      <c r="W30" s="55" t="s">
+      <c r="V30" s="55" t="s">
         <v>406</v>
       </c>
-      <c r="X30" s="56" t="s">
+      <c r="W30" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="Y30" s="39" t="s">
+      <c r="X30" s="39" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="116" t="s">
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="B31" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="56" t="s">
+      <c r="C31" s="59"/>
+      <c r="D31" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="G31" s="87" t="s">
+      <c r="F31" s="86" t="s">
         <v>339</v>
       </c>
+      <c r="G31" s="56"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
       <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56">
+      <c r="L31" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N31" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B31,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M31" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A31,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.10941211467591599</v>
       </c>
-      <c r="O31" s="120">
+      <c r="N31" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P31" s="85" t="s">
+      <c r="O31" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="38"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="57"/>
       <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
+      <c r="T31" s="38"/>
       <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="56" t="s">
+      <c r="V31" s="55"/>
+      <c r="W31" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y31" s="39"/>
-    </row>
-    <row r="32" spans="1:25" ht="132.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="98" t="s">
+      <c r="X31" s="39"/>
+    </row>
+    <row r="32" spans="1:24" ht="132.6" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="B32" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="56" t="s">
+      <c r="C32" s="59"/>
+      <c r="D32" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F32" s="73" t="s">
+      <c r="E32" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="G32" s="48" t="s">
+      <c r="F32" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="H32" s="56" t="s">
+      <c r="G32" s="56" t="s">
         <v>384</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="H32" s="46" t="s">
         <v>409</v>
       </c>
-      <c r="J32" s="104" t="s">
+      <c r="I32" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="K32" s="46" t="s">
+      <c r="J32" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="L32" s="70"/>
-      <c r="M32" s="56">
+      <c r="K32" s="70"/>
+      <c r="L32" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N32" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B32,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M32" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A32,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.24734873067225799</v>
       </c>
-      <c r="O32" s="120">
+      <c r="N32" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P32" s="52" t="s">
+      <c r="O32" s="52" t="s">
         <v>411</v>
       </c>
-      <c r="Q32" s="50" t="s">
+      <c r="P32" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="R32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="57"/>
       <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
+      <c r="T32" s="38"/>
       <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="56" t="s">
+      <c r="V32" s="55"/>
+      <c r="W32" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y32" s="39"/>
-    </row>
-    <row r="33" spans="2:25" ht="192.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="213" t="s">
+      <c r="X32" s="39"/>
+    </row>
+    <row r="33" spans="1:24" ht="192.95" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="B33" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="56" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="F33" s="105"/>
-      <c r="G33" s="48" t="s">
+      <c r="E33" s="104"/>
+      <c r="F33" s="48" t="s">
         <v>376</v>
       </c>
+      <c r="G33" s="56" t="s">
+        <v>340</v>
+      </c>
       <c r="H33" s="56" t="s">
-        <v>340</v>
+        <v>412</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="J33" s="56" t="s">
         <v>413</v>
       </c>
-      <c r="K33" s="46"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="56">
+      <c r="J33" s="46"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N33" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B33,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M33" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A33,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.27185203858760698</v>
       </c>
-      <c r="O33" s="120">
+      <c r="N33" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P33" s="52" t="s">
+      <c r="O33" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="Q33" s="43" t="s">
+      <c r="P33" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="R33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="57"/>
       <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
+      <c r="T33" s="38"/>
       <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="56" t="s">
+      <c r="V33" s="55"/>
+      <c r="W33" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y33" s="39"/>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="116" t="s">
+      <c r="X33" s="39"/>
+    </row>
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="B34" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="56" t="s">
+      <c r="C34" s="59"/>
+      <c r="D34" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="87" t="s">
+      <c r="E34" s="49"/>
+      <c r="F34" s="86" t="s">
         <v>339</v>
       </c>
+      <c r="G34" s="56"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56">
+      <c r="L34" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N34" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B34,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M34" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A34,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>1.5182845389339301E-2</v>
       </c>
-      <c r="O34" s="120">
+      <c r="N34" s="119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P34" s="52" t="s">
+      <c r="O34" s="52" t="s">
         <v>415</v>
       </c>
-      <c r="Q34" s="48" t="s">
+      <c r="P34" s="48" t="s">
         <v>416</v>
       </c>
-      <c r="R34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="57"/>
       <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
+      <c r="T34" s="38"/>
       <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="56" t="s">
+      <c r="V34" s="55"/>
+      <c r="W34" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="Y34" s="39"/>
-    </row>
-    <row r="35" spans="2:25" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="211" t="s">
+      <c r="X34" s="39"/>
+    </row>
+    <row r="35" spans="1:24" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="210" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="B35" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="D35" s="91"/>
-      <c r="E35" s="64" t="s">
+      <c r="C35" s="90"/>
+      <c r="D35" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="E35" s="71" t="s">
         <v>338</v>
       </c>
+      <c r="F35" s="213" t="s">
+        <v>345</v>
+      </c>
       <c r="G35" s="214" t="s">
-        <v>345</v>
-      </c>
-      <c r="H35" s="215" t="s">
         <v>384</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="H35" s="56" t="s">
         <v>417</v>
       </c>
-      <c r="J35" s="64" t="s">
+      <c r="I35" s="64" t="s">
         <v>413</v>
       </c>
+      <c r="J35" s="64"/>
       <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64">
+      <c r="L35" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N35" s="100">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B35,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="M35" s="99">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A35,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.29375833437364202</v>
       </c>
-      <c r="O35" s="120">
+      <c r="N35" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P35" s="72" t="s">
+      <c r="O35" s="72" t="s">
         <v>418</v>
       </c>
-      <c r="Q35" s="216"/>
-      <c r="R35" s="44"/>
+      <c r="P35" s="215"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="65"/>
       <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
+      <c r="T35" s="44"/>
       <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="64" t="s">
+      <c r="V35" s="63"/>
+      <c r="W35" s="64" t="s">
         <v>333</v>
       </c>
-      <c r="Y35" s="45"/>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D36" s="90"/>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D37" s="90"/>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D38" s="90"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D39" s="90"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" s="77" t="s">
+      <c r="X35" s="45"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" s="89"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" s="89"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="89"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" s="89"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="76" t="s">
         <v>419</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="77"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" s="78" t="s">
+      <c r="C40" s="91"/>
+      <c r="D40" s="76"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="D41" s="93"/>
-      <c r="E41" s="77"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="71" t="s">
+      <c r="C41" s="92"/>
+      <c r="D41" s="76"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="D42" s="95"/>
-      <c r="E42" s="73"/>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" s="79" t="s">
+      <c r="C42" s="94"/>
+      <c r="D42" s="73"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="73"/>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" s="80" t="s">
+      <c r="C43" s="93"/>
+      <c r="D43" s="73"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="79" t="s">
         <v>420</v>
       </c>
-      <c r="D44" s="95"/>
-      <c r="E44" s="73"/>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" s="73"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="73"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" s="77" t="s">
+      <c r="C44" s="94"/>
+      <c r="D44" s="73"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="73"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="73"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="76" t="s">
         <v>421</v>
       </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="77"/>
-    </row>
-    <row r="47" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" s="73" t="s">
+      <c r="C46" s="91"/>
+      <c r="D46" s="76"/>
+    </row>
+    <row r="47" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="73"/>
-    </row>
-    <row r="48" spans="2:25" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" s="73" t="s">
+      <c r="C47" s="95"/>
+      <c r="D47" s="73"/>
+    </row>
+    <row r="48" spans="1:24" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="73" t="s">
         <v>338</v>
       </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="73" t="s">
+      <c r="C48" s="95"/>
+      <c r="D48" s="73" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" s="73" t="s">
+    <row r="49" spans="2:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="D49" s="96"/>
-      <c r="E49" s="73" t="s">
+      <c r="C49" s="95"/>
+      <c r="D49" s="73" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" s="73" t="s">
+    <row r="50" spans="2:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="73" t="s">
         <v>401</v>
       </c>
-      <c r="D50" s="96"/>
-      <c r="E50" s="73" t="s">
+      <c r="C50" s="95"/>
+      <c r="D50" s="73" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" s="73"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="73"/>
-    </row>
-    <row r="52" spans="3:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" s="73"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="73"/>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C53" s="73"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="73"/>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D54" s="81"/>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D55" s="81"/>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D56" s="81"/>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C57" s="81" t="s">
+    <row r="51" spans="2:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="73"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="73"/>
+    </row>
+    <row r="52" spans="2:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="73"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="73"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="73"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="73"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" s="80"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" s="80"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" s="80"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="80" t="s">
         <v>425</v>
       </c>
-      <c r="D57" s="81"/>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C58" s="82" t="s">
+      <c r="C57" s="80"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="81" t="s">
         <v>384</v>
       </c>
-      <c r="D58" s="81"/>
-    </row>
-    <row r="59" spans="3:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C59" s="83" t="s">
+      <c r="C58" s="80"/>
+    </row>
+    <row r="59" spans="2:4" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="82" t="s">
         <v>341</v>
       </c>
-      <c r="D59" s="81"/>
-    </row>
-    <row r="60" spans="3:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" s="84" t="s">
+      <c r="C59" s="80"/>
+    </row>
+    <row r="60" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="D60" s="81"/>
-    </row>
-    <row r="61" spans="3:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C61" s="89" t="s">
+      <c r="C60" s="80"/>
+    </row>
+    <row r="61" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="88" t="s">
         <v>334</v>
       </c>
-      <c r="D61" s="81"/>
-    </row>
-    <row r="62" spans="3:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C62" s="89" t="s">
+      <c r="C61" s="80"/>
+    </row>
+    <row r="62" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="D62" s="81"/>
-    </row>
-    <row r="63" spans="3:5" ht="48.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D63" s="90"/>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C64" s="81" t="s">
+      <c r="C62" s="80"/>
+    </row>
+    <row r="63" spans="2:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" s="89"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="D64" s="81"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C65" s="54" t="s">
+      <c r="C64" s="80"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="54" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="3:3" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C66" s="54" t="s">
+    <row r="66" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="54" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="3:3" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C67" s="54" t="s">
+    <row r="67" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="54" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C68" s="54" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C69" s="54" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="54" t="s">
         <v>376</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:Y35" xr:uid="{1A186435-F3E8-415E-AF75-175B7DA327D8}"/>
+  <autoFilter ref="A1:X35" xr:uid="{1A186435-F3E8-415E-AF75-175B7DA327D8}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="On hold"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X35">
+      <sortCondition ref="A1:A35"/>
+    </sortState>
+  </autoFilter>
   <dataConsolidate/>
-  <conditionalFormatting sqref="W15:W17 W26 W19 W28:W32 W2:W8 W34:W35">
+  <conditionalFormatting sqref="V15:V17 V26 V19 V28:V32 V2:V8 V34:V35">
     <cfRule type="cellIs" dxfId="154" priority="166" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11676,7 +11653,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
+  <conditionalFormatting sqref="V4">
     <cfRule type="cellIs" dxfId="151" priority="163" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11687,7 +11664,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W22 W25">
+  <conditionalFormatting sqref="V22 V25">
     <cfRule type="cellIs" dxfId="148" priority="160" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11698,7 +11675,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W22 W25">
+  <conditionalFormatting sqref="V22 V25">
     <cfRule type="cellIs" dxfId="145" priority="157" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11709,7 +11686,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W17">
+  <conditionalFormatting sqref="V17">
     <cfRule type="cellIs" dxfId="142" priority="154" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11720,7 +11697,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W15">
+  <conditionalFormatting sqref="V15">
     <cfRule type="cellIs" dxfId="139" priority="151" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11731,7 +11708,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W19">
+  <conditionalFormatting sqref="V19">
     <cfRule type="cellIs" dxfId="136" priority="148" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11742,7 +11719,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W18">
+  <conditionalFormatting sqref="V18">
     <cfRule type="cellIs" dxfId="133" priority="145" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11753,7 +11730,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
+  <conditionalFormatting sqref="V25">
     <cfRule type="cellIs" dxfId="130" priority="142" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11764,7 +11741,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
+  <conditionalFormatting sqref="V25">
     <cfRule type="cellIs" dxfId="127" priority="139" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11775,7 +11752,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27">
+  <conditionalFormatting sqref="V27">
     <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11786,7 +11763,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W11">
+  <conditionalFormatting sqref="V11">
     <cfRule type="cellIs" dxfId="121" priority="133" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11797,7 +11774,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W11">
+  <conditionalFormatting sqref="V11">
     <cfRule type="cellIs" dxfId="118" priority="130" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11808,7 +11785,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W31">
+  <conditionalFormatting sqref="V31">
     <cfRule type="cellIs" dxfId="115" priority="127" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11819,7 +11796,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
+  <conditionalFormatting sqref="V23">
     <cfRule type="cellIs" dxfId="112" priority="124" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11830,7 +11807,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W20">
+  <conditionalFormatting sqref="V20">
     <cfRule type="cellIs" dxfId="109" priority="121" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11841,7 +11818,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21">
+  <conditionalFormatting sqref="V21">
     <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11852,7 +11829,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W35">
+  <conditionalFormatting sqref="V35">
     <cfRule type="cellIs" dxfId="103" priority="115" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11863,7 +11840,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W9">
+  <conditionalFormatting sqref="V9">
     <cfRule type="cellIs" dxfId="100" priority="112" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11874,7 +11851,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W10">
+  <conditionalFormatting sqref="V10">
     <cfRule type="cellIs" dxfId="97" priority="109" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11885,7 +11862,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+  <conditionalFormatting sqref="V12">
     <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11896,7 +11873,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13">
+  <conditionalFormatting sqref="V13">
     <cfRule type="cellIs" dxfId="91" priority="103" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11907,7 +11884,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W14">
+  <conditionalFormatting sqref="V14">
     <cfRule type="cellIs" dxfId="88" priority="100" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11918,7 +11895,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W33">
+  <conditionalFormatting sqref="V33">
     <cfRule type="cellIs" dxfId="85" priority="97" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11929,7 +11906,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W24">
+  <conditionalFormatting sqref="V24">
     <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11940,7 +11917,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W24">
+  <conditionalFormatting sqref="V24">
     <cfRule type="cellIs" dxfId="79" priority="91" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11951,29 +11928,29 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X35">
+  <conditionalFormatting sqref="W2:W35">
     <cfRule type="expression" dxfId="76" priority="90">
       <formula>No</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X35">
+  <conditionalFormatting sqref="W2:W35">
     <cfRule type="containsText" dxfId="75" priority="89" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",X2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",W2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2 F24:F25 F12:F13 F34 F6:F7 F17:F19">
+  <conditionalFormatting sqref="E2 E24:E25 E12:E13 E34 E6:E7 E17:E19">
     <cfRule type="containsText" dxfId="74" priority="87" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",F2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4 H24:H35 H6:H22">
+  <conditionalFormatting sqref="G2:G4 G24:G35 G6:G22">
     <cfRule type="cellIs" dxfId="73" priority="86" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E35">
+  <conditionalFormatting sqref="D2:D35">
     <cfRule type="cellIs" dxfId="72" priority="64" operator="equal">
-      <formula>$C$41</formula>
+      <formula>$B$41</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
       <formula>"Complete"</formula>
@@ -11982,25 +11959,25 @@
       <formula>"In progress"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="69" priority="84" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q9 Q29:Q35 Q11:Q27 H32:H33 I5 I23 P2:Q3 H2:O4 H34:I34 I32 J33:P35 H35 H14:I14 M2:O35 H30:I30 E2:F2 E3:E5 E24:F25 E8:E11 E12:F13 E34:F34 K5:P5 K23:P23 K32:P32 H24:P29 H15:P22 K14:P14 H31:P31 K30:P30 H6:P13 E6:F7 E17:F19 E14:E16 E20:E23 E26:E35">
+  <conditionalFormatting sqref="P5:P9 P29:P35 P11:P27 G32:G33 H5 H23 O2:P3 G2:N4 G34:H34 H32 I33:O35 G35 G14:H14 L2:N35 G30:H30 D2:E2 D3:D5 D24:E25 D8:D11 D12:E13 D34:E34 J5:O5 J23:O23 J32:O32 G24:O29 G15:O22 J14:O14 G31:O31 J30:O30 G6:O13 D6:E7 D17:E19 D14:D16 D20:D23 D26:D35">
     <cfRule type="containsBlanks" dxfId="68" priority="83">
-      <formula>LEN(TRIM(E2))=0</formula>
+      <formula>LEN(TRIM(D2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
+  <conditionalFormatting sqref="P19">
     <cfRule type="cellIs" dxfId="67" priority="82" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C62">
+  <conditionalFormatting sqref="B60:B62">
     <cfRule type="containsBlanks" dxfId="66" priority="77">
-      <formula>LEN(TRIM(C60))=0</formula>
+      <formula>LEN(TRIM(B60))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="B42">
     <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
@@ -12008,254 +11985,254 @@
       <formula>"In progress"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="63" priority="70" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",C42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",B42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="B42">
     <cfRule type="containsBlanks" dxfId="62" priority="69">
-      <formula>LEN(TRIM(C42))=0</formula>
+      <formula>LEN(TRIM(B42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H35">
+  <conditionalFormatting sqref="G2:G35">
     <cfRule type="cellIs" dxfId="61" priority="169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="60" priority="170" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="59" priority="171" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="172" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="57" priority="173" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="56" priority="174" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="G5">
     <cfRule type="containsBlanks" dxfId="55" priority="56">
-      <formula>LEN(TRIM(H5))=0</formula>
+      <formula>LEN(TRIM(G5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="I5">
     <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="I23">
     <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="51" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="45" priority="52" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="43" priority="54" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="55" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G35">
+  <conditionalFormatting sqref="F2:F35">
     <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
-      <formula>$C$39</formula>
+      <formula>$B$39</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
+  <conditionalFormatting sqref="H33">
     <cfRule type="containsBlanks" dxfId="40" priority="46">
-      <formula>LEN(TRIM(I33))=0</formula>
+      <formula>LEN(TRIM(H33))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="I10">
     <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="I10">
     <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="44" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+  <conditionalFormatting sqref="H35">
     <cfRule type="containsBlanks" dxfId="32" priority="38">
-      <formula>LEN(TRIM(I35))=0</formula>
+      <formula>LEN(TRIM(H35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="I17">
     <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="I17">
     <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+  <conditionalFormatting sqref="I14">
     <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+  <conditionalFormatting sqref="I14">
     <cfRule type="containsBlanks" dxfId="23" priority="17">
-      <formula>LEN(TRIM(J14))=0</formula>
+      <formula>LEN(TRIM(I14))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+  <conditionalFormatting sqref="I14">
     <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+  <conditionalFormatting sqref="K9">
     <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+  <conditionalFormatting sqref="K9">
     <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="I8">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="I8">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>$C$60</formula>
+      <formula>$B$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>$C$59</formula>
+      <formula>$B$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>$C$58</formula>
+      <formula>$B$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F9:F10">
+  <conditionalFormatting sqref="E22 E9:E10">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",F9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F9:F10">
+  <conditionalFormatting sqref="E22 E9:E10">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(F9))=0</formula>
+      <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X35 Q19" xr:uid="{B7A8975D-CB84-425B-8A6F-95987CF249BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W35 P19" xr:uid="{B7A8975D-CB84-425B-8A6F-95987CF249BC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35" xr:uid="{16FF1F92-0DCB-4700-AEDD-B4D1B4D0DA6F}">
-      <formula1>$C$41:$C$44</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D35" xr:uid="{16FF1F92-0DCB-4700-AEDD-B4D1B4D0DA6F}">
+      <formula1>$B$41:$B$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J8 J14 J17 H2:H35 J10 J23" xr:uid="{77E1CF57-F98E-469D-9A79-8E9013ADF3DA}">
-      <formula1>$C$58:$C$60</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I23 I10 G2:G35 I17 I14 I8" xr:uid="{77E1CF57-F98E-469D-9A79-8E9013ADF3DA}">
+      <formula1>$B$58:$B$60</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G35" xr:uid="{2D1D7843-7087-49EA-92ED-E28CAA0086D4}">
-      <formula1>$C$65:$C$69</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35" xr:uid="{2D1D7843-7087-49EA-92ED-E28CAA0086D4}">
+      <formula1>$B$65:$B$69</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35" xr:uid="{7A5FC86F-CF90-4DB9-A7BB-16619C3427D5}">
-      <formula1>$C$47:$C$50</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35" xr:uid="{7A5FC86F-CF90-4DB9-A7BB-16619C3427D5}">
+      <formula1>$B$47:$B$50</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12267,1362 +12244,1369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A691B4-AA68-48E3-AD22-997914FE3569}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="4" width="26.3984375" customWidth="1"/>
+    <col min="3" max="4" width="26.3984375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="37.1328125" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="28.59765625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="31.1328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.59765625" customWidth="1"/>
     <col min="9" max="9" width="33.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47" style="121" customWidth="1"/>
+    <col min="11" max="11" width="47" style="120" customWidth="1"/>
     <col min="12" max="12" width="45.3984375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="34.86328125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="23.86328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="97" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:14" s="96" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="121" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="122" t="s">
         <v>428</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="123" t="s">
         <v>308</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="121" t="s">
         <v>429</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="121" t="s">
         <v>430</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="121" t="s">
         <v>431</v>
       </c>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="121" t="s">
         <v>432</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="121" t="s">
         <v>433</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="121" t="s">
         <v>434</v>
       </c>
-      <c r="K1" s="122" t="s">
+      <c r="K1" s="121" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="123" t="s">
+      <c r="L1" s="122" t="s">
         <v>435</v>
       </c>
-      <c r="M1" s="125" t="s">
+      <c r="M1" s="124" t="s">
         <v>436</v>
       </c>
-      <c r="N1" s="125" t="s">
+      <c r="N1" s="124" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A2" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="127" t="s">
+      <c r="D2" s="128"/>
+      <c r="E2" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="142" t="s">
+      <c r="F2" s="126"/>
+      <c r="G2" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I2" s="147" t="s">
+      <c r="I2" s="146" t="s">
         <v>441</v>
       </c>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="142" t="s">
         <v>440</v>
       </c>
-      <c r="K2" s="137" t="s">
+      <c r="K2" s="136" t="s">
         <v>442</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="126">
         <f>IFERROR(MATCH(A2, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>1</v>
       </c>
-      <c r="M2" s="128"/>
-      <c r="N2" s="133"/>
-    </row>
-    <row r="3" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A3" s="127" t="s">
+      <c r="M2" s="127"/>
+      <c r="N2" s="132"/>
+    </row>
+    <row r="3" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A3" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="139" t="s">
+      <c r="D3" s="128"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="J3" s="136" t="s">
+      <c r="J3" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K3" s="145" t="s">
+      <c r="K3" s="144" t="s">
         <v>444</v>
       </c>
-      <c r="L3" s="127">
+      <c r="L3" s="126">
         <f>IFERROR(MATCH(A3, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>4</v>
       </c>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-    </row>
-    <row r="4" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A4" s="127" t="s">
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+    </row>
+    <row r="4" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A4" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="127" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="129" t="s">
         <v>446</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="130" t="s">
         <v>333</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="127">
+      <c r="K4" s="131"/>
+      <c r="L4" s="126">
         <f>IFERROR(MATCH(A4, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>5</v>
       </c>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-    </row>
-    <row r="5" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A5" s="127" t="s">
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+    </row>
+    <row r="5" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A5" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="127" t="s">
+      <c r="D5" s="128"/>
+      <c r="E5" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F5" s="138" t="s">
+      <c r="F5" s="137" t="s">
         <v>448</v>
       </c>
-      <c r="G5" s="142" t="s">
+      <c r="G5" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I5" s="136" t="s">
+      <c r="I5" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="J5" s="136" t="s">
+      <c r="J5" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K5" s="137"/>
-      <c r="L5" s="127">
+      <c r="K5" s="136"/>
+      <c r="L5" s="126">
         <f>IFERROR(MATCH(A5, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>7</v>
       </c>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-    </row>
-    <row r="6" spans="1:14" s="134" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="127" t="s">
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+    </row>
+    <row r="6" spans="1:14" s="133" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="127" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="126" t="s">
         <v>449</v>
       </c>
-      <c r="F6" s="127"/>
-      <c r="G6" s="135" t="s">
+      <c r="F6" s="126"/>
+      <c r="G6" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I6" s="136" t="s">
+      <c r="I6" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="J6" s="136" t="s">
+      <c r="J6" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="L6" s="127">
+      <c r="L6" s="126">
         <f>IFERROR(MATCH(A6, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>8</v>
       </c>
-      <c r="M6" s="127"/>
-      <c r="N6" s="141"/>
-    </row>
-    <row r="7" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A7" s="127" t="s">
+      <c r="M6" s="126"/>
+      <c r="N6" s="140"/>
+    </row>
+    <row r="7" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A7" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="127" t="s">
+      <c r="D7" s="128"/>
+      <c r="E7" s="126" t="s">
         <v>453</v>
       </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="135" t="s">
+      <c r="F7" s="126"/>
+      <c r="G7" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="135" t="s">
         <v>454</v>
       </c>
-      <c r="J7" s="136" t="s">
+      <c r="J7" s="135" t="s">
         <v>455</v>
       </c>
-      <c r="K7" s="128"/>
-      <c r="L7" s="127">
+      <c r="K7" s="127"/>
+      <c r="L7" s="126">
         <f>IFERROR(MATCH(A7, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>9</v>
       </c>
-      <c r="M7" s="127"/>
-      <c r="N7" s="141"/>
-    </row>
-    <row r="8" spans="1:14" s="134" customFormat="1" ht="45" x14ac:dyDescent="0.45">
-      <c r="A8" s="127" t="s">
+      <c r="M7" s="126"/>
+      <c r="N7" s="140"/>
+    </row>
+    <row r="8" spans="1:14" s="133" customFormat="1" ht="45" x14ac:dyDescent="0.45">
+      <c r="A8" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="127" t="s">
+      <c r="D8" s="128"/>
+      <c r="E8" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="139" t="s">
         <v>456</v>
       </c>
-      <c r="G8" s="207" t="s">
+      <c r="G8" s="206" t="s">
         <v>457</v>
       </c>
-      <c r="H8" s="210" t="s">
+      <c r="H8" s="209" t="s">
         <v>334</v>
       </c>
-      <c r="I8" s="136" t="s">
+      <c r="I8" s="135" t="s">
         <v>458</v>
       </c>
-      <c r="J8" s="143" t="s">
+      <c r="J8" s="142" t="s">
         <v>440</v>
       </c>
-      <c r="K8" s="144"/>
-      <c r="L8" s="127">
+      <c r="K8" s="143"/>
+      <c r="L8" s="126">
         <f>IFERROR(MATCH(A8, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>11</v>
       </c>
-      <c r="M8" s="128"/>
-      <c r="N8" s="133"/>
-    </row>
-    <row r="9" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A9" s="127" t="s">
+      <c r="M8" s="127"/>
+      <c r="N8" s="132"/>
+    </row>
+    <row r="9" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A9" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D9" s="129"/>
-      <c r="E9" s="127" t="s">
+      <c r="D9" s="128"/>
+      <c r="E9" s="126" t="s">
         <v>449</v>
       </c>
-      <c r="F9" s="127"/>
-      <c r="G9" s="135" t="s">
+      <c r="F9" s="126"/>
+      <c r="G9" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="J9" s="136" t="s">
+      <c r="J9" s="135" t="s">
         <v>459</v>
       </c>
-      <c r="K9" s="137" t="s">
+      <c r="K9" s="136" t="s">
         <v>460</v>
       </c>
-      <c r="L9" s="127">
+      <c r="L9" s="126">
         <f>IFERROR(MATCH(A9, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>14</v>
       </c>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-    </row>
-    <row r="10" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A10" s="127" t="s">
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+    </row>
+    <row r="10" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A10" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="128"/>
+      <c r="E10" s="126" t="s">
         <v>461</v>
       </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="135" t="s">
+      <c r="F10" s="126"/>
+      <c r="G10" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H10" s="136" t="s">
+      <c r="H10" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I10" s="146" t="s">
+      <c r="I10" s="145" t="s">
         <v>462</v>
       </c>
-      <c r="J10" s="136" t="s">
+      <c r="J10" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K10" s="137"/>
-      <c r="L10" s="127">
+      <c r="K10" s="136"/>
+      <c r="L10" s="126">
         <f>IFERROR(MATCH(A10, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>13</v>
       </c>
-      <c r="M10" s="128" t="s">
+      <c r="M10" s="127" t="s">
         <v>463</v>
       </c>
-      <c r="N10" s="133" t="s">
+      <c r="N10" s="132" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A11" s="127" t="s">
+    <row r="11" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A11" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="139" t="s">
+      <c r="D11" s="128"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H11" s="136" t="s">
+      <c r="H11" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I11" s="136" t="s">
+      <c r="I11" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J11" s="136" t="s">
+      <c r="J11" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K11" s="128"/>
-      <c r="L11" s="127">
+      <c r="K11" s="127"/>
+      <c r="L11" s="126">
         <f>IFERROR(MATCH(A11, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>16</v>
       </c>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-    </row>
-    <row r="12" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A12" s="127" t="s">
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+    </row>
+    <row r="12" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A12" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="127" t="s">
+      <c r="D12" s="128"/>
+      <c r="E12" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="F12" s="127" t="s">
+      <c r="F12" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H12" s="131" t="s">
+      <c r="H12" s="130" t="s">
         <v>333</v>
       </c>
-      <c r="I12" s="131" t="s">
+      <c r="I12" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="J12" s="131" t="s">
+      <c r="J12" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="K12" s="132"/>
-      <c r="L12" s="127" t="str">
+      <c r="K12" s="131"/>
+      <c r="L12" s="126" t="str">
         <f>IFERROR(MATCH(A12, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>No</v>
       </c>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-    </row>
-    <row r="13" spans="1:14" s="134" customFormat="1" ht="105" x14ac:dyDescent="0.45">
-      <c r="A13" s="127" t="s">
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+    </row>
+    <row r="13" spans="1:14" s="133" customFormat="1" ht="105" x14ac:dyDescent="0.45">
+      <c r="A13" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="127" t="s">
+      <c r="D13" s="128"/>
+      <c r="E13" s="126" t="s">
         <v>453</v>
       </c>
-      <c r="F13" s="138"/>
-      <c r="G13" s="135" t="s">
+      <c r="F13" s="137"/>
+      <c r="G13" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H13" s="136" t="s">
+      <c r="H13" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I13" s="136" t="s">
+      <c r="I13" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="J13" s="136" t="s">
+      <c r="J13" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K13" s="128" t="s">
+      <c r="K13" s="127" t="s">
         <v>466</v>
       </c>
-      <c r="L13" s="127">
+      <c r="L13" s="126">
         <f>IFERROR(MATCH(A13, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>18</v>
       </c>
-      <c r="M13" s="127" t="s">
+      <c r="M13" s="126" t="s">
         <v>467</v>
       </c>
-      <c r="N13" s="141" t="s">
+      <c r="N13" s="140" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A14" s="127" t="s">
+    <row r="14" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A14" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D14" s="129" t="s">
+      <c r="D14" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E14" s="127" t="s">
+      <c r="E14" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F14" s="127"/>
-      <c r="G14" s="206" t="s">
+      <c r="F14" s="126"/>
+      <c r="G14" s="205" t="s">
         <v>470</v>
       </c>
-      <c r="H14" s="136" t="s">
+      <c r="H14" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I14" s="136" t="s">
+      <c r="I14" s="135" t="s">
         <v>471</v>
       </c>
-      <c r="J14" s="136" t="s">
+      <c r="J14" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K14" s="128"/>
-      <c r="L14" s="127">
+      <c r="K14" s="127"/>
+      <c r="L14" s="126">
         <f>IFERROR(MATCH(A14, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>19</v>
       </c>
-      <c r="M14" s="127" t="s">
+      <c r="M14" s="126" t="s">
         <v>472</v>
       </c>
-      <c r="N14" s="141" t="s">
+      <c r="N14" s="140" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A15" s="127" t="s">
+    <row r="15" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A15" s="126" t="s">
         <v>474</v>
       </c>
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="126" t="s">
         <v>475</v>
       </c>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E15" s="127" t="s">
+      <c r="E15" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F15" s="127"/>
-      <c r="G15" s="206" t="s">
+      <c r="F15" s="126"/>
+      <c r="G15" s="205" t="s">
         <v>470</v>
       </c>
-      <c r="H15" s="136" t="s">
+      <c r="H15" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I15" s="136" t="s">
+      <c r="I15" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J15" s="136" t="s">
+      <c r="J15" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K15" s="128"/>
-      <c r="L15" s="127">
+      <c r="K15" s="127"/>
+      <c r="L15" s="126">
         <f>IFERROR(MATCH(A15, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>20</v>
       </c>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-    </row>
-    <row r="16" spans="1:14" s="134" customFormat="1" ht="30.4" x14ac:dyDescent="0.45">
-      <c r="A16" s="127" t="s">
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+    </row>
+    <row r="16" spans="1:14" s="133" customFormat="1" ht="30.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="127" t="s">
+      <c r="D16" s="128"/>
+      <c r="E16" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="F16" s="140" t="s">
+      <c r="F16" s="139" t="s">
         <v>476</v>
       </c>
-      <c r="G16" s="135" t="s">
+      <c r="G16" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H16" s="136" t="s">
+      <c r="H16" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I16" s="146" t="s">
+      <c r="I16" s="145" t="s">
         <v>477</v>
       </c>
-      <c r="J16" s="136" t="s">
+      <c r="J16" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K16" s="137" t="s">
+      <c r="K16" s="136" t="s">
         <v>478</v>
       </c>
-      <c r="L16" s="127">
+      <c r="L16" s="126">
         <f>IFERROR(MATCH(A16, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>21</v>
       </c>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-    </row>
-    <row r="17" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A17" s="127" t="s">
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+    </row>
+    <row r="17" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A17" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="127" t="s">
+      <c r="D17" s="128"/>
+      <c r="E17" s="126" t="s">
         <v>449</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="249" t="s">
+      <c r="F17" s="126"/>
+      <c r="G17" s="248" t="s">
         <v>335</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="135" t="s">
         <v>479</v>
       </c>
-      <c r="I17" s="136" t="s">
+      <c r="I17" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="J17" s="136" t="s">
+      <c r="J17" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K17" s="137" t="s">
+      <c r="K17" s="136" t="s">
         <v>480</v>
       </c>
-      <c r="L17" s="127">
+      <c r="L17" s="126">
         <f>IFERROR(MATCH(A17, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>23</v>
       </c>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-    </row>
-    <row r="18" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A18" s="127" t="s">
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+    </row>
+    <row r="18" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A18" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D18" s="129"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="139" t="s">
+      <c r="D18" s="128"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H18" s="136" t="s">
+      <c r="H18" s="135" t="s">
         <v>479</v>
       </c>
-      <c r="I18" s="136" t="s">
+      <c r="I18" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J18" s="136" t="s">
+      <c r="J18" s="135" t="s">
         <v>479</v>
       </c>
-      <c r="K18" s="137" t="s">
+      <c r="K18" s="136" t="s">
         <v>481</v>
       </c>
-      <c r="L18" s="127">
+      <c r="L18" s="126">
         <f>IFERROR(MATCH(A18, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>28</v>
       </c>
-      <c r="M18" s="127" t="s">
+      <c r="M18" s="126" t="s">
         <v>482</v>
       </c>
-      <c r="N18" s="141" t="s">
+      <c r="N18" s="140" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A19" s="127" t="s">
+    <row r="19" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A19" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E19" s="127" t="s">
+      <c r="E19" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F19" s="138" t="s">
+      <c r="F19" s="137" t="s">
         <v>484</v>
       </c>
-      <c r="G19" s="142" t="s">
+      <c r="G19" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H19" s="136" t="s">
+      <c r="H19" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I19" s="202" t="s">
+      <c r="I19" s="201" t="s">
         <v>485</v>
       </c>
-      <c r="J19" s="202"/>
-      <c r="K19" s="137" t="s">
+      <c r="J19" s="201"/>
+      <c r="K19" s="136" t="s">
         <v>486</v>
       </c>
-      <c r="L19" s="127">
+      <c r="L19" s="126">
         <f>IFERROR(MATCH(A19, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>29</v>
       </c>
-      <c r="M19" s="127"/>
-      <c r="N19" s="141"/>
-    </row>
-    <row r="20" spans="1:14" s="134" customFormat="1" ht="60.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="127" t="s">
+      <c r="M19" s="126"/>
+      <c r="N19" s="140"/>
+    </row>
+    <row r="20" spans="1:14" s="133" customFormat="1" ht="60.4" x14ac:dyDescent="0.45">
+      <c r="A20" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="127" t="s">
+      <c r="D20" s="128"/>
+      <c r="E20" s="126" t="s">
         <v>453</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F20" s="139" t="s">
         <v>487</v>
       </c>
-      <c r="G20" s="142" t="s">
+      <c r="G20" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H20" s="136" t="s">
+      <c r="H20" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I20" s="136" t="s">
+      <c r="I20" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J20" s="136" t="s">
+      <c r="J20" s="135" t="s">
         <v>479</v>
       </c>
-      <c r="K20" s="137"/>
-      <c r="L20" s="127">
+      <c r="K20" s="136"/>
+      <c r="L20" s="126">
         <f>IFERROR(MATCH(A20, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>30</v>
       </c>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-    </row>
-    <row r="21" spans="1:14" s="134" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="127" t="s">
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+    </row>
+    <row r="21" spans="1:14" s="133" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D21" s="129"/>
-      <c r="E21" s="127" t="s">
+      <c r="D21" s="128"/>
+      <c r="E21" s="126" t="s">
         <v>453</v>
       </c>
-      <c r="F21" s="127"/>
-      <c r="G21" s="135" t="s">
+      <c r="F21" s="126"/>
+      <c r="G21" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H21" s="136" t="s">
+      <c r="H21" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I21" s="136" t="s">
+      <c r="I21" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J21" s="136" t="s">
+      <c r="J21" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K21" s="128"/>
-      <c r="L21" s="127">
+      <c r="K21" s="127"/>
+      <c r="L21" s="126">
         <f>IFERROR(MATCH(A21, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>36</v>
       </c>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-    </row>
-    <row r="22" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A22" s="127" t="s">
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+    </row>
+    <row r="22" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A22" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="127" t="s">
+      <c r="D22" s="128"/>
+      <c r="E22" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F22" s="138" t="s">
+      <c r="F22" s="137" t="s">
         <v>488</v>
       </c>
-      <c r="G22" s="142" t="s">
+      <c r="G22" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H22" s="136" t="s">
+      <c r="H22" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I22" s="136" t="s">
+      <c r="I22" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J22" s="136" t="s">
+      <c r="J22" s="135" t="s">
         <v>489</v>
       </c>
-      <c r="K22" s="128"/>
-      <c r="L22" s="127">
+      <c r="K22" s="127"/>
+      <c r="L22" s="126">
         <f>IFERROR(MATCH(A22, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>37</v>
       </c>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-    </row>
-    <row r="23" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A23" s="127" t="s">
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+    </row>
+    <row r="23" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A23" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D23" s="129"/>
-      <c r="E23" s="208" t="s">
+      <c r="D23" s="128"/>
+      <c r="E23" s="207" t="s">
         <v>449</v>
       </c>
-      <c r="F23" s="127"/>
-      <c r="G23" s="135" t="s">
+      <c r="F23" s="126"/>
+      <c r="G23" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="H23" s="136" t="s">
+      <c r="H23" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I23" s="136" t="s">
+      <c r="I23" s="135" t="s">
         <v>471</v>
       </c>
-      <c r="J23" s="136" t="s">
+      <c r="J23" s="135" t="s">
         <v>376</v>
       </c>
-      <c r="K23" s="137"/>
-      <c r="L23" s="127">
+      <c r="K23" s="136"/>
+      <c r="L23" s="126">
         <f>IFERROR(MATCH(A23, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>39</v>
       </c>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-    </row>
-    <row r="24" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A24" s="127" t="s">
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+    </row>
+    <row r="24" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A24" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="128" t="s">
+      <c r="B24" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="126" t="s">
         <v>443</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="127" t="s">
+      <c r="D24" s="128"/>
+      <c r="E24" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="F24" s="127"/>
-      <c r="G24" s="129" t="s">
+      <c r="F24" s="126"/>
+      <c r="G24" s="128" t="s">
         <v>446</v>
       </c>
-      <c r="H24" s="136" t="s">
+      <c r="H24" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I24" s="136" t="s">
+      <c r="I24" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J24" s="136" t="s">
+      <c r="J24" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K24" s="140" t="s">
+      <c r="K24" s="139" t="s">
         <v>490</v>
       </c>
-      <c r="L24" s="127">
+      <c r="L24" s="126">
         <f>IFERROR(MATCH(A24, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>44</v>
       </c>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-    </row>
-    <row r="25" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A25" s="127" t="s">
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+    </row>
+    <row r="25" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A25" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D25" s="129" t="s">
+      <c r="D25" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E25" s="127" t="s">
+      <c r="E25" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>491</v>
       </c>
-      <c r="G25" s="142" t="s">
+      <c r="G25" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H25" s="136" t="s">
+      <c r="H25" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I25" s="136" t="s">
+      <c r="I25" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="J25" s="143" t="s">
+      <c r="J25" s="142" t="s">
         <v>440</v>
       </c>
-      <c r="K25" s="137" t="s">
+      <c r="K25" s="136" t="s">
         <v>492</v>
       </c>
-      <c r="L25" s="127">
+      <c r="L25" s="126">
         <f>IFERROR(MATCH(A25, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>45</v>
       </c>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-    </row>
-    <row r="26" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A26" s="127" t="s">
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+    </row>
+    <row r="26" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A26" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D26" s="129"/>
-      <c r="E26" s="127" t="s">
+      <c r="D26" s="128"/>
+      <c r="E26" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="F26" s="127"/>
-      <c r="G26" s="206" t="s">
+      <c r="F26" s="126"/>
+      <c r="G26" s="205" t="s">
         <v>470</v>
       </c>
-      <c r="H26" s="136" t="s">
+      <c r="H26" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I26" s="146" t="s">
+      <c r="I26" s="145" t="s">
         <v>493</v>
       </c>
-      <c r="J26" s="147" t="s">
+      <c r="J26" s="146" t="s">
         <v>494</v>
       </c>
-      <c r="K26" s="137" t="s">
+      <c r="K26" s="136" t="s">
         <v>495</v>
       </c>
-      <c r="L26" s="127">
+      <c r="L26" s="126">
         <f>IFERROR(MATCH(A26, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>46</v>
       </c>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-    </row>
-    <row r="27" spans="1:14" s="134" customFormat="1" ht="75" x14ac:dyDescent="0.45">
-      <c r="A27" s="126" t="s">
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+    </row>
+    <row r="27" spans="1:14" s="133" customFormat="1" ht="75" x14ac:dyDescent="0.45">
+      <c r="A27" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="128" t="s">
+      <c r="B27" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D27" s="129"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="139" t="s">
+      <c r="D27" s="128"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H27" s="136" t="s">
+      <c r="H27" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I27" s="136" t="s">
+      <c r="I27" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="J27" s="202"/>
-      <c r="K27" s="137" t="s">
+      <c r="J27" s="201"/>
+      <c r="K27" s="136" t="s">
         <v>496</v>
       </c>
-      <c r="L27" s="127">
+      <c r="L27" s="126">
         <f>IFERROR(MATCH(A27, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>47</v>
       </c>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-    </row>
-    <row r="28" spans="1:14" s="134" customFormat="1" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="127" t="s">
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+    </row>
+    <row r="28" spans="1:14" s="133" customFormat="1" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A28" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D28" s="129" t="s">
+      <c r="D28" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E28" s="127" t="s">
+      <c r="E28" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F28" s="138" t="s">
+      <c r="F28" s="137" t="s">
         <v>497</v>
       </c>
-      <c r="G28" s="142" t="s">
+      <c r="G28" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H28" s="136" t="s">
+      <c r="H28" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I28" s="136" t="s">
+      <c r="I28" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J28" s="203" t="s">
+      <c r="J28" s="202" t="s">
         <v>498</v>
       </c>
-      <c r="K28" s="137"/>
-      <c r="L28" s="127">
+      <c r="K28" s="136"/>
+      <c r="L28" s="126">
         <f>IFERROR(MATCH(A28, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>48</v>
       </c>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-    </row>
-    <row r="29" spans="1:14" s="134" customFormat="1" ht="75" x14ac:dyDescent="0.45">
-      <c r="A29" s="127" t="s">
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+    </row>
+    <row r="29" spans="1:14" s="133" customFormat="1" ht="75" x14ac:dyDescent="0.45">
+      <c r="A29" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D29" s="129" t="s">
+      <c r="D29" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E29" s="127" t="s">
+      <c r="E29" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F29" s="138" t="s">
+      <c r="F29" s="137" t="s">
         <v>499</v>
       </c>
-      <c r="G29" s="142" t="s">
+      <c r="G29" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H29" s="136" t="s">
+      <c r="H29" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I29" s="136" t="s">
+      <c r="I29" s="135" t="s">
         <v>500</v>
       </c>
-      <c r="J29" s="136" t="s">
+      <c r="J29" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="K29" s="144" t="s">
+      <c r="K29" s="143" t="s">
         <v>501</v>
       </c>
-      <c r="L29" s="127">
+      <c r="L29" s="126">
         <f>IFERROR(MATCH(A29, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>41</v>
       </c>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-    </row>
-    <row r="30" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A30" s="127" t="s">
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+    </row>
+    <row r="30" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A30" s="126" t="s">
         <v>502</v>
       </c>
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D30" s="129"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="139" t="s">
+      <c r="D30" s="128"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H30" s="136" t="s">
+      <c r="H30" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I30" s="136" t="s">
+      <c r="I30" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J30" s="136" t="s">
+      <c r="J30" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="L30" s="127" t="str">
+      <c r="L30" s="126" t="str">
         <f>IFERROR(MATCH(A30, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>No</v>
       </c>
-      <c r="M30" s="127" t="s">
+      <c r="M30" s="126" t="s">
         <v>503</v>
       </c>
-      <c r="N30" s="141" t="s">
+      <c r="N30" s="140" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A31" s="127" t="s">
+    <row r="31" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A31" s="126" t="s">
         <v>505</v>
       </c>
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D31" s="129"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="139" t="s">
+      <c r="D31" s="128"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136" t="s">
+      <c r="H31" s="135"/>
+      <c r="I31" s="135" t="s">
         <v>506</v>
       </c>
-      <c r="J31" s="136"/>
-      <c r="K31" s="145" t="s">
+      <c r="J31" s="135"/>
+      <c r="K31" s="144" t="s">
         <v>507</v>
       </c>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-    </row>
-    <row r="32" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A32" s="127" t="s">
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+    </row>
+    <row r="32" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A32" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D32" s="129" t="s">
+      <c r="D32" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E32" s="127" t="s">
+      <c r="E32" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="F32" s="138" t="s">
+      <c r="F32" s="137" t="s">
         <v>499</v>
       </c>
-      <c r="G32" s="142" t="s">
+      <c r="G32" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="H32" s="136" t="s">
+      <c r="H32" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I32" s="202" t="s">
+      <c r="I32" s="201" t="s">
         <v>471</v>
       </c>
-      <c r="J32" s="136" t="s">
+      <c r="J32" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K32" s="137" t="s">
+      <c r="K32" s="136" t="s">
         <v>508</v>
       </c>
-      <c r="L32" s="127">
+      <c r="L32" s="126">
         <f>IFERROR(MATCH(A32, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>51</v>
       </c>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-    </row>
-    <row r="33" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A33" s="127" t="s">
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
+    </row>
+    <row r="33" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A33" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="128" t="s">
+      <c r="B33" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="139" t="s">
+      <c r="D33" s="128"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H33" s="136" t="s">
+      <c r="H33" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I33" s="136" t="s">
+      <c r="I33" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J33" s="136" t="s">
+      <c r="J33" s="135" t="s">
         <v>509</v>
       </c>
-      <c r="K33" s="128"/>
-      <c r="L33" s="127">
+      <c r="K33" s="127"/>
+      <c r="L33" s="126">
         <f>IFERROR(MATCH(A33, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>17</v>
       </c>
-      <c r="M33" s="128" t="s">
+      <c r="M33" s="127" t="s">
         <v>510</v>
       </c>
-      <c r="N33" s="133" t="s">
+      <c r="N33" s="132" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A34" s="127" t="s">
+    <row r="34" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A34" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="127" t="s">
+      <c r="D34" s="128"/>
+      <c r="E34" s="126" t="s">
         <v>479</v>
       </c>
-      <c r="F34" s="127"/>
-      <c r="G34" s="139" t="s">
+      <c r="F34" s="126"/>
+      <c r="G34" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H34" s="136" t="s">
+      <c r="H34" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I34" s="136" t="s">
+      <c r="I34" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="J34" s="136" t="s">
+      <c r="J34" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K34" s="137"/>
-      <c r="L34" s="127">
+      <c r="K34" s="136"/>
+      <c r="L34" s="126">
         <f>IFERROR(MATCH(A34, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>53</v>
       </c>
-      <c r="M34" s="127"/>
-      <c r="N34" s="127"/>
-    </row>
-    <row r="35" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A35" s="127" t="s">
+      <c r="M34" s="126"/>
+      <c r="N34" s="126"/>
+    </row>
+    <row r="35" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A35" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="128" t="s">
+      <c r="B35" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D35" s="129"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="139" t="s">
+      <c r="D35" s="128"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H35" s="136" t="s">
+      <c r="H35" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I35" s="136" t="s">
+      <c r="I35" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="J35" s="136" t="s">
+      <c r="J35" s="135" t="s">
         <v>479</v>
       </c>
-      <c r="K35" s="128"/>
-      <c r="L35" s="127">
+      <c r="K35" s="127"/>
+      <c r="L35" s="126">
         <f>IFERROR(MATCH(A35, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>55</v>
       </c>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-    </row>
-    <row r="36" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A36" s="126" t="s">
+      <c r="M35" s="126"/>
+      <c r="N35" s="126"/>
+    </row>
+    <row r="36" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A36" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="128" t="s">
+      <c r="B36" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="D36" s="129"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="139" t="s">
+      <c r="D36" s="128"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="H36" s="136" t="s">
+      <c r="H36" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="I36" s="136" t="s">
+      <c r="I36" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="J36" s="136" t="s">
+      <c r="J36" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="K36" s="137"/>
-      <c r="L36" s="127">
+      <c r="K36" s="136"/>
+      <c r="L36" s="126">
         <f>IFERROR(MATCH(A36, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>56</v>
       </c>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L36" xr:uid="{01A691B4-AA68-48E3-AD22-997914FE3569}"/>
+  <autoFilter ref="A1:L36" xr:uid="{01A691B4-AA68-48E3-AD22-997914FE3569}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L36">
+      <sortCondition ref="A1:A36"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="L17">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(L17))=0</formula>
@@ -26012,177 +25996,177 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="96" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="96" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="96" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="96" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="96" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="96" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="96" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="96" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="96" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="96" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="96" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="96" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="96" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="96" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="96" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="96" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="96" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="96" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="96" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="96" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="96" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="96" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="96" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="96" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="96" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="96" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="96" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="96" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="96" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="96" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="96" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="96" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="96" t="s">
         <v>241</v>
       </c>
       <c r="B36" t="s">
@@ -26190,32 +26174,32 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="96" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="96" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="96" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A40" s="97" t="s">
+      <c r="A40" s="96" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="96" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="96" t="s">
         <v>98</v>
       </c>
       <c r="B42" t="s">
@@ -26223,32 +26207,32 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="96" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="96" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="96" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A46" s="97" t="s">
+      <c r="A46" s="96" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="96" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="96" t="s">
         <v>92</v>
       </c>
       <c r="B48" t="s">
@@ -26256,7 +26240,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="96" t="s">
         <v>95</v>
       </c>
       <c r="B49" t="s">
@@ -26264,7 +26248,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A50" s="97" t="s">
+      <c r="A50" s="96" t="s">
         <v>102</v>
       </c>
       <c r="B50" t="s">
@@ -26272,32 +26256,32 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="96" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="96" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A53" s="97" t="s">
+      <c r="A53" s="96" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A54" s="97" t="s">
+      <c r="A54" s="96" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A55" s="97" t="s">
+      <c r="A55" s="96" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="96" t="s">
         <v>109</v>
       </c>
       <c r="B56" t="s">
@@ -26305,12 +26289,12 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A57" s="97" t="s">
+      <c r="A57" s="96" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="96" t="s">
         <v>305</v>
       </c>
     </row>
@@ -26340,21 +26324,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cd273273-2d29-47ce-b53b-3ecfd61fda9e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf217452-244c-46eb-9f4c-99f380b0c60c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB867F123546C4296AB31DA290F128A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="89664b52469f4bcdcd6d136448395abe">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf217452-244c-46eb-9f4c-99f380b0c60c" xmlns:ns3="cd273273-2d29-47ce-b53b-3ecfd61fda9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee0b98b873a3f134904137d42f5dbef8" ns2:_="" ns3:_="">
-    <xsd:import namespace="cf217452-244c-46eb-9f4c-99f380b0c60c"/>
-    <xsd:import namespace="cd273273-2d29-47ce-b53b-3ecfd61fda9e"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
+    <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
+    <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -26365,17 +26347,14 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -26383,7 +26362,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cf217452-244c-46eb-9f4c-99f380b0c60c" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b370a6fa-a798-42e0-969d-19c284d8683f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -26408,55 +26387,43 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="aa4eac88-8ae6-4a96-90c7-97bc93c844ef" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cd273273-2d29-47ce-b53b-3ecfd61fda9e" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="62ca1376-8bea-4949-825e-fec085c3924e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -26475,23 +26442,12 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d3977162-9fc0-4eb6-a20b-8063b6a10e11}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="cd273273-2d29-47ce-b53b-3ecfd61fda9e">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -26594,15 +26550,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9895CAF2-115F-4D6B-AFC0-E986E2DAAA4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA29CEBB-9637-4A1F-AAE0-507204D93A46}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC106C94-D7F3-45A3-A47C-129DAA9EEEA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -26611,31 +26576,4 @@
     <ds:schemaRef ds:uri="cf217452-244c-46eb-9f4c-99f380b0c60c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{521B04F1-84F5-495C-A4C4-402CE0E2EB19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cf217452-244c-46eb-9f4c-99f380b0c60c"/>
-    <ds:schemaRef ds:uri="cd273273-2d29-47ce-b53b-3ecfd61fda9e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9895CAF2-115F-4D6B-AFC0-E986E2DAAA4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input/base_funding_tracker.xlsx
+++ b/data/input/base_funding_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/panlilioj_who_int/Documents/covid19_vaccination_analysis/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6DF9C13-37B5-4A96-9600-4C7875E00C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D6DF9C13-37B5-4A96-9600-4C7875E00C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F36C63-4763-428E-BD51-6CF6B611E0D1}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{7AD3A49B-7938-47E2-9067-2612B2635868}"/>
   </bookViews>
@@ -3166,12 +3166,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,,\ &quot;M&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,\ &quot;K&quot;"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,,\ &quot;M&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,\ &quot;K&quot;"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -4055,14 +4055,14 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4082,9 +4082,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4635,7 +4635,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="13" fillId="2" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="2" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9565,14 +9565,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C93465-3509-43FC-8B1D-55C3E4001FB1}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="18" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -9676,7 +9675,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="112" t="s">
         <v>14</v>
       </c>
@@ -9825,7 +9824,7 @@
       </c>
       <c r="X4" s="39"/>
     </row>
-    <row r="5" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="116" t="s">
         <v>159</v>
       </c>
@@ -9884,7 +9883,7 @@
       </c>
       <c r="X5" s="39"/>
     </row>
-    <row r="6" spans="1:24" ht="194.45" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:24" ht="194.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="112" t="s">
         <v>30</v>
       </c>
@@ -9941,7 +9940,7 @@
       </c>
       <c r="X6" s="39"/>
     </row>
-    <row r="7" spans="1:24" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:24" ht="180" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="115" t="s">
         <v>33</v>
       </c>
@@ -9998,7 +9997,7 @@
       </c>
       <c r="X7" s="39"/>
     </row>
-    <row r="8" spans="1:24" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:24" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="211" t="s">
         <v>36</v>
       </c>
@@ -10053,7 +10052,7 @@
       </c>
       <c r="X8" s="39"/>
     </row>
-    <row r="9" spans="1:24" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:24" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="113" t="s">
         <v>41</v>
       </c>
@@ -10110,7 +10109,7 @@
       </c>
       <c r="X9" s="39"/>
     </row>
-    <row r="10" spans="1:24" ht="90" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="116" t="s">
         <v>169</v>
       </c>
@@ -10167,7 +10166,7 @@
       </c>
       <c r="X10" s="39"/>
     </row>
-    <row r="11" spans="1:24" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:24" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="112" t="s">
         <v>47</v>
       </c>
@@ -10268,7 +10267,7 @@
       </c>
       <c r="X12" s="39"/>
     </row>
-    <row r="13" spans="1:24" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:24" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="116" t="s">
         <v>182</v>
       </c>
@@ -10319,7 +10318,7 @@
       </c>
       <c r="X13" s="39"/>
     </row>
-    <row r="14" spans="1:24" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="97" t="s">
         <v>52</v>
       </c>
@@ -10374,7 +10373,7 @@
       </c>
       <c r="X14" s="39"/>
     </row>
-    <row r="15" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="203" t="s">
         <v>56</v>
       </c>
@@ -10429,7 +10428,7 @@
       </c>
       <c r="X15" s="39"/>
     </row>
-    <row r="16" spans="1:24" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -10484,7 +10483,7 @@
       </c>
       <c r="X16" s="39"/>
     </row>
-    <row r="17" spans="1:24" ht="198" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:24" ht="180" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -10545,7 +10544,7 @@
       </c>
       <c r="X17" s="39"/>
     </row>
-    <row r="18" spans="1:24" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:24" ht="180" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="112" t="s">
         <v>61</v>
       </c>
@@ -10645,7 +10644,7 @@
       </c>
       <c r="X19" s="39"/>
     </row>
-    <row r="20" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="115" t="s">
         <v>68</v>
       </c>
@@ -10700,7 +10699,7 @@
       </c>
       <c r="X20" s="39"/>
     </row>
-    <row r="21" spans="1:24" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="115" t="s">
         <v>70</v>
       </c>
@@ -10753,7 +10752,7 @@
       </c>
       <c r="X21" s="39"/>
     </row>
-    <row r="22" spans="1:24" ht="162" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:24" ht="162" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="115" t="s">
         <v>72</v>
       </c>
@@ -10810,7 +10809,7 @@
       </c>
       <c r="X22" s="39"/>
     </row>
-    <row r="23" spans="1:24" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:24" ht="180" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="115" t="s">
         <v>75</v>
       </c>
@@ -10918,7 +10917,7 @@
       </c>
       <c r="X24" s="39"/>
     </row>
-    <row r="25" spans="1:24" ht="126" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:24" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="115" t="s">
         <v>84</v>
       </c>
@@ -10971,7 +10970,7 @@
       </c>
       <c r="X25" s="39"/>
     </row>
-    <row r="26" spans="1:24" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:24" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="97" t="s">
         <v>87</v>
       </c>
@@ -11026,7 +11025,7 @@
       </c>
       <c r="X26" s="39"/>
     </row>
-    <row r="27" spans="1:24" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:24" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="113" t="s">
         <v>90</v>
       </c>
@@ -11079,7 +11078,7 @@
       </c>
       <c r="X27" s="39"/>
     </row>
-    <row r="28" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="117" t="s">
         <v>92</v>
       </c>
@@ -11125,7 +11124,7 @@
       </c>
       <c r="X28" s="39"/>
     </row>
-    <row r="29" spans="1:24" ht="126" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:24" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="115" t="s">
         <v>95</v>
       </c>
@@ -11184,7 +11183,7 @@
       </c>
       <c r="X29" s="39"/>
     </row>
-    <row r="30" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:24" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="115" t="s">
         <v>98</v>
       </c>
@@ -11255,7 +11254,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="115" t="s">
         <v>102</v>
       </c>
@@ -11301,7 +11300,7 @@
       </c>
       <c r="X31" s="39"/>
     </row>
-    <row r="32" spans="1:24" ht="132.6" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:24" ht="132.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="97" t="s">
         <v>103</v>
       </c>
@@ -11360,7 +11359,7 @@
       </c>
       <c r="X32" s="39"/>
     </row>
-    <row r="33" spans="1:24" ht="192.95" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:24" ht="192.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="212" t="s">
         <v>109</v>
       </c>
@@ -11415,7 +11414,7 @@
       </c>
       <c r="X33" s="39"/>
     </row>
-    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="115" t="s">
         <v>110</v>
       </c>
@@ -11464,7 +11463,7 @@
       </c>
       <c r="X34" s="39"/>
     </row>
-    <row r="35" spans="1:24" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="210" t="s">
         <v>112</v>
       </c>
@@ -11707,16 +11706,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X35" xr:uid="{1A186435-F3E8-415E-AF75-175B7DA327D8}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="On hold"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X35">
-      <sortCondition ref="A1:A35"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:X35" xr:uid="{1A186435-F3E8-415E-AF75-175B7DA327D8}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="V15:V17 V26 V19 V28:V32 V2:V8 V34:V35">
     <cfRule type="cellIs" dxfId="154" priority="166" operator="equal">
@@ -12321,17 +12311,17 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="4" width="26.3984375" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="26.3984375" customWidth="1"/>
     <col min="5" max="5" width="37.1328125" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="28.59765625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="31.1328125" bestFit="1" customWidth="1"/>
@@ -26400,6 +26390,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cd273273-2d29-47ce-b53b-3ecfd61fda9e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf217452-244c-46eb-9f4c-99f380b0c60c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB867F123546C4296AB31DA290F128A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="89664b52469f4bcdcd6d136448395abe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf217452-244c-46eb-9f4c-99f380b0c60c" xmlns:ns3="cd273273-2d29-47ce-b53b-3ecfd61fda9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee0b98b873a3f134904137d42f5dbef8" ns2:_="" ns3:_="">
     <xsd:import namespace="cf217452-244c-46eb-9f4c-99f380b0c60c"/>
@@ -26642,27 +26652,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cd273273-2d29-47ce-b53b-3ecfd61fda9e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf217452-244c-46eb-9f4c-99f380b0c60c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9895CAF2-115F-4D6B-AFC0-E986E2DAAA4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC106C94-D7F3-45A3-A47C-129DAA9EEEA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cd273273-2d29-47ce-b53b-3ecfd61fda9e"/>
+    <ds:schemaRef ds:uri="cf217452-244c-46eb-9f4c-99f380b0c60c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{521B04F1-84F5-495C-A4C4-402CE0E2EB19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26679,23 +26688,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC106C94-D7F3-45A3-A47C-129DAA9EEEA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cd273273-2d29-47ce-b53b-3ecfd61fda9e"/>
-    <ds:schemaRef ds:uri="cf217452-244c-46eb-9f4c-99f380b0c60c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9895CAF2-115F-4D6B-AFC0-E986E2DAAA4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input/base_funding_tracker.xlsx
+++ b/data/input/base_funding_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/panlilioj_who_int/Documents/covid19_vaccination_analysis/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D6DF9C13-37B5-4A96-9600-4C7875E00C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F36C63-4763-428E-BD51-6CF6B611E0D1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{79AF6B42-DC45-4EB0-839C-F66B58C321EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B76B013D-B9F9-42F4-8661-05DBC1591A1B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{7AD3A49B-7938-47E2-9067-2612B2635868}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Country Deep Dives'!$A$1:$M$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Gavi Country Groups'!$A$2:$G$229</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'One Budget &amp; CDS '!$A$1:$L$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'One Budget tracker'!$A$1:$X$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'One Budget tracker'!$B$1:$Y$35</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -3166,12 +3166,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,,\ &quot;M&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,\ &quot;K&quot;"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,,\ &quot;M&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,\ &quot;K&quot;"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -4055,16 +4055,16 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4082,9 +4082,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4264,6 +4264,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4635,7 +4638,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="2" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6593,17 +6596,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="149" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="153" customWidth="1"/>
-    <col min="3" max="3" width="13" style="168" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" style="160" customWidth="1"/>
-    <col min="5" max="5" width="12.1328125" style="175" customWidth="1"/>
-    <col min="6" max="7" width="15.265625" style="175" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" style="160" customWidth="1"/>
-    <col min="9" max="9" width="15.1328125" style="105" customWidth="1"/>
-    <col min="10" max="10" width="16.1328125" style="105" customWidth="1"/>
-    <col min="11" max="11" width="13.86328125" style="105" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" style="105" customWidth="1"/>
+    <col min="1" max="1" width="9" style="150" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="154" customWidth="1"/>
+    <col min="3" max="3" width="13" style="169" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" style="161" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" style="176" customWidth="1"/>
+    <col min="6" max="7" width="15.265625" style="176" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" style="161" customWidth="1"/>
+    <col min="9" max="9" width="15.1328125" style="106" customWidth="1"/>
+    <col min="10" max="10" width="16.1328125" style="106" customWidth="1"/>
+    <col min="11" max="11" width="13.86328125" style="106" customWidth="1"/>
+    <col min="12" max="12" width="14.3984375" style="106" customWidth="1"/>
     <col min="13" max="13" width="13.59765625" style="40" customWidth="1"/>
     <col min="14" max="14" width="16.1328125" style="40" customWidth="1"/>
     <col min="15" max="15" width="18.265625" style="40" customWidth="1"/>
@@ -6618,1188 +6621,1188 @@
     <col min="16384" max="16384" width="9.1328125" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="109" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:15" s="110" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="247" t="s">
+      <c r="D1" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="186" t="s">
+      <c r="E1" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="208" t="s">
+      <c r="F1" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="208" t="s">
+      <c r="G1" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="184" t="s">
+      <c r="H1" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="184" t="s">
+      <c r="I1" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="184" t="s">
+      <c r="K1" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="187" t="s">
+      <c r="L1" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="187" t="s">
+      <c r="M1" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-    </row>
-    <row r="2" spans="1:15" s="109" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="148" t="s">
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+    </row>
+    <row r="2" spans="1:15" s="110" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="223">
+      <c r="C2" s="224">
         <v>0.1</v>
       </c>
-      <c r="D2" s="159">
+      <c r="D2" s="160">
         <v>0.27</v>
       </c>
-      <c r="E2" s="223">
+      <c r="E2" s="224">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F2" s="223">
+      <c r="F2" s="224">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G2" s="223">
+      <c r="G2" s="224">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="227" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="233" t="s">
+      <c r="K2" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="105" t="s">
+      <c r="L2" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="147" t="s">
+      <c r="M2" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
     </row>
     <row r="3" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="167">
+      <c r="C3" s="168">
         <v>0.03</v>
       </c>
-      <c r="D3" s="159">
+      <c r="D3" s="160">
         <v>0.12</v>
       </c>
-      <c r="E3" s="159">
+      <c r="E3" s="160">
         <v>0.13</v>
       </c>
-      <c r="F3" s="159">
+      <c r="F3" s="160">
         <v>0.15</v>
       </c>
-      <c r="G3" s="159">
+      <c r="G3" s="160">
         <v>0.15</v>
       </c>
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="155" t="s">
+      <c r="J3" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="155"/>
-      <c r="L3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="157"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:15" s="244" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A4" s="218" t="s">
+    <row r="4" spans="1:15" s="245" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="245" t="s">
+      <c r="C4" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="246">
+      <c r="D4" s="247">
         <v>0</v>
       </c>
-      <c r="E4" s="246">
+      <c r="E4" s="247">
         <v>0</v>
       </c>
-      <c r="F4" s="246">
+      <c r="F4" s="247">
         <v>0</v>
       </c>
-      <c r="G4" s="246">
+      <c r="G4" s="247">
         <v>0</v>
       </c>
-      <c r="H4" s="241"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="243"/>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="244"/>
+      <c r="N4" s="218"/>
+      <c r="O4" s="218"/>
     </row>
     <row r="5" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="167">
+      <c r="C5" s="168">
         <v>0.02</v>
       </c>
-      <c r="D5" s="159">
+      <c r="D5" s="160">
         <v>0.06</v>
       </c>
-      <c r="E5" s="159">
+      <c r="E5" s="160">
         <v>0.06</v>
       </c>
-      <c r="F5" s="159">
+      <c r="F5" s="160">
         <v>0.06</v>
       </c>
-      <c r="G5" s="159">
+      <c r="G5" s="160">
         <v>0.06</v>
       </c>
-      <c r="H5" s="180" t="s">
+      <c r="H5" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="155" t="s">
+      <c r="I5" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
       <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="190" t="s">
+      <c r="B6" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="169">
+      <c r="C6" s="170">
         <v>0.1</v>
       </c>
-      <c r="D6" s="161">
+      <c r="D6" s="162">
         <v>0.27</v>
       </c>
-      <c r="E6" s="161">
+      <c r="E6" s="162">
         <v>0.31</v>
       </c>
-      <c r="F6" s="159">
+      <c r="F6" s="160">
         <v>0.35</v>
       </c>
-      <c r="G6" s="161">
+      <c r="G6" s="162">
         <v>0.35</v>
       </c>
-      <c r="H6" s="166" t="s">
+      <c r="H6" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="183"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="184"/>
     </row>
     <row r="7" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="167">
+      <c r="C7" s="168">
         <v>0.01</v>
       </c>
-      <c r="D7" s="159">
+      <c r="D7" s="160">
         <v>0.23</v>
       </c>
-      <c r="E7" s="159">
+      <c r="E7" s="160">
         <v>0.23</v>
       </c>
-      <c r="F7" s="159">
+      <c r="F7" s="160">
         <v>0.23</v>
       </c>
-      <c r="G7" s="159">
+      <c r="G7" s="160">
         <v>0.23</v>
       </c>
-      <c r="H7" s="160" t="s">
+      <c r="H7" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="147"/>
+      <c r="L7" s="148"/>
     </row>
     <row r="8" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="170">
+      <c r="C8" s="171">
         <v>0.08</v>
       </c>
-      <c r="D8" s="162">
+      <c r="D8" s="163">
         <v>0.41</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="163">
         <v>0.41</v>
       </c>
-      <c r="F8" s="161">
+      <c r="F8" s="162">
         <v>0.41</v>
       </c>
-      <c r="G8" s="163">
+      <c r="G8" s="164">
         <v>0.48</v>
       </c>
-      <c r="H8" s="199" t="s">
+      <c r="H8" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="182"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="183"/>
     </row>
     <row r="9" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="189" t="s">
+      <c r="B9" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="167">
+      <c r="C9" s="168">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D9" s="159">
+      <c r="D9" s="160">
         <v>0.23</v>
       </c>
-      <c r="E9" s="159">
+      <c r="E9" s="160">
         <v>0.23</v>
       </c>
-      <c r="F9" s="159">
+      <c r="F9" s="160">
         <v>0.25</v>
       </c>
-      <c r="G9" s="159">
+      <c r="G9" s="160">
         <v>0.26</v>
       </c>
-      <c r="H9" s="180" t="s">
+      <c r="H9" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
       <c r="M9" s="41"/>
     </row>
     <row r="10" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="190" t="s">
+      <c r="B10" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="161">
+      <c r="D10" s="162">
         <v>0.04</v>
       </c>
-      <c r="E10" s="161">
+      <c r="E10" s="162">
         <v>0.05</v>
       </c>
-      <c r="F10" s="161">
+      <c r="F10" s="162">
         <v>0.06</v>
       </c>
-      <c r="G10" s="161">
+      <c r="G10" s="162">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H10" s="227" t="s">
+      <c r="H10" s="228" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="106" t="s">
+      <c r="J10" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="106" t="s">
+      <c r="K10" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="106"/>
+      <c r="L10" s="107"/>
       <c r="M10" s="41"/>
     </row>
     <row r="11" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="150" t="s">
+      <c r="A11" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="190" t="s">
+      <c r="B11" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="169">
+      <c r="C11" s="170">
         <v>0.04</v>
       </c>
-      <c r="D11" s="161">
+      <c r="D11" s="162">
         <v>0.37</v>
       </c>
-      <c r="E11" s="161">
+      <c r="E11" s="162">
         <v>0.37</v>
       </c>
-      <c r="F11" s="161">
+      <c r="F11" s="162">
         <v>0.37</v>
       </c>
-      <c r="G11" s="161">
+      <c r="G11" s="162">
         <v>0.37</v>
       </c>
-      <c r="H11" s="178" t="s">
+      <c r="H11" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="106" t="s">
+      <c r="I11" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="106" t="s">
+      <c r="J11" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="106" t="s">
+      <c r="K11" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="157" t="s">
+      <c r="L11" s="158" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="198">
+      <c r="C12" s="199">
         <v>0.1</v>
       </c>
-      <c r="D12" s="195">
+      <c r="D12" s="196">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E12" s="195">
+      <c r="E12" s="196">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F12" s="195">
+      <c r="F12" s="196">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G12" s="195">
+      <c r="G12" s="196">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H12" s="196"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="216"/>
-      <c r="M12" s="217"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="217"/>
+      <c r="M12" s="218"/>
     </row>
     <row r="13" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="189" t="s">
+      <c r="B13" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="167">
+      <c r="C13" s="168">
         <v>0.08</v>
       </c>
-      <c r="D13" s="159">
+      <c r="D13" s="160">
         <v>0.36</v>
       </c>
-      <c r="E13" s="159">
+      <c r="E13" s="160">
         <v>0.37</v>
       </c>
-      <c r="F13" s="159">
+      <c r="F13" s="160">
         <v>0.38</v>
       </c>
-      <c r="G13" s="159">
+      <c r="G13" s="160">
         <v>0.38</v>
       </c>
-      <c r="H13" s="160" t="s">
+      <c r="H13" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="105" t="s">
+      <c r="I13" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="105" t="s">
+      <c r="J13" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="147"/>
+      <c r="L13" s="148"/>
     </row>
     <row r="14" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="189" t="s">
+      <c r="B14" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="167">
+      <c r="C14" s="168">
         <v>0.08</v>
       </c>
-      <c r="D14" s="159">
+      <c r="D14" s="160">
         <v>0.35</v>
       </c>
-      <c r="E14" s="159">
+      <c r="E14" s="160">
         <v>0.39</v>
       </c>
-      <c r="F14" s="159">
+      <c r="F14" s="160">
         <v>0.4</v>
       </c>
-      <c r="G14" s="159">
+      <c r="G14" s="160">
         <v>0.4</v>
       </c>
-      <c r="H14" s="160" t="s">
+      <c r="H14" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="147"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="148"/>
     </row>
     <row r="15" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="189" t="s">
+      <c r="B15" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="167">
+      <c r="C15" s="168">
         <v>0.01</v>
       </c>
-      <c r="D15" s="159">
+      <c r="D15" s="160">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E15" s="159">
+      <c r="E15" s="160">
         <v>0.3</v>
       </c>
-      <c r="F15" s="159">
+      <c r="F15" s="160">
         <v>0.33</v>
       </c>
-      <c r="G15" s="159">
+      <c r="G15" s="160">
         <v>0.33</v>
       </c>
-      <c r="H15" s="180" t="s">
+      <c r="H15" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="147"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="148"/>
     </row>
     <row r="16" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="218" t="s">
+      <c r="A16" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="221" t="s">
+      <c r="B16" s="222" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="225">
         <v>0.01</v>
       </c>
-      <c r="D16" s="225">
+      <c r="D16" s="226">
         <v>0.02</v>
       </c>
-      <c r="E16" s="225">
+      <c r="E16" s="226">
         <v>0.03</v>
       </c>
-      <c r="F16" s="225">
+      <c r="F16" s="226">
         <v>0.03</v>
       </c>
-      <c r="G16" s="225">
+      <c r="G16" s="226">
         <v>0.03</v>
       </c>
-      <c r="H16" s="228"/>
-      <c r="I16" s="230"/>
-      <c r="J16" s="230"/>
-      <c r="K16" s="230"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="217"/>
+      <c r="H16" s="229"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="231"/>
+      <c r="K16" s="231"/>
+      <c r="L16" s="235"/>
+      <c r="M16" s="218"/>
     </row>
     <row r="17" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="189" t="s">
+      <c r="B17" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="167">
+      <c r="C17" s="168">
         <v>0.08</v>
       </c>
-      <c r="D17" s="159">
+      <c r="D17" s="160">
         <v>0.24</v>
       </c>
-      <c r="E17" s="159">
+      <c r="E17" s="160">
         <v>0.25</v>
       </c>
-      <c r="F17" s="159">
+      <c r="F17" s="160">
         <v>0.25</v>
       </c>
-      <c r="G17" s="159">
+      <c r="G17" s="160">
         <v>0.26</v>
       </c>
-      <c r="H17" s="160" t="s">
+      <c r="H17" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="105" t="s">
+      <c r="I17" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="105" t="s">
+      <c r="J17" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="105" t="s">
+      <c r="K17" s="106" t="s">
         <v>32</v>
       </c>
       <c r="M17" s="41"/>
     </row>
     <row r="18" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="148" t="s">
+      <c r="A18" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="189" t="s">
+      <c r="B18" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="172">
+      <c r="C18" s="173">
         <v>0.03</v>
       </c>
-      <c r="D18" s="163">
+      <c r="D18" s="164">
         <v>0.05</v>
       </c>
-      <c r="E18" s="163">
+      <c r="E18" s="164">
         <v>0.05</v>
       </c>
-      <c r="F18" s="163">
+      <c r="F18" s="164">
         <v>0.06</v>
       </c>
-      <c r="G18" s="163">
+      <c r="G18" s="164">
         <v>0.06</v>
       </c>
-      <c r="H18" s="179" t="s">
+      <c r="H18" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="237"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="238"/>
     </row>
     <row r="19" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="189" t="s">
+      <c r="B19" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="167">
+      <c r="C19" s="168">
         <v>0.04</v>
       </c>
-      <c r="D19" s="159">
+      <c r="D19" s="160">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E19" s="159">
+      <c r="E19" s="160">
         <v>0.16</v>
       </c>
-      <c r="F19" s="159">
+      <c r="F19" s="160">
         <v>0.2</v>
       </c>
-      <c r="G19" s="159">
+      <c r="G19" s="160">
         <v>0.2</v>
       </c>
-      <c r="H19" s="238" t="s">
+      <c r="H19" s="239" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
       <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="149" t="s">
+      <c r="A20" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="189" t="s">
+      <c r="B20" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="167">
+      <c r="C20" s="168">
         <v>0.03</v>
       </c>
-      <c r="D20" s="159">
+      <c r="D20" s="160">
         <v>0.11</v>
       </c>
-      <c r="E20" s="159">
+      <c r="E20" s="160">
         <v>0.11</v>
       </c>
-      <c r="F20" s="159">
+      <c r="F20" s="160">
         <v>0.12</v>
       </c>
-      <c r="G20" s="159">
+      <c r="G20" s="160">
         <v>0.13</v>
       </c>
-      <c r="H20" s="180" t="s">
+      <c r="H20" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
       <c r="M20" s="41"/>
     </row>
     <row r="21" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="189" t="s">
+      <c r="B21" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="167">
+      <c r="C21" s="168">
         <v>0.04</v>
       </c>
-      <c r="D21" s="159">
+      <c r="D21" s="160">
         <v>0.15</v>
       </c>
-      <c r="E21" s="159">
+      <c r="E21" s="160">
         <v>0.15</v>
       </c>
-      <c r="F21" s="159">
+      <c r="F21" s="160">
         <v>0.15</v>
       </c>
-      <c r="G21" s="159">
+      <c r="G21" s="160">
         <v>0.15</v>
       </c>
-      <c r="H21" s="180" t="s">
+      <c r="H21" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="155" t="s">
+      <c r="I21" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
       <c r="M21" s="41"/>
     </row>
     <row r="22" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="189" t="s">
+      <c r="B22" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="167">
+      <c r="C22" s="168">
         <v>0.02</v>
       </c>
-      <c r="D22" s="159">
+      <c r="D22" s="160">
         <v>0.2</v>
       </c>
-      <c r="E22" s="159">
+      <c r="E22" s="160">
         <v>0.21</v>
       </c>
-      <c r="F22" s="159">
+      <c r="F22" s="160">
         <v>0.27</v>
       </c>
-      <c r="G22" s="159">
+      <c r="G22" s="160">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H22" s="160" t="s">
+      <c r="H22" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="105" t="s">
+      <c r="I22" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="105" t="s">
+      <c r="J22" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="105" t="s">
+      <c r="K22" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="105" t="s">
+      <c r="L22" s="106" t="s">
         <v>80</v>
       </c>
       <c r="M22" s="41"/>
     </row>
     <row r="23" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="149" t="s">
+      <c r="A23" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="189" t="s">
+      <c r="B23" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="167">
+      <c r="C23" s="168">
         <v>0.02</v>
       </c>
-      <c r="D23" s="159">
+      <c r="D23" s="160">
         <v>0.04</v>
       </c>
-      <c r="E23" s="159">
+      <c r="E23" s="160">
         <v>0.04</v>
       </c>
-      <c r="F23" s="159">
+      <c r="F23" s="160">
         <v>0.04</v>
       </c>
-      <c r="G23" s="159">
+      <c r="G23" s="160">
         <v>0.04</v>
       </c>
-      <c r="H23" s="180" t="s">
+      <c r="H23" s="181" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="155" t="s">
+      <c r="I23" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
       <c r="M23" s="41"/>
     </row>
     <row r="24" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="149" t="s">
+      <c r="A24" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="189" t="s">
+      <c r="B24" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="167">
+      <c r="C24" s="168">
         <v>0.06</v>
       </c>
-      <c r="D24" s="159">
+      <c r="D24" s="160">
         <v>0.09</v>
       </c>
-      <c r="E24" s="159">
+      <c r="E24" s="160">
         <v>0.09</v>
       </c>
-      <c r="F24" s="159">
+      <c r="F24" s="160">
         <v>0.09</v>
       </c>
-      <c r="G24" s="159">
+      <c r="G24" s="160">
         <v>0.1</v>
       </c>
-      <c r="H24" s="180" t="s">
+      <c r="H24" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="105" t="s">
+      <c r="I24" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="105" t="s">
+      <c r="J24" s="106" t="s">
         <v>86</v>
       </c>
       <c r="M24" s="41"/>
     </row>
     <row r="25" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="189" t="s">
+      <c r="B25" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="167">
+      <c r="C25" s="168">
         <v>0.05</v>
       </c>
-      <c r="D25" s="159">
+      <c r="D25" s="160">
         <v>0.36</v>
       </c>
-      <c r="E25" s="159">
+      <c r="E25" s="160">
         <v>0.36</v>
       </c>
-      <c r="F25" s="159">
+      <c r="F25" s="160">
         <v>0.4</v>
       </c>
-      <c r="G25" s="159">
+      <c r="G25" s="160">
         <v>0.43</v>
       </c>
-      <c r="H25" s="160" t="s">
+      <c r="H25" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="105" t="s">
+      <c r="I25" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="105" t="s">
+      <c r="J25" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="105" t="s">
+      <c r="K25" s="106" t="s">
         <v>89</v>
       </c>
       <c r="M25" s="41"/>
     </row>
     <row r="26" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="190" t="s">
+      <c r="B26" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="169">
+      <c r="C26" s="170">
         <v>0.09</v>
       </c>
-      <c r="D26" s="161">
+      <c r="D26" s="162">
         <v>0.44</v>
       </c>
-      <c r="E26" s="161">
+      <c r="E26" s="162">
         <v>0.45</v>
       </c>
-      <c r="F26" s="161">
+      <c r="F26" s="162">
         <v>0.46</v>
       </c>
-      <c r="G26" s="161">
+      <c r="G26" s="162">
         <v>0.46</v>
       </c>
-      <c r="H26" s="200" t="s">
+      <c r="H26" s="201" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="106" t="s">
+      <c r="I26" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="157"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="158"/>
     </row>
     <row r="27" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="151" t="s">
+      <c r="A27" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="220" t="s">
+      <c r="B27" s="221" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="170">
+      <c r="C27" s="171">
         <v>0.05</v>
       </c>
-      <c r="D27" s="162">
+      <c r="D27" s="163">
         <v>0.22</v>
       </c>
-      <c r="E27" s="162">
+      <c r="E27" s="163">
         <v>0.24</v>
       </c>
-      <c r="F27" s="162">
+      <c r="F27" s="163">
         <v>0.39</v>
       </c>
-      <c r="G27" s="162">
+      <c r="G27" s="163">
         <v>0.44</v>
       </c>
-      <c r="H27" s="199" t="s">
+      <c r="H27" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="239" t="s">
+      <c r="I27" s="240" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="239" t="s">
+      <c r="J27" s="240" t="s">
         <v>94</v>
       </c>
-      <c r="K27" s="239"/>
-      <c r="L27" s="158"/>
+      <c r="K27" s="240"/>
+      <c r="L27" s="159"/>
     </row>
     <row r="28" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="189" t="s">
+      <c r="B28" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="167">
+      <c r="C28" s="168">
         <v>0.02</v>
       </c>
-      <c r="D28" s="159">
+      <c r="D28" s="160">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E28" s="159">
+      <c r="E28" s="160">
         <v>0.17</v>
       </c>
-      <c r="F28" s="159">
+      <c r="F28" s="160">
         <v>0.19</v>
       </c>
-      <c r="G28" s="159">
+      <c r="G28" s="160">
         <v>0.19</v>
       </c>
-      <c r="H28" s="180" t="s">
+      <c r="H28" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="240" t="s">
+      <c r="I28" s="241" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
       <c r="M28" s="41"/>
     </row>
     <row r="29" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="188" t="s">
+      <c r="B29" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="172">
+      <c r="C29" s="173">
         <v>0.03</v>
       </c>
-      <c r="D29" s="163">
+      <c r="D29" s="164">
         <v>0.15</v>
       </c>
-      <c r="E29" s="163">
+      <c r="E29" s="164">
         <v>0.15</v>
       </c>
-      <c r="F29" s="163">
+      <c r="F29" s="164">
         <v>0.15</v>
       </c>
-      <c r="G29" s="163">
+      <c r="G29" s="164">
         <v>0.15</v>
       </c>
-      <c r="H29" s="179" t="s">
+      <c r="H29" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="107" t="s">
+      <c r="I29" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="107" t="s">
+      <c r="J29" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="107" t="s">
+      <c r="K29" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="107" t="s">
+      <c r="L29" s="108" t="s">
         <v>101</v>
       </c>
       <c r="M29" s="41"/>
     </row>
     <row r="30" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="189" t="s">
+      <c r="B30" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="167">
+      <c r="C30" s="168">
         <v>0.05</v>
       </c>
-      <c r="D30" s="159">
+      <c r="D30" s="160">
         <v>0.17</v>
       </c>
-      <c r="E30" s="159">
+      <c r="E30" s="160">
         <v>0.17</v>
       </c>
-      <c r="F30" s="159">
+      <c r="F30" s="160">
         <v>0.17</v>
       </c>
-      <c r="G30" s="159">
+      <c r="G30" s="160">
         <v>0.17</v>
       </c>
-      <c r="H30" s="160" t="s">
+      <c r="H30" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="J30" s="155"/>
-      <c r="K30" s="155"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
       <c r="M30" s="41"/>
     </row>
     <row r="31" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="189" t="s">
+      <c r="B31" s="190" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="167">
+      <c r="C31" s="168">
         <v>0.02</v>
       </c>
-      <c r="D31" s="159">
+      <c r="D31" s="160">
         <v>0.31</v>
       </c>
-      <c r="E31" s="159">
+      <c r="E31" s="160">
         <v>0.34</v>
       </c>
-      <c r="F31" s="159">
+      <c r="F31" s="160">
         <v>0.4</v>
       </c>
-      <c r="G31" s="159">
+      <c r="G31" s="160">
         <v>0.41</v>
       </c>
-      <c r="H31" s="160" t="s">
+      <c r="H31" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="155" t="s">
+      <c r="I31" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
       <c r="M31" s="41"/>
     </row>
     <row r="32" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="188" t="s">
+      <c r="B32" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="172">
+      <c r="C32" s="173">
         <v>0.1</v>
       </c>
-      <c r="D32" s="163">
+      <c r="D32" s="164">
         <v>0.19</v>
       </c>
-      <c r="E32" s="163">
+      <c r="E32" s="164">
         <v>0.19</v>
       </c>
-      <c r="F32" s="163">
+      <c r="F32" s="164">
         <v>0.19</v>
       </c>
-      <c r="G32" s="163">
+      <c r="G32" s="164">
         <v>0.19</v>
       </c>
-      <c r="H32" s="179" t="s">
+      <c r="H32" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="177" t="s">
+      <c r="I32" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="177" t="s">
+      <c r="J32" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="177"/>
-      <c r="L32" s="107"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="108"/>
       <c r="M32" s="41"/>
     </row>
     <row r="33" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="152" t="s">
+      <c r="A33" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="192" t="s">
+      <c r="B33" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="173">
+      <c r="C33" s="174">
         <v>0.03</v>
       </c>
-      <c r="D33" s="164">
+      <c r="D33" s="165">
         <v>0.4</v>
       </c>
-      <c r="E33" s="164">
+      <c r="E33" s="165">
         <v>0.4</v>
       </c>
-      <c r="F33" s="164">
+      <c r="F33" s="165">
         <v>0.41</v>
       </c>
-      <c r="G33" s="164">
+      <c r="G33" s="165">
         <v>0.41</v>
       </c>
-      <c r="H33" s="229" t="s">
+      <c r="H33" s="230" t="s">
         <v>101</v>
       </c>
-      <c r="I33" s="231"/>
-      <c r="J33" s="231"/>
-      <c r="K33" s="231"/>
-      <c r="L33" s="108"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="232"/>
+      <c r="K33" s="232"/>
+      <c r="L33" s="109"/>
       <c r="M33" s="41"/>
     </row>
     <row r="34" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="149" t="s">
+      <c r="A34" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="167">
+      <c r="C34" s="168">
         <v>0.01</v>
       </c>
-      <c r="D34" s="159">
+      <c r="D34" s="160">
         <v>0.02</v>
       </c>
-      <c r="E34" s="159">
+      <c r="E34" s="160">
         <v>0.02</v>
       </c>
-      <c r="F34" s="159">
+      <c r="F34" s="160">
         <v>0.03</v>
       </c>
-      <c r="G34" s="159">
+      <c r="G34" s="160">
         <v>0.03</v>
       </c>
-      <c r="H34" s="160" t="s">
+      <c r="H34" s="161" t="s">
         <v>111</v>
       </c>
       <c r="M34" s="41"/>
     </row>
     <row r="35" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="222" t="s">
+      <c r="B35" s="223" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="174">
+      <c r="C35" s="175">
         <v>0.04</v>
       </c>
-      <c r="D35" s="165">
+      <c r="D35" s="166">
         <v>0.43</v>
       </c>
-      <c r="E35" s="165">
+      <c r="E35" s="166">
         <v>0.43</v>
       </c>
-      <c r="F35" s="165">
+      <c r="F35" s="166">
         <v>0.45</v>
       </c>
-      <c r="G35" s="165">
+      <c r="G35" s="166">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H35" s="181" t="s">
+      <c r="H35" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="I35" s="232"/>
-      <c r="J35" s="232"/>
-      <c r="K35" s="232"/>
-      <c r="L35" s="235"/>
-      <c r="M35" s="236"/>
+      <c r="I35" s="233"/>
+      <c r="J35" s="233"/>
+      <c r="K35" s="233"/>
+      <c r="L35" s="236"/>
+      <c r="M35" s="237"/>
       <c r="N35" s="47"/>
       <c r="O35" s="47"/>
     </row>
     <row r="36" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="150"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="171"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="166"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
+      <c r="A36" s="151"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
       <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="150"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
+      <c r="A37" s="151"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
     </row>
     <row r="1048576" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G1048576" s="160"/>
+      <c r="G1048576" s="161"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M35" xr:uid="{12FC8A75-388D-4700-A62B-F6EDA7361E53}">
@@ -7830,7 +7833,7 @@
       <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="111" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7838,7 +7841,7 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="111">
+      <c r="B2" s="112">
         <v>0.21251470586497501</v>
       </c>
     </row>
@@ -7854,7 +7857,7 @@
       <c r="A4" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="112">
         <v>0.14780003869463099</v>
       </c>
     </row>
@@ -7878,7 +7881,7 @@
       <c r="A7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="112">
         <v>0.23240393677749599</v>
       </c>
     </row>
@@ -7966,7 +7969,7 @@
       <c r="A18" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="111">
+      <c r="B18" s="112">
         <v>0.73341413878513295</v>
       </c>
     </row>
@@ -8006,7 +8009,7 @@
       <c r="A23" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="111">
+      <c r="B23" s="112">
         <v>0.22189562161805401</v>
       </c>
     </row>
@@ -8022,7 +8025,7 @@
       <c r="A25" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="111">
+      <c r="B25" s="112">
         <v>0.87283309659827202</v>
       </c>
     </row>
@@ -8030,7 +8033,7 @@
       <c r="A26" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="111">
+      <c r="B26" s="112">
         <v>0.52348128218050805</v>
       </c>
     </row>
@@ -8086,7 +8089,7 @@
       <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="111">
+      <c r="B33" s="112">
         <v>7.8473308940661998E-2</v>
       </c>
     </row>
@@ -8094,7 +8097,7 @@
       <c r="A34" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="111">
+      <c r="B34" s="112">
         <v>1.41975499681097E-3</v>
       </c>
     </row>
@@ -8102,7 +8105,7 @@
       <c r="A35" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="111">
+      <c r="B35" s="112">
         <v>0.55404892560437502</v>
       </c>
     </row>
@@ -8110,7 +8113,7 @@
       <c r="A36" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="111">
+      <c r="B36" s="112">
         <v>0.86292237587673604</v>
       </c>
     </row>
@@ -8118,7 +8121,7 @@
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="111">
+      <c r="B37" s="112">
         <v>4.6209008160706597E-2</v>
       </c>
     </row>
@@ -8134,7 +8137,7 @@
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="111">
+      <c r="B39" s="112">
         <v>0.25787952089614202</v>
       </c>
     </row>
@@ -8150,7 +8153,7 @@
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="111">
+      <c r="B41" s="112">
         <v>0.12745277813087899</v>
       </c>
     </row>
@@ -8190,7 +8193,7 @@
       <c r="A46" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="111">
+      <c r="B46" s="112">
         <v>0.43931872203458799</v>
       </c>
     </row>
@@ -8198,7 +8201,7 @@
       <c r="A47" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="111">
+      <c r="B47" s="112">
         <v>0.118540900134412</v>
       </c>
     </row>
@@ -8219,7 +8222,7 @@
       <c r="A50" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="111">
+      <c r="B50" s="112">
         <v>0.31728884156711701</v>
       </c>
     </row>
@@ -8275,7 +8278,7 @@
       <c r="A57" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="111">
+      <c r="B57" s="112">
         <v>0.19298886639676099</v>
       </c>
     </row>
@@ -8283,7 +8286,7 @@
       <c r="A58" t="s">
         <v>166</v>
       </c>
-      <c r="B58" s="111">
+      <c r="B58" s="112">
         <v>0.424580850384075</v>
       </c>
     </row>
@@ -8299,13 +8302,13 @@
       <c r="A60" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="111"/>
+      <c r="B60" s="112"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>169</v>
       </c>
-      <c r="B61" s="111">
+      <c r="B61" s="112">
         <v>2.7592365876626501E-2</v>
       </c>
     </row>
@@ -8321,7 +8324,7 @@
       <c r="A63" t="s">
         <v>171</v>
       </c>
-      <c r="B63" s="111">
+      <c r="B63" s="112">
         <v>0.37980236832180098</v>
       </c>
     </row>
@@ -8329,7 +8332,7 @@
       <c r="A64" t="s">
         <v>172</v>
       </c>
-      <c r="B64" s="111">
+      <c r="B64" s="112">
         <v>0.66545460712388804</v>
       </c>
     </row>
@@ -8345,7 +8348,7 @@
       <c r="A66" t="s">
         <v>174</v>
       </c>
-      <c r="B66" s="111"/>
+      <c r="B66" s="112"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
@@ -8359,7 +8362,7 @@
       <c r="A68" t="s">
         <v>176</v>
       </c>
-      <c r="B68" s="111">
+      <c r="B68" s="112">
         <v>0.29486176092345501</v>
       </c>
     </row>
@@ -8367,7 +8370,7 @@
       <c r="A69" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="111">
+      <c r="B69" s="112">
         <v>0.319295505982294</v>
       </c>
     </row>
@@ -8375,7 +8378,7 @@
       <c r="A70" t="s">
         <v>177</v>
       </c>
-      <c r="B70" s="111">
+      <c r="B70" s="112">
         <v>0.70963528158448097</v>
       </c>
     </row>
@@ -8423,7 +8426,7 @@
       <c r="A76" t="s">
         <v>182</v>
       </c>
-      <c r="B76" s="111">
+      <c r="B76" s="112">
         <v>0.147885435649414</v>
       </c>
     </row>
@@ -8447,7 +8450,7 @@
       <c r="A79" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="111">
+      <c r="B79" s="112">
         <v>0.257806052468804</v>
       </c>
     </row>
@@ -8463,7 +8466,7 @@
       <c r="A81" t="s">
         <v>186</v>
       </c>
-      <c r="B81" s="111">
+      <c r="B81" s="112">
         <v>0.343814153550829</v>
       </c>
     </row>
@@ -8495,7 +8498,7 @@
       <c r="A85" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="111">
+      <c r="B85" s="112">
         <v>0.20651308422921399</v>
       </c>
     </row>
@@ -8503,7 +8506,7 @@
       <c r="A86" t="s">
         <v>190</v>
       </c>
-      <c r="B86" s="111">
+      <c r="B86" s="112">
         <v>0.17397806200301699</v>
       </c>
     </row>
@@ -8511,7 +8514,7 @@
       <c r="A87" t="s">
         <v>191</v>
       </c>
-      <c r="B87" s="111">
+      <c r="B87" s="112">
         <v>0.47326940876127699</v>
       </c>
     </row>
@@ -8519,7 +8522,7 @@
       <c r="A88" t="s">
         <v>60</v>
       </c>
-      <c r="B88" s="111">
+      <c r="B88" s="112">
         <v>1.4259907978300901E-2</v>
       </c>
     </row>
@@ -8527,7 +8530,7 @@
       <c r="A89" t="s">
         <v>192</v>
       </c>
-      <c r="B89" s="111">
+      <c r="B89" s="112">
         <v>0.55465703990072501</v>
       </c>
     </row>
@@ -8556,7 +8559,7 @@
       <c r="A93" t="s">
         <v>196</v>
       </c>
-      <c r="B93" s="111">
+      <c r="B93" s="112">
         <v>0.67866948335819899</v>
       </c>
     </row>
@@ -8564,7 +8567,7 @@
       <c r="A94" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="111">
+      <c r="B94" s="112">
         <v>0.62282172235841504</v>
       </c>
     </row>
@@ -8644,7 +8647,7 @@
       <c r="A104" t="s">
         <v>61</v>
       </c>
-      <c r="B104" s="111">
+      <c r="B104" s="112">
         <v>0.17345339788722899</v>
       </c>
     </row>
@@ -8652,7 +8655,7 @@
       <c r="A105" t="s">
         <v>207</v>
       </c>
-      <c r="B105" s="111">
+      <c r="B105" s="112">
         <v>0.51884067677418799</v>
       </c>
     </row>
@@ -8660,7 +8663,7 @@
       <c r="A106" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="111">
+      <c r="B106" s="112">
         <v>0.45880859803549201</v>
       </c>
     </row>
@@ -8676,7 +8679,7 @@
       <c r="A108" t="s">
         <v>210</v>
       </c>
-      <c r="B108" s="111">
+      <c r="B108" s="112">
         <v>0.19708083347038699</v>
       </c>
     </row>
@@ -8684,7 +8687,7 @@
       <c r="A109" t="s">
         <v>211</v>
       </c>
-      <c r="B109" s="111">
+      <c r="B109" s="112">
         <v>0.70605946483844495</v>
       </c>
     </row>
@@ -8708,7 +8711,7 @@
       <c r="A112" t="s">
         <v>214</v>
       </c>
-      <c r="B112" s="111">
+      <c r="B112" s="112">
         <v>0.407357408032399</v>
       </c>
     </row>
@@ -8716,7 +8719,7 @@
       <c r="A113" t="s">
         <v>215</v>
       </c>
-      <c r="B113" s="111">
+      <c r="B113" s="112">
         <v>0.46031471735761897</v>
       </c>
     </row>
@@ -8753,7 +8756,7 @@
       <c r="A118" t="s">
         <v>65</v>
       </c>
-      <c r="B118" s="111">
+      <c r="B118" s="112">
         <v>4.84589623971209E-2</v>
       </c>
     </row>
@@ -8761,7 +8764,7 @@
       <c r="A119" t="s">
         <v>68</v>
       </c>
-      <c r="B119" s="111">
+      <c r="B119" s="112">
         <v>0.10102084939889</v>
       </c>
     </row>
@@ -8777,7 +8780,7 @@
       <c r="A121" t="s">
         <v>221</v>
       </c>
-      <c r="B121" s="111">
+      <c r="B121" s="112">
         <v>0.71185139415107701</v>
       </c>
     </row>
@@ -8785,7 +8788,7 @@
       <c r="A122" t="s">
         <v>70</v>
       </c>
-      <c r="B122" s="111">
+      <c r="B122" s="112">
         <v>7.3985104711494998E-2</v>
       </c>
     </row>
@@ -8801,7 +8804,7 @@
       <c r="A124" t="s">
         <v>223</v>
       </c>
-      <c r="B124" s="111">
+      <c r="B124" s="112">
         <v>0.49121532587762201</v>
       </c>
     </row>
@@ -8814,7 +8817,7 @@
       <c r="A126" t="s">
         <v>225</v>
       </c>
-      <c r="B126" s="111">
+      <c r="B126" s="112">
         <v>0.30329004842936802</v>
       </c>
     </row>
@@ -8838,7 +8841,7 @@
       <c r="A129" t="s">
         <v>228</v>
       </c>
-      <c r="B129" s="111">
+      <c r="B129" s="112">
         <v>0.53503212400998001</v>
       </c>
     </row>
@@ -8854,7 +8857,7 @@
       <c r="A131" t="s">
         <v>230</v>
       </c>
-      <c r="B131" s="111">
+      <c r="B131" s="112">
         <v>0.66412916489999296</v>
       </c>
     </row>
@@ -8878,7 +8881,7 @@
       <c r="A134" t="s">
         <v>233</v>
       </c>
-      <c r="B134" s="111">
+      <c r="B134" s="112">
         <v>0.63585421082746996</v>
       </c>
     </row>
@@ -8886,7 +8889,7 @@
       <c r="A135" t="s">
         <v>234</v>
       </c>
-      <c r="B135" s="111">
+      <c r="B135" s="112">
         <v>0.45107818848145897</v>
       </c>
     </row>
@@ -8894,7 +8897,7 @@
       <c r="A136" t="s">
         <v>235</v>
       </c>
-      <c r="B136" s="111">
+      <c r="B136" s="112">
         <v>0.50625675889269905</v>
       </c>
     </row>
@@ -8918,7 +8921,7 @@
       <c r="A139" t="s">
         <v>238</v>
       </c>
-      <c r="B139" s="111">
+      <c r="B139" s="112">
         <v>0.70839540830965397</v>
       </c>
     </row>
@@ -8950,7 +8953,7 @@
       <c r="A143" t="s">
         <v>242</v>
       </c>
-      <c r="B143" s="111">
+      <c r="B143" s="112">
         <v>0.84985525063272105</v>
       </c>
     </row>
@@ -8958,7 +8961,7 @@
       <c r="A144" t="s">
         <v>72</v>
       </c>
-      <c r="B144" s="111">
+      <c r="B144" s="112">
         <v>0.123364849749515</v>
       </c>
     </row>
@@ -8966,7 +8969,7 @@
       <c r="A145" t="s">
         <v>75</v>
       </c>
-      <c r="B145" s="111">
+      <c r="B145" s="112">
         <v>0.119703639265527</v>
       </c>
     </row>
@@ -9003,7 +9006,7 @@
       <c r="A150" t="s">
         <v>247</v>
       </c>
-      <c r="B150" s="111">
+      <c r="B150" s="112">
         <v>0.59316840955191097</v>
       </c>
     </row>
@@ -9027,7 +9030,7 @@
       <c r="A153" t="s">
         <v>250</v>
       </c>
-      <c r="B153" s="111">
+      <c r="B153" s="112">
         <v>3.1609393246290599E-2</v>
       </c>
     </row>
@@ -9051,7 +9054,7 @@
       <c r="A156" t="s">
         <v>253</v>
       </c>
-      <c r="B156" s="111">
+      <c r="B156" s="112">
         <v>0.65911396673794298</v>
       </c>
     </row>
@@ -9091,7 +9094,7 @@
       <c r="A161" t="s">
         <v>258</v>
       </c>
-      <c r="B161" s="111">
+      <c r="B161" s="112">
         <v>0.26463975995813499</v>
       </c>
     </row>
@@ -9120,7 +9123,7 @@
       <c r="A165" t="s">
         <v>262</v>
       </c>
-      <c r="B165" s="111">
+      <c r="B165" s="112">
         <v>0.80980446746649803</v>
       </c>
     </row>
@@ -9141,7 +9144,7 @@
       <c r="A168" t="s">
         <v>265</v>
       </c>
-      <c r="B168" s="111">
+      <c r="B168" s="112">
         <v>0.29739090656602701</v>
       </c>
     </row>
@@ -9149,7 +9152,7 @@
       <c r="A169" t="s">
         <v>266</v>
       </c>
-      <c r="B169" s="111">
+      <c r="B169" s="112">
         <v>0.28093564088696499</v>
       </c>
     </row>
@@ -9157,7 +9160,7 @@
       <c r="A170" t="s">
         <v>267</v>
       </c>
-      <c r="B170" s="111">
+      <c r="B170" s="112">
         <v>0.87758424304736504</v>
       </c>
     </row>
@@ -9173,7 +9176,7 @@
       <c r="A172" t="s">
         <v>269</v>
       </c>
-      <c r="B172" s="111">
+      <c r="B172" s="112">
         <v>0.45916891389356501</v>
       </c>
     </row>
@@ -9189,7 +9192,7 @@
       <c r="A174" t="s">
         <v>84</v>
       </c>
-      <c r="B174" s="111">
+      <c r="B174" s="112">
         <v>6.3984989901114495E-2</v>
       </c>
     </row>
@@ -9213,7 +9216,7 @@
       <c r="A177" t="s">
         <v>87</v>
       </c>
-      <c r="B177" s="111">
+      <c r="B177" s="112">
         <v>0.27207391566460598</v>
       </c>
     </row>
@@ -9253,7 +9256,7 @@
       <c r="A182" t="s">
         <v>90</v>
       </c>
-      <c r="B182" s="111">
+      <c r="B182" s="112">
         <v>0.27958578158757502</v>
       </c>
     </row>
@@ -9261,7 +9264,7 @@
       <c r="A183" t="s">
         <v>92</v>
       </c>
-      <c r="B183" s="111">
+      <c r="B183" s="112">
         <v>0.128388441311648</v>
       </c>
     </row>
@@ -9277,7 +9280,7 @@
       <c r="A185" t="s">
         <v>95</v>
       </c>
-      <c r="B185" s="111">
+      <c r="B185" s="112">
         <v>0.13143319136391099</v>
       </c>
     </row>
@@ -9293,7 +9296,7 @@
       <c r="A187" t="s">
         <v>279</v>
       </c>
-      <c r="B187" s="111">
+      <c r="B187" s="112">
         <v>0.67989299521992197</v>
       </c>
     </row>
@@ -9301,7 +9304,7 @@
       <c r="A188" t="s">
         <v>98</v>
       </c>
-      <c r="B188" s="111">
+      <c r="B188" s="112">
         <v>0.103467287703372</v>
       </c>
     </row>
@@ -9333,7 +9336,7 @@
       <c r="A192" t="s">
         <v>102</v>
       </c>
-      <c r="B192" s="111">
+      <c r="B192" s="112">
         <v>0.10941211467591599</v>
       </c>
     </row>
@@ -9341,7 +9344,7 @@
       <c r="A193" t="s">
         <v>283</v>
       </c>
-      <c r="B193" s="111">
+      <c r="B193" s="112">
         <v>0.52788928332600404</v>
       </c>
     </row>
@@ -9349,7 +9352,7 @@
       <c r="A194" t="s">
         <v>103</v>
       </c>
-      <c r="B194" s="111">
+      <c r="B194" s="112">
         <v>0.24734873067225799</v>
       </c>
     </row>
@@ -9365,7 +9368,7 @@
       <c r="A196" t="s">
         <v>285</v>
       </c>
-      <c r="B196" s="111">
+      <c r="B196" s="112">
         <v>0.55806802710769099</v>
       </c>
     </row>
@@ -9373,7 +9376,7 @@
       <c r="A197" t="s">
         <v>286</v>
       </c>
-      <c r="B197" s="111">
+      <c r="B197" s="112">
         <v>0.188137447268443</v>
       </c>
     </row>
@@ -9381,7 +9384,7 @@
       <c r="A198" t="s">
         <v>287</v>
       </c>
-      <c r="B198" s="111">
+      <c r="B198" s="112">
         <v>0.72436728322058697</v>
       </c>
     </row>
@@ -9397,7 +9400,7 @@
       <c r="A200" t="s">
         <v>289</v>
       </c>
-      <c r="B200" s="111">
+      <c r="B200" s="112">
         <v>0.53976619434131801</v>
       </c>
     </row>
@@ -9429,7 +9432,7 @@
       <c r="A204" t="s">
         <v>293</v>
       </c>
-      <c r="B204" s="111">
+      <c r="B204" s="112">
         <v>0.59252035278154602</v>
       </c>
     </row>
@@ -9445,7 +9448,7 @@
       <c r="A206" t="s">
         <v>109</v>
       </c>
-      <c r="B206" s="111">
+      <c r="B206" s="112">
         <v>0.27185203858760698</v>
       </c>
     </row>
@@ -9461,7 +9464,7 @@
       <c r="A208" t="s">
         <v>296</v>
       </c>
-      <c r="B208" s="111">
+      <c r="B208" s="112">
         <v>0.34649610155852301</v>
       </c>
     </row>
@@ -9490,7 +9493,7 @@
       <c r="A212" t="s">
         <v>300</v>
       </c>
-      <c r="B212" s="111">
+      <c r="B212" s="112">
         <v>0.47190056744411402</v>
       </c>
     </row>
@@ -9498,7 +9501,7 @@
       <c r="A213" t="s">
         <v>301</v>
       </c>
-      <c r="B213" s="111">
+      <c r="B213" s="112">
         <v>0.42522912630842102</v>
       </c>
     </row>
@@ -9514,7 +9517,7 @@
       <c r="A215" t="s">
         <v>303</v>
       </c>
-      <c r="B215" s="111">
+      <c r="B215" s="112">
         <v>0.83256441415689797</v>
       </c>
     </row>
@@ -9530,7 +9533,7 @@
       <c r="A217" t="s">
         <v>305</v>
       </c>
-      <c r="B217" s="111">
+      <c r="B217" s="112">
         <v>0.34763087253847602</v>
       </c>
     </row>
@@ -9538,7 +9541,7 @@
       <c r="A218" t="s">
         <v>110</v>
       </c>
-      <c r="B218" s="111">
+      <c r="B218" s="112">
         <v>1.5182845389339301E-2</v>
       </c>
     </row>
@@ -9546,7 +9549,7 @@
       <c r="A219" t="s">
         <v>112</v>
       </c>
-      <c r="B219" s="111">
+      <c r="B219" s="112">
         <v>0.29375833437364202</v>
       </c>
     </row>
@@ -9554,7 +9557,7 @@
       <c r="A220" t="s">
         <v>306</v>
       </c>
-      <c r="B220" s="111">
+      <c r="B220" s="112">
         <v>0.316388820934561</v>
       </c>
     </row>
@@ -9565,2150 +9568,2162 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C93465-3509-43FC-8B1D-55C3E4001FB1}">
-  <dimension ref="A1:X69"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="18" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" style="54" customWidth="1"/>
-    <col min="2" max="3" width="21" style="54" customWidth="1"/>
-    <col min="4" max="4" width="24.86328125" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="71" customWidth="1"/>
-    <col min="6" max="6" width="61.1328125" style="71" customWidth="1"/>
-    <col min="7" max="7" width="32.3984375" style="62" customWidth="1"/>
-    <col min="8" max="8" width="42.86328125" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="25.3984375" style="54" customWidth="1"/>
-    <col min="10" max="10" width="35.1328125" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="35.1328125" style="62" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="35.1328125" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="25.86328125" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="78.59765625" style="54" customWidth="1"/>
-    <col min="16" max="16" width="75.59765625" style="54" customWidth="1"/>
-    <col min="17" max="17" width="27" style="74" customWidth="1"/>
-    <col min="18" max="18" width="31.3984375" style="75" customWidth="1"/>
-    <col min="19" max="19" width="23.86328125" style="75" customWidth="1"/>
-    <col min="20" max="21" width="23.86328125" style="74" customWidth="1"/>
-    <col min="22" max="22" width="43.3984375" style="54" customWidth="1"/>
-    <col min="23" max="23" width="36.59765625" style="54" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="61.3984375" style="54" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.59765625" style="54" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1328125" style="54"/>
+    <col min="1" max="1" width="8.3984375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="23.86328125" style="54" customWidth="1"/>
+    <col min="3" max="4" width="21" style="54" customWidth="1"/>
+    <col min="5" max="5" width="24.86328125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="71" customWidth="1"/>
+    <col min="7" max="7" width="61.1328125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="32.3984375" style="62" customWidth="1"/>
+    <col min="9" max="9" width="42.86328125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="25.3984375" style="54" customWidth="1"/>
+    <col min="11" max="11" width="35.1328125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="35.1328125" style="62" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="35.1328125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="15" width="25.86328125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="78.59765625" style="54" customWidth="1"/>
+    <col min="17" max="17" width="75.59765625" style="54" customWidth="1"/>
+    <col min="18" max="18" width="27" style="75" customWidth="1"/>
+    <col min="19" max="19" width="31.3984375" style="76" customWidth="1"/>
+    <col min="20" max="20" width="23.86328125" style="76" customWidth="1"/>
+    <col min="21" max="22" width="23.86328125" style="75" customWidth="1"/>
+    <col min="23" max="23" width="43.3984375" style="54" customWidth="1"/>
+    <col min="24" max="24" width="36.59765625" style="54" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="61.3984375" style="54" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.59765625" style="54" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1328125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="62" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="2:25" s="62" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="C1" s="119" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="D1" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="E1" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="F1" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="G1" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="H1" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="I1" s="69" t="s">
         <v>313</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="J1" s="69" t="s">
         <v>314</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="K1" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="L1" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="M1" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="N1" s="69" t="s">
         <v>318</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="O1" s="69" t="s">
         <v>319</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="P1" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="Q1" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="R1" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="S1" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="T1" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="U1" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="V1" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="W1" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="W1" s="53" t="s">
+      <c r="X1" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="X1" s="53" t="s">
+      <c r="Y1" s="53" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="112" t="s">
+    <row r="2" spans="2:25" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="C2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="99"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="68">
-        <f t="shared" ref="L2:L35" si="0">IF(OR(G2=$B$60,G2=$B$59, I2=$B$60, I2=$B$59),1,0)</f>
+      <c r="K2" s="68"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="68">
+        <f t="shared" ref="M2:M35" si="0">IF(OR(H2=$C$60,H2=$C$59, J2=$C$60, J2=$C$59),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A2,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N2" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B2,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.21251470586497501</v>
       </c>
-      <c r="N2" s="119">
-        <f t="shared" ref="N2:N35" si="1">IF(M2&lt;0.121, 1, 0)</f>
+      <c r="O2" s="120">
+        <f t="shared" ref="O2:O35" si="1">IF(N2&lt;0.121, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="P2" s="52" t="s">
         <v>332</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="Q2" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="57"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="57"/>
-      <c r="T2" s="38"/>
+      <c r="T2" s="57"/>
       <c r="U2" s="38"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="56" t="s">
+      <c r="V2" s="38"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X2" s="58"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="115" t="s">
+      <c r="Y2" s="58"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="C3" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="D3" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="E3" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="G3" s="67" t="s">
         <v>331</v>
       </c>
-      <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
-      <c r="L3" s="56">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M3" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A3,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N3" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B3,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>7.8473308940661998E-2</v>
       </c>
-      <c r="N3" s="119">
+      <c r="O3" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="59"/>
+      <c r="Q3" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="57"/>
+      <c r="R3" s="38"/>
       <c r="S3" s="57"/>
-      <c r="T3" s="38"/>
+      <c r="T3" s="57"/>
       <c r="U3" s="38"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="56" t="s">
+      <c r="V3" s="38"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X3" s="39"/>
-    </row>
-    <row r="4" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="116" t="s">
+      <c r="Y3" s="39"/>
+    </row>
+    <row r="4" spans="2:25" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="C4" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="E4" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="G4" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
-      <c r="L4" s="56">
+      <c r="L4" s="56"/>
+      <c r="M4" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A4,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N4" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B4,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>1.41975499681097E-3</v>
       </c>
-      <c r="N4" s="119">
+      <c r="O4" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O4" s="100" t="s">
+      <c r="P4" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="Q4" s="102" t="s">
         <v>338</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="57"/>
+      <c r="R4" s="38"/>
       <c r="S4" s="57"/>
-      <c r="T4" s="38"/>
+      <c r="T4" s="57"/>
       <c r="U4" s="38"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="56" t="s">
+      <c r="V4" s="38"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X4" s="39"/>
-    </row>
-    <row r="5" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="116" t="s">
+      <c r="Y4" s="39"/>
+    </row>
+    <row r="5" spans="2:25" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="C5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="D5" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="E5" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="F5" s="71" t="s">
         <v>339</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="G5" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="H5" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="K5" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M5" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A5,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N5" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B5,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.31728884156711701</v>
       </c>
-      <c r="N5" s="119">
+      <c r="O5" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="P5" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="Q5" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="57"/>
+      <c r="R5" s="38"/>
       <c r="S5" s="57"/>
-      <c r="T5" s="38"/>
+      <c r="T5" s="57"/>
       <c r="U5" s="38"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="56" t="s">
+      <c r="V5" s="38"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X5" s="39"/>
-    </row>
-    <row r="6" spans="1:24" ht="194.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="112" t="s">
+      <c r="Y5" s="39"/>
+    </row>
+    <row r="6" spans="2:25" ht="194.45" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="C6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="D6" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="E6" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="F6" s="71" t="s">
         <v>339</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="G6" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="K6" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="56">
+      <c r="L6" s="70"/>
+      <c r="M6" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M6" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A6,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N6" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B6,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>4.6209008160706597E-2</v>
       </c>
-      <c r="N6" s="119">
+      <c r="O6" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O6" s="52" t="s">
+      <c r="P6" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="P6" s="50" t="s">
+      <c r="Q6" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="57"/>
+      <c r="R6" s="38"/>
       <c r="S6" s="57"/>
-      <c r="T6" s="38"/>
+      <c r="T6" s="57"/>
       <c r="U6" s="38"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="56" t="s">
+      <c r="V6" s="38"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X6" s="39"/>
-    </row>
-    <row r="7" spans="1:24" ht="180" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="115" t="s">
+      <c r="Y6" s="39"/>
+    </row>
+    <row r="7" spans="2:25" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="C7" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="D7" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="E7" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="F7" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="G7" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="H7" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="60"/>
+      <c r="J7" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="J7" s="56"/>
       <c r="K7" s="56"/>
-      <c r="L7" s="56">
+      <c r="L7" s="56"/>
+      <c r="M7" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M7" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A7,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N7" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B7,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.25787952089614202</v>
       </c>
-      <c r="N7" s="119">
+      <c r="O7" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="P7" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="Q7" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="57"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="57"/>
-      <c r="T7" s="38"/>
+      <c r="T7" s="57"/>
       <c r="U7" s="38"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="56" t="s">
+      <c r="V7" s="38"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X7" s="39"/>
-    </row>
-    <row r="8" spans="1:24" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="211" t="s">
+      <c r="Y7" s="39"/>
+    </row>
+    <row r="8" spans="2:25" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="C8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="D8" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="E8" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="F8" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="G8" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="H8" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
-      <c r="L8" s="56">
+      <c r="L8" s="56"/>
+      <c r="M8" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M8" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A8,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N8" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B8,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.12745277813087899</v>
       </c>
-      <c r="N8" s="119">
+      <c r="O8" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="52" t="s">
+      <c r="P8" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="P8" s="51" t="s">
+      <c r="Q8" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="57"/>
+      <c r="R8" s="38"/>
       <c r="S8" s="57"/>
-      <c r="T8" s="38"/>
+      <c r="T8" s="57"/>
       <c r="U8" s="38"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="56" t="s">
+      <c r="V8" s="38"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X8" s="39"/>
-    </row>
-    <row r="9" spans="1:24" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="113" t="s">
+      <c r="Y8" s="39"/>
+    </row>
+    <row r="9" spans="2:25" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="C9" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="D9" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="E9" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="F9" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="G9" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="H9" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="L9" s="56">
+      <c r="M9" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M9" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A9,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N9" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B9,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.19298886639676099</v>
       </c>
-      <c r="N9" s="119">
+      <c r="O9" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="52" t="s">
+      <c r="P9" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="P9" s="87" t="s">
+      <c r="Q9" s="88" t="s">
         <v>356</v>
       </c>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="57"/>
+      <c r="R9" s="38"/>
       <c r="S9" s="57"/>
-      <c r="T9" s="38"/>
+      <c r="T9" s="57"/>
       <c r="U9" s="38"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56" t="s">
+      <c r="V9" s="38"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X9" s="39"/>
-    </row>
-    <row r="10" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="116" t="s">
+      <c r="Y9" s="39"/>
+    </row>
+    <row r="10" spans="2:25" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="C10" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="D10" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="E10" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="F10" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="G10" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="H10" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="56"/>
+      <c r="J10" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="J10" s="56"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="56">
+      <c r="L10" s="56"/>
+      <c r="M10" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M10" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A10,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N10" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B10,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>2.7592365876626501E-2</v>
       </c>
-      <c r="N10" s="119">
+      <c r="O10" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O10" s="52" t="s">
+      <c r="P10" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="P10" s="102" t="s">
+      <c r="Q10" s="103" t="s">
         <v>358</v>
       </c>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="57"/>
+      <c r="R10" s="38"/>
       <c r="S10" s="57"/>
-      <c r="T10" s="38"/>
+      <c r="T10" s="57"/>
       <c r="U10" s="38"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56" t="s">
+      <c r="V10" s="38"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X10" s="39"/>
-    </row>
-    <row r="11" spans="1:24" ht="108" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="112" t="s">
+      <c r="Y10" s="39"/>
+    </row>
+    <row r="11" spans="2:25" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="C11" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="59"/>
+      <c r="E11" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="G11" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="H11" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="56">
+      <c r="L11" s="56"/>
+      <c r="M11" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M11" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A11,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N11" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B11,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.319295505982294</v>
       </c>
-      <c r="N11" s="119">
+      <c r="O11" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="52" t="s">
+      <c r="P11" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="P11" s="51" t="s">
+      <c r="Q11" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="57"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="57"/>
-      <c r="T11" s="38"/>
+      <c r="T11" s="57"/>
       <c r="U11" s="38"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="56" t="s">
+      <c r="V11" s="38"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X11" s="39"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="115" t="s">
+      <c r="Y11" s="39"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="C12" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="D12" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="E12" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="105"/>
+      <c r="G12" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="G12" s="56"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="56">
+      <c r="L12" s="56"/>
+      <c r="M12" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A12,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N12" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B12,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.11537856725017399</v>
       </c>
-      <c r="N12" s="119">
+      <c r="O12" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O12" s="52" t="s">
+      <c r="P12" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="P12" s="61" t="s">
+      <c r="Q12" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="57"/>
+      <c r="R12" s="38"/>
       <c r="S12" s="57"/>
-      <c r="T12" s="38"/>
+      <c r="T12" s="57"/>
       <c r="U12" s="38"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56" t="s">
+      <c r="V12" s="38"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X12" s="39"/>
-    </row>
-    <row r="13" spans="1:24" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="116" t="s">
+      <c r="Y12" s="39"/>
+    </row>
+    <row r="13" spans="2:25" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="C13" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="59"/>
+      <c r="E13" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="49"/>
+      <c r="G13" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="H13" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H13" s="56"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
-      <c r="L13" s="56">
+      <c r="L13" s="56"/>
+      <c r="M13" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M13" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A13,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N13" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B13,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.147885435649414</v>
       </c>
-      <c r="N13" s="119">
+      <c r="O13" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="P13" s="52" t="s">
         <v>364</v>
       </c>
-      <c r="P13" s="51" t="s">
+      <c r="Q13" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="57"/>
+      <c r="R13" s="38"/>
       <c r="S13" s="57"/>
-      <c r="T13" s="38"/>
+      <c r="T13" s="57"/>
       <c r="U13" s="38"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="56" t="s">
+      <c r="V13" s="38"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X13" s="39"/>
-    </row>
-    <row r="14" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="97" t="s">
+      <c r="Y13" s="39"/>
+    </row>
+    <row r="14" spans="2:25" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="C14" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="F14" s="71" t="s">
         <v>339</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="G14" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="H14" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="56"/>
+      <c r="J14" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="J14" s="70"/>
       <c r="K14" s="70"/>
-      <c r="L14" s="56">
+      <c r="L14" s="70"/>
+      <c r="M14" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M14" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A14,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N14" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B14,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.257806052468804</v>
       </c>
-      <c r="N14" s="119">
+      <c r="O14" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="52" t="s">
+      <c r="P14" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="P14" s="50" t="s">
+      <c r="Q14" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="57"/>
+      <c r="R14" s="38"/>
       <c r="S14" s="57"/>
-      <c r="T14" s="38"/>
+      <c r="T14" s="57"/>
       <c r="U14" s="38"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="56" t="s">
+      <c r="V14" s="38"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X14" s="39"/>
-    </row>
-    <row r="15" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="203" t="s">
+      <c r="Y14" s="39"/>
+    </row>
+    <row r="15" spans="2:25" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="C15" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="D15" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="E15" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="F15" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="G15" s="67" t="s">
         <v>346</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="H15" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H15" s="56"/>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
-      <c r="L15" s="56">
+      <c r="L15" s="56"/>
+      <c r="M15" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M15" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A15,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N15" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B15,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.20651308422921399</v>
       </c>
-      <c r="N15" s="119">
+      <c r="O15" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="52" t="s">
+      <c r="P15" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="P15" s="50" t="s">
+      <c r="Q15" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="57"/>
+      <c r="R15" s="38"/>
       <c r="S15" s="57"/>
-      <c r="T15" s="38"/>
+      <c r="T15" s="57"/>
       <c r="U15" s="38"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="56" t="s">
+      <c r="V15" s="38"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X15" s="39"/>
-    </row>
-    <row r="16" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="Y15" s="39"/>
+    </row>
+    <row r="16" spans="2:25" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="C16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="D16" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="E16" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="F16" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="G16" s="67" t="s">
         <v>346</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="H16" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
-      <c r="L16" s="56">
+      <c r="L16" s="56"/>
+      <c r="M16" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M16" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A16,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N16" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B16,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.17397806200301699</v>
       </c>
-      <c r="N16" s="119">
+      <c r="O16" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="52" t="s">
+      <c r="P16" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="P16" s="50" t="s">
+      <c r="Q16" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="57"/>
+      <c r="R16" s="38"/>
       <c r="S16" s="57"/>
-      <c r="T16" s="38"/>
+      <c r="T16" s="57"/>
       <c r="U16" s="38"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="56" t="s">
+      <c r="V16" s="38"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X16" s="39"/>
-    </row>
-    <row r="17" spans="1:24" ht="180" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="115" t="s">
+      <c r="Y16" s="39"/>
+    </row>
+    <row r="17" spans="1:25" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="C17" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="D17" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="E17" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="F17" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="F17" s="85" t="s">
+      <c r="G17" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="H17" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="I17" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="J17" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="70" t="s">
+      <c r="K17" s="46"/>
+      <c r="L17" s="70" t="s">
         <v>335</v>
       </c>
-      <c r="L17" s="56">
+      <c r="M17" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M17" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A17,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N17" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B17,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>1.4259907978300901E-2</v>
       </c>
-      <c r="N17" s="119">
+      <c r="O17" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O17" s="52" t="s">
+      <c r="P17" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="P17" s="43" t="s">
+      <c r="Q17" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="57"/>
+      <c r="R17" s="38"/>
       <c r="S17" s="57"/>
-      <c r="T17" s="38"/>
+      <c r="T17" s="57"/>
       <c r="U17" s="38"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="56" t="s">
+      <c r="V17" s="38"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X17" s="39"/>
-    </row>
-    <row r="18" spans="1:24" ht="180" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="112" t="s">
+      <c r="Y17" s="39"/>
+    </row>
+    <row r="18" spans="1:25" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="C18" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="59"/>
+      <c r="E18" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="F18" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="F18" s="85" t="s">
+      <c r="G18" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="H18" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H18" s="56"/>
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
-      <c r="L18" s="56">
+      <c r="L18" s="56"/>
+      <c r="M18" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M18" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A18,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N18" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B18,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.17345339788722899</v>
       </c>
-      <c r="N18" s="119">
+      <c r="O18" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="52" t="s">
+      <c r="P18" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="P18" s="50" t="s">
+      <c r="Q18" s="50" t="s">
         <v>375</v>
       </c>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="57"/>
+      <c r="R18" s="38"/>
       <c r="S18" s="57"/>
-      <c r="T18" s="38"/>
+      <c r="T18" s="57"/>
       <c r="U18" s="38"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="56" t="s">
+      <c r="V18" s="38"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X18" s="39"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="115" t="s">
+      <c r="Y18" s="39"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="C19" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="D19" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="105"/>
+      <c r="G19" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="G19" s="56"/>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
-      <c r="L19" s="56">
+      <c r="L19" s="56"/>
+      <c r="M19" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A19,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N19" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B19,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>4.84589623971209E-2</v>
       </c>
-      <c r="N19" s="119">
+      <c r="O19" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O19" s="59"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="57"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="38"/>
       <c r="S19" s="57"/>
-      <c r="T19" s="38"/>
+      <c r="T19" s="57"/>
       <c r="U19" s="38"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="56" t="s">
+      <c r="V19" s="38"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X19" s="39"/>
-    </row>
-    <row r="20" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="115" t="s">
+      <c r="Y19" s="39"/>
+    </row>
+    <row r="20" spans="1:25" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="C20" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="59"/>
+      <c r="E20" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="F20" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="G20" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="56"/>
+      <c r="I20" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="I20" s="56"/>
-      <c r="J20" s="70" t="s">
+      <c r="J20" s="56"/>
+      <c r="K20" s="70" t="s">
         <v>379</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="56">
+      <c r="L20" s="70"/>
+      <c r="M20" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A20,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N20" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B20,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.10102084939889</v>
       </c>
-      <c r="N20" s="119">
+      <c r="O20" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O20" s="52" t="s">
+      <c r="P20" s="52" t="s">
         <v>380</v>
       </c>
-      <c r="P20" s="43" t="s">
+      <c r="Q20" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="57"/>
+      <c r="R20" s="38"/>
       <c r="S20" s="57"/>
-      <c r="T20" s="38"/>
+      <c r="T20" s="57"/>
       <c r="U20" s="38"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="56" t="s">
+      <c r="V20" s="38"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X20" s="39"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="115" t="s">
+      <c r="Y20" s="39"/>
+    </row>
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="C21" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="D21" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="E21" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="F21" s="71" t="s">
         <v>339</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="G21" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="H21" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56" t="s">
+      <c r="I21" s="56"/>
+      <c r="J21" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="J21" s="56"/>
       <c r="K21" s="56"/>
-      <c r="L21" s="56">
+      <c r="L21" s="56"/>
+      <c r="M21" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M21" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A21,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N21" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B21,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>7.3985104711494998E-2</v>
       </c>
-      <c r="N21" s="119">
+      <c r="O21" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O21" s="59"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="57"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="38"/>
       <c r="S21" s="57"/>
-      <c r="T21" s="38"/>
+      <c r="T21" s="57"/>
       <c r="U21" s="38"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="56" t="s">
+      <c r="V21" s="38"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X21" s="39"/>
-    </row>
-    <row r="22" spans="1:24" ht="162" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="115" t="s">
+      <c r="Y21" s="39"/>
+    </row>
+    <row r="22" spans="1:25" ht="162" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="74"/>
+      <c r="B22" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="C22" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="D22" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="E22" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="F22" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="G22" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="H22" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="I22" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
-      <c r="L22" s="56">
+      <c r="L22" s="56"/>
+      <c r="M22" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M22" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A22,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N22" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B22,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.123364849749515</v>
       </c>
-      <c r="N22" s="119">
+      <c r="O22" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="52" t="s">
+      <c r="P22" s="52" t="s">
         <v>383</v>
       </c>
-      <c r="P22" s="50" t="s">
+      <c r="Q22" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="57"/>
+      <c r="R22" s="38"/>
       <c r="S22" s="57"/>
-      <c r="T22" s="38"/>
+      <c r="T22" s="57"/>
       <c r="U22" s="38"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="56" t="s">
+      <c r="V22" s="38"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X22" s="39"/>
-    </row>
-    <row r="23" spans="1:24" ht="180" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="115" t="s">
+      <c r="Y22" s="39"/>
+    </row>
+    <row r="23" spans="1:25" ht="180" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="C23" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="F23" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="G23" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="H23" s="56" t="s">
         <v>385</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="46"/>
+      <c r="J23" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="J23" s="46" t="s">
+      <c r="K23" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="K23" s="70"/>
-      <c r="L23" s="56">
+      <c r="L23" s="70"/>
+      <c r="M23" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M23" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A23,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N23" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B23,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.119703639265527</v>
       </c>
-      <c r="N23" s="119">
+      <c r="O23" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O23" s="52" t="s">
+      <c r="P23" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="P23" s="43" t="s">
+      <c r="Q23" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="57"/>
+      <c r="R23" s="38"/>
       <c r="S23" s="57"/>
-      <c r="T23" s="38"/>
+      <c r="T23" s="57"/>
       <c r="U23" s="38"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="56" t="s">
+      <c r="V23" s="38"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X23" s="39"/>
-    </row>
-    <row r="24" spans="1:24" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="116" t="s">
+      <c r="Y23" s="39"/>
+    </row>
+    <row r="24" spans="1:25" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="117" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="C24" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="59"/>
+      <c r="E24" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="49"/>
+      <c r="G24" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="H24" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H24" s="56"/>
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
-      <c r="L24" s="56">
+      <c r="L24" s="56"/>
+      <c r="M24" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M24" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A24,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N24" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B24,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>3.1609393246290599E-2</v>
       </c>
-      <c r="N24" s="119">
+      <c r="O24" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O24" s="52" t="s">
+      <c r="P24" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="P24" s="50" t="s">
+      <c r="Q24" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="57"/>
+      <c r="R24" s="38"/>
       <c r="S24" s="57"/>
-      <c r="T24" s="38"/>
+      <c r="T24" s="57"/>
       <c r="U24" s="38"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="56" t="s">
+      <c r="V24" s="38"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X24" s="39"/>
-    </row>
-    <row r="25" spans="1:24" ht="126" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="115" t="s">
+      <c r="Y24" s="39"/>
+    </row>
+    <row r="25" spans="1:25" ht="126" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="C25" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="D25" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="E25" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="F25" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="G25" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="G25" s="56"/>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
-      <c r="L25" s="56">
+      <c r="L25" s="56"/>
+      <c r="M25" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A25,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N25" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B25,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>6.3984989901114495E-2</v>
       </c>
-      <c r="N25" s="119">
+      <c r="O25" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O25" s="52" t="s">
+      <c r="P25" s="52" t="s">
         <v>390</v>
       </c>
-      <c r="P25" s="43" t="s">
+      <c r="Q25" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="57"/>
+      <c r="R25" s="38"/>
       <c r="S25" s="57"/>
-      <c r="T25" s="38"/>
+      <c r="T25" s="57"/>
       <c r="U25" s="38"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="56" t="s">
+      <c r="V25" s="38"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X25" s="39"/>
-    </row>
-    <row r="26" spans="1:24" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="97" t="s">
+      <c r="Y25" s="39"/>
+    </row>
+    <row r="26" spans="1:25" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="C26" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="59"/>
+      <c r="E26" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="F26" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="G26" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="H26" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="I26" s="46" t="s">
         <v>392</v>
       </c>
-      <c r="I26" s="56"/>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
-      <c r="L26" s="56">
+      <c r="L26" s="56"/>
+      <c r="M26" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M26" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A26,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N26" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B26,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.27207391566460598</v>
       </c>
-      <c r="N26" s="119">
+      <c r="O26" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O26" s="52" t="s">
+      <c r="P26" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="P26" s="43" t="s">
+      <c r="Q26" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="57"/>
+      <c r="R26" s="38"/>
       <c r="S26" s="57"/>
-      <c r="T26" s="38"/>
+      <c r="T26" s="57"/>
       <c r="U26" s="38"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="56" t="s">
+      <c r="V26" s="38"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X26" s="39"/>
-    </row>
-    <row r="27" spans="1:24" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="113" t="s">
+      <c r="Y26" s="39"/>
+    </row>
+    <row r="27" spans="1:25" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="C27" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="86" t="s">
+      <c r="F27" s="73"/>
+      <c r="G27" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="H27" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="56"/>
-      <c r="K27" s="56" t="s">
+      <c r="K27" s="56"/>
+      <c r="L27" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="L27" s="56">
+      <c r="M27" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M27" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A27,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N27" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B27,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.27958578158757502</v>
       </c>
-      <c r="N27" s="119">
+      <c r="O27" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O27" s="52" t="s">
+      <c r="P27" s="52" t="s">
         <v>395</v>
       </c>
-      <c r="P27" s="50" t="s">
+      <c r="Q27" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="57"/>
+      <c r="R27" s="38"/>
       <c r="S27" s="57"/>
-      <c r="T27" s="38"/>
+      <c r="T27" s="57"/>
       <c r="U27" s="38"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="56" t="s">
+      <c r="V27" s="38"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X27" s="39"/>
-    </row>
-    <row r="28" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="117" t="s">
+      <c r="Y27" s="39"/>
+    </row>
+    <row r="28" spans="1:25" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="C28" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="59"/>
+      <c r="E28" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="F28" s="86" t="s">
+      <c r="G28" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G28" s="56"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="56"/>
       <c r="K28" s="56"/>
-      <c r="L28" s="56">
+      <c r="L28" s="56"/>
+      <c r="M28" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A28,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N28" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B28,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.128388441311648</v>
       </c>
-      <c r="N28" s="119">
+      <c r="O28" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O28" s="52" t="s">
+      <c r="P28" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="57"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="38"/>
       <c r="S28" s="57"/>
-      <c r="T28" s="38"/>
+      <c r="T28" s="57"/>
       <c r="U28" s="38"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="56" t="s">
+      <c r="V28" s="38"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X28" s="39"/>
-    </row>
-    <row r="29" spans="1:24" ht="126" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="115" t="s">
+      <c r="Y28" s="39"/>
+    </row>
+    <row r="29" spans="1:25" ht="126" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="C29" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="59"/>
+      <c r="E29" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="F29" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="G29" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="H29" s="56" t="s">
         <v>385</v>
       </c>
-      <c r="H29" s="56" t="s">
+      <c r="I29" s="56" t="s">
         <v>398</v>
       </c>
-      <c r="I29" s="56" t="s">
+      <c r="J29" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="J29" s="70" t="s">
+      <c r="K29" s="70" t="s">
         <v>399</v>
       </c>
-      <c r="K29" s="70"/>
-      <c r="L29" s="56">
+      <c r="L29" s="70"/>
+      <c r="M29" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M29" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A29,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N29" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B29,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.13143319136391099</v>
       </c>
-      <c r="N29" s="119">
+      <c r="O29" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O29" s="52" t="s">
+      <c r="P29" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="P29" s="43" t="s">
+      <c r="Q29" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="57"/>
+      <c r="R29" s="38"/>
       <c r="S29" s="57"/>
-      <c r="T29" s="38"/>
+      <c r="T29" s="57"/>
       <c r="U29" s="38"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="56" t="s">
+      <c r="V29" s="38"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X29" s="39"/>
-    </row>
-    <row r="30" spans="1:24" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="115" t="s">
+      <c r="Y29" s="39"/>
+    </row>
+    <row r="30" spans="1:25" ht="144" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="C30" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="59"/>
+      <c r="E30" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="F30" s="71" t="s">
         <v>402</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="G30" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="56"/>
+      <c r="I30" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="I30" s="103" t="s">
+      <c r="J30" s="104" t="s">
         <v>342</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="K30" s="46" t="s">
         <v>404</v>
       </c>
-      <c r="K30" s="70"/>
-      <c r="L30" s="56">
+      <c r="L30" s="70"/>
+      <c r="M30" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M30" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A30,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N30" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B30,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.103467287703372</v>
       </c>
-      <c r="N30" s="119">
+      <c r="O30" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O30" s="52" t="s">
+      <c r="P30" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="P30" s="43" t="s">
+      <c r="Q30" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="R30" s="38">
         <v>44825</v>
       </c>
-      <c r="R30" s="204">
+      <c r="S30" s="205">
         <v>22122557.629999999</v>
       </c>
-      <c r="S30" s="204">
+      <c r="T30" s="205">
         <v>-228945.61</v>
       </c>
-      <c r="T30" s="38">
+      <c r="U30" s="38">
         <v>44743</v>
       </c>
-      <c r="U30" s="38">
+      <c r="V30" s="38">
         <v>44926</v>
       </c>
-      <c r="V30" s="55" t="s">
+      <c r="W30" s="55" t="s">
         <v>407</v>
       </c>
-      <c r="W30" s="56" t="s">
+      <c r="X30" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="X30" s="39" t="s">
+      <c r="Y30" s="39" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="115" t="s">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="C31" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="59"/>
+      <c r="E31" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="F31" s="86" t="s">
+      <c r="G31" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G31" s="56"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
       <c r="K31" s="56"/>
-      <c r="L31" s="56">
+      <c r="L31" s="56"/>
+      <c r="M31" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A31,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N31" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B31,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.10941211467591599</v>
       </c>
-      <c r="N31" s="119">
+      <c r="O31" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O31" s="84" t="s">
+      <c r="P31" s="85" t="s">
         <v>409</v>
       </c>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="57"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="38"/>
       <c r="S31" s="57"/>
-      <c r="T31" s="38"/>
+      <c r="T31" s="57"/>
       <c r="U31" s="38"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="56" t="s">
+      <c r="V31" s="38"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X31" s="39"/>
-    </row>
-    <row r="32" spans="1:24" ht="132.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="97" t="s">
+      <c r="Y31" s="39"/>
+    </row>
+    <row r="32" spans="1:25" ht="132.6" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="C32" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="59"/>
+      <c r="E32" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="F32" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="G32" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="H32" s="56" t="s">
         <v>385</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="I32" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="I32" s="103" t="s">
+      <c r="J32" s="104" t="s">
         <v>342</v>
       </c>
-      <c r="J32" s="46" t="s">
+      <c r="K32" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="K32" s="70"/>
-      <c r="L32" s="56">
+      <c r="L32" s="70"/>
+      <c r="M32" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M32" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A32,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N32" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B32,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.24734873067225799</v>
       </c>
-      <c r="N32" s="119">
+      <c r="O32" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O32" s="52" t="s">
+      <c r="P32" s="52" t="s">
         <v>412</v>
       </c>
-      <c r="P32" s="50" t="s">
+      <c r="Q32" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="57"/>
+      <c r="R32" s="38"/>
       <c r="S32" s="57"/>
-      <c r="T32" s="38"/>
+      <c r="T32" s="57"/>
       <c r="U32" s="38"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="56" t="s">
+      <c r="V32" s="38"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X32" s="39"/>
-    </row>
-    <row r="33" spans="1:24" ht="192.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="212" t="s">
+      <c r="Y32" s="39"/>
+    </row>
+    <row r="33" spans="2:25" ht="192.95" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="C33" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="59"/>
+      <c r="E33" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="105"/>
+      <c r="G33" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="H33" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H33" s="56" t="s">
+      <c r="I33" s="56" t="s">
         <v>413</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="J33" s="56" t="s">
         <v>414</v>
       </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="56">
+      <c r="K33" s="46"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M33" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A33,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N33" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B33,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.27185203858760698</v>
       </c>
-      <c r="N33" s="119">
+      <c r="O33" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O33" s="52" t="s">
+      <c r="P33" s="52" t="s">
         <v>415</v>
       </c>
-      <c r="P33" s="43" t="s">
+      <c r="Q33" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="57"/>
+      <c r="R33" s="38"/>
       <c r="S33" s="57"/>
-      <c r="T33" s="38"/>
+      <c r="T33" s="57"/>
       <c r="U33" s="38"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="56" t="s">
+      <c r="V33" s="38"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X33" s="39"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="115" t="s">
+      <c r="Y33" s="39"/>
+    </row>
+    <row r="34" spans="2:25" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="C34" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="59"/>
+      <c r="E34" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="86" t="s">
+      <c r="F34" s="49"/>
+      <c r="G34" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G34" s="56"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="56">
+      <c r="L34" s="56"/>
+      <c r="M34" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A34,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N34" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B34,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>1.5182845389339301E-2</v>
       </c>
-      <c r="N34" s="119">
+      <c r="O34" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O34" s="52" t="s">
+      <c r="P34" s="52" t="s">
         <v>416</v>
       </c>
-      <c r="P34" s="48" t="s">
+      <c r="Q34" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="57"/>
+      <c r="R34" s="38"/>
       <c r="S34" s="57"/>
-      <c r="T34" s="38"/>
+      <c r="T34" s="57"/>
       <c r="U34" s="38"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="56" t="s">
+      <c r="V34" s="38"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="X34" s="39"/>
-    </row>
-    <row r="35" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="210" t="s">
+      <c r="Y34" s="39"/>
+    </row>
+    <row r="35" spans="2:25" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="211" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="C35" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="91"/>
+      <c r="E35" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="F35" s="71" t="s">
         <v>339</v>
       </c>
-      <c r="F35" s="213" t="s">
+      <c r="G35" s="214" t="s">
         <v>346</v>
       </c>
-      <c r="G35" s="214" t="s">
+      <c r="H35" s="215" t="s">
         <v>385</v>
       </c>
-      <c r="H35" s="56" t="s">
+      <c r="I35" s="56" t="s">
         <v>418</v>
       </c>
-      <c r="I35" s="64" t="s">
+      <c r="J35" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="J35" s="64"/>
       <c r="K35" s="64"/>
-      <c r="L35" s="64">
+      <c r="L35" s="64"/>
+      <c r="M35" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="99">
-        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(A35,'Data Reference'!$A$2:$A$220, 0))</f>
+      <c r="N35" s="100">
+        <f>INDEX('Data Reference'!$B$2:$B$220,MATCH(B35,'Data Reference'!$A$2:$A$220, 0))</f>
         <v>0.29375833437364202</v>
       </c>
-      <c r="N35" s="119">
+      <c r="O35" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O35" s="72" t="s">
+      <c r="P35" s="72" t="s">
         <v>419</v>
       </c>
-      <c r="P35" s="215"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="65"/>
+      <c r="Q35" s="216"/>
+      <c r="R35" s="44"/>
       <c r="S35" s="65"/>
-      <c r="T35" s="44"/>
+      <c r="T35" s="65"/>
       <c r="U35" s="44"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="64" t="s">
+      <c r="V35" s="44"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="X35" s="45"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="89"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" s="89"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" s="89"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="89"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="76" t="s">
+      <c r="Y35" s="45"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="90"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="90"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" s="90"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" s="90"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" s="77" t="s">
         <v>420</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="76"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="77" t="s">
+      <c r="D40" s="92"/>
+      <c r="E40" s="77"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="76"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="71" t="s">
+      <c r="D41" s="93"/>
+      <c r="E41" s="77"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="73"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="78" t="s">
+      <c r="D42" s="95"/>
+      <c r="E42" s="73"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="79" t="s">
         <v>329</v>
       </c>
-      <c r="C43" s="93"/>
-      <c r="D43" s="73"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="79" t="s">
+      <c r="D43" s="94"/>
+      <c r="E43" s="73"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" s="80" t="s">
         <v>421</v>
       </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="73"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="73"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="73"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="76" t="s">
+      <c r="D44" s="95"/>
+      <c r="E44" s="73"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="73"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="73"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" s="77" t="s">
         <v>422</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="76"/>
-    </row>
-    <row r="47" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="73" t="s">
+      <c r="D46" s="92"/>
+      <c r="E46" s="77"/>
+    </row>
+    <row r="47" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="73"/>
-    </row>
-    <row r="48" spans="1:24" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="73" t="s">
+      <c r="D47" s="96"/>
+      <c r="E47" s="73"/>
+    </row>
+    <row r="48" spans="2:25" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="73" t="s">
         <v>339</v>
       </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="73" t="s">
+      <c r="D48" s="96"/>
+      <c r="E48" s="73" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="73" t="s">
+    <row r="49" spans="3:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="C49" s="95"/>
-      <c r="D49" s="73" t="s">
+      <c r="D49" s="96"/>
+      <c r="E49" s="73" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="73" t="s">
+    <row r="50" spans="3:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" s="73" t="s">
         <v>402</v>
       </c>
-      <c r="C50" s="95"/>
-      <c r="D50" s="73" t="s">
+      <c r="D50" s="96"/>
+      <c r="E50" s="73" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="73"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="73"/>
-    </row>
-    <row r="52" spans="2:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="73"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="73"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="73"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="73"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" s="80"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" s="80"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C56" s="80"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="80" t="s">
+    <row r="51" spans="3:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" s="73"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="73"/>
+    </row>
+    <row r="52" spans="3:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" s="73"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="73"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" s="73"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="73"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54" s="81"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" s="81"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" s="81"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" s="81" t="s">
         <v>426</v>
       </c>
-      <c r="C57" s="80"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="81" t="s">
+      <c r="D57" s="81"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" s="82" t="s">
         <v>385</v>
       </c>
-      <c r="C58" s="80"/>
-    </row>
-    <row r="59" spans="2:4" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="82" t="s">
+      <c r="D58" s="81"/>
+    </row>
+    <row r="59" spans="3:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" s="83" t="s">
         <v>342</v>
       </c>
-      <c r="C59" s="80"/>
-    </row>
-    <row r="60" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="83" t="s">
+      <c r="D59" s="81"/>
+    </row>
+    <row r="60" spans="3:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="C60" s="80"/>
-    </row>
-    <row r="61" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="88" t="s">
+      <c r="D60" s="81"/>
+    </row>
+    <row r="61" spans="3:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" s="89" t="s">
         <v>335</v>
       </c>
-      <c r="C61" s="80"/>
-    </row>
-    <row r="62" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="88" t="s">
+      <c r="D61" s="81"/>
+    </row>
+    <row r="62" spans="3:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" s="89" t="s">
         <v>385</v>
       </c>
-      <c r="C62" s="80"/>
-    </row>
-    <row r="63" spans="2:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C63" s="89"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="80" t="s">
+      <c r="D62" s="81"/>
+    </row>
+    <row r="63" spans="3:5" ht="48.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" s="90"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" s="81" t="s">
         <v>427</v>
       </c>
-      <c r="C64" s="80"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="54" t="s">
+      <c r="D64" s="81"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" s="54" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="54" t="s">
+    <row r="66" spans="3:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" s="54" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="54" t="s">
+    <row r="67" spans="3:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" s="54" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="54" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" s="54" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="54" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" s="54" t="s">
         <v>377</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X35" xr:uid="{1A186435-F3E8-415E-AF75-175B7DA327D8}"/>
+  <autoFilter ref="B1:Y35" xr:uid="{1A186435-F3E8-415E-AF75-175B7DA327D8}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="On hold"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y35">
+      <sortCondition ref="B1:B35"/>
+    </sortState>
+  </autoFilter>
   <dataConsolidate/>
-  <conditionalFormatting sqref="V15:V17 V26 V19 V28:V32 V2:V8 V34:V35">
+  <conditionalFormatting sqref="W15:W17 W26 W19 W28:W32 W2:W8 W34:W35">
     <cfRule type="cellIs" dxfId="154" priority="166" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11719,7 +11734,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
+  <conditionalFormatting sqref="W4">
     <cfRule type="cellIs" dxfId="151" priority="163" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11730,7 +11745,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22 V25">
+  <conditionalFormatting sqref="W22 W25">
     <cfRule type="cellIs" dxfId="148" priority="160" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11741,7 +11756,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22 V25">
+  <conditionalFormatting sqref="W22 W25">
     <cfRule type="cellIs" dxfId="145" priority="157" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11752,7 +11767,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V17">
+  <conditionalFormatting sqref="W17">
     <cfRule type="cellIs" dxfId="142" priority="154" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11763,7 +11778,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15">
+  <conditionalFormatting sqref="W15">
     <cfRule type="cellIs" dxfId="139" priority="151" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11774,7 +11789,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V19">
+  <conditionalFormatting sqref="W19">
     <cfRule type="cellIs" dxfId="136" priority="148" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11785,7 +11800,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18">
+  <conditionalFormatting sqref="W18">
     <cfRule type="cellIs" dxfId="133" priority="145" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11796,7 +11811,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V25">
+  <conditionalFormatting sqref="W25">
     <cfRule type="cellIs" dxfId="130" priority="142" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11807,7 +11822,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V25">
+  <conditionalFormatting sqref="W25">
     <cfRule type="cellIs" dxfId="127" priority="139" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11818,7 +11833,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V27">
+  <conditionalFormatting sqref="W27">
     <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11829,7 +11844,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V11">
+  <conditionalFormatting sqref="W11">
     <cfRule type="cellIs" dxfId="121" priority="133" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11840,7 +11855,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V11">
+  <conditionalFormatting sqref="W11">
     <cfRule type="cellIs" dxfId="118" priority="130" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11851,7 +11866,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V31">
+  <conditionalFormatting sqref="W31">
     <cfRule type="cellIs" dxfId="115" priority="127" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11862,7 +11877,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V23">
+  <conditionalFormatting sqref="W23">
     <cfRule type="cellIs" dxfId="112" priority="124" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11873,7 +11888,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V20">
+  <conditionalFormatting sqref="W20">
     <cfRule type="cellIs" dxfId="109" priority="121" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11884,7 +11899,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V21">
+  <conditionalFormatting sqref="W21">
     <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11895,7 +11910,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V35">
+  <conditionalFormatting sqref="W35">
     <cfRule type="cellIs" dxfId="103" priority="115" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11906,7 +11921,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V9">
+  <conditionalFormatting sqref="W9">
     <cfRule type="cellIs" dxfId="100" priority="112" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11917,7 +11932,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10">
+  <conditionalFormatting sqref="W10">
     <cfRule type="cellIs" dxfId="97" priority="109" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11928,7 +11943,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V12">
+  <conditionalFormatting sqref="W12">
     <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11939,7 +11954,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13">
+  <conditionalFormatting sqref="W13">
     <cfRule type="cellIs" dxfId="91" priority="103" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11950,7 +11965,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14">
+  <conditionalFormatting sqref="W14">
     <cfRule type="cellIs" dxfId="88" priority="100" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11961,7 +11976,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V33">
+  <conditionalFormatting sqref="W33">
     <cfRule type="cellIs" dxfId="85" priority="97" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11972,7 +11987,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V24">
+  <conditionalFormatting sqref="W24">
     <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11983,7 +11998,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V24">
+  <conditionalFormatting sqref="W24">
     <cfRule type="cellIs" dxfId="79" priority="91" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -11994,29 +12009,29 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W35">
+  <conditionalFormatting sqref="X2:X35">
     <cfRule type="expression" dxfId="76" priority="90">
       <formula>No</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W35">
+  <conditionalFormatting sqref="X2:X35">
     <cfRule type="containsText" dxfId="75" priority="89" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",W2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2 E24:E25 E12:E13 E34 E6:E7 E17:E19">
+  <conditionalFormatting sqref="F2 F24:F25 F12:F13 F34 F6:F7 F17:F19">
     <cfRule type="containsText" dxfId="74" priority="87" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G4 G24:G35 G6:G22">
+  <conditionalFormatting sqref="H2:H4 H24:H35 H6:H22">
     <cfRule type="cellIs" dxfId="73" priority="86" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D35">
+  <conditionalFormatting sqref="E2:E35">
     <cfRule type="cellIs" dxfId="72" priority="64" operator="equal">
-      <formula>$B$41</formula>
+      <formula>$C$41</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
       <formula>"Complete"</formula>
@@ -12025,25 +12040,25 @@
       <formula>"In progress"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="69" priority="84" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P9 P29:P35 P11:P27 G32:G33 H5 H23 O2:P3 G2:N4 G34:H34 H32 I33:O35 G35 G14:H14 L2:N35 G30:H30 D2:E2 D3:D5 D24:E25 D8:D11 D12:E13 D34:E34 J5:O5 J23:O23 J32:O32 G24:O29 G15:O22 J14:O14 G31:O31 J30:O30 G6:O13 D6:E7 D17:E19 D14:D16 D20:D23 D26:D35">
+  <conditionalFormatting sqref="Q5:Q9 Q29:Q35 Q11:Q27 H32:H33 I5 I23 P2:Q3 H2:O4 H34:I34 I32 J33:P35 H35 H14:I14 M2:O35 H30:I30 E2:F2 E3:E5 E24:F25 E8:E11 E12:F13 E34:F34 K5:P5 K23:P23 K32:P32 H24:P29 H15:P22 K14:P14 H31:P31 K30:P30 H6:P13 E6:F7 E17:F19 E14:E16 E20:E23 E26:E35">
     <cfRule type="containsBlanks" dxfId="68" priority="83">
-      <formula>LEN(TRIM(D2))=0</formula>
+      <formula>LEN(TRIM(E2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
+  <conditionalFormatting sqref="Q19">
     <cfRule type="cellIs" dxfId="67" priority="82" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62">
+  <conditionalFormatting sqref="C60:C62">
     <cfRule type="containsBlanks" dxfId="66" priority="77">
-      <formula>LEN(TRIM(B60))=0</formula>
+      <formula>LEN(TRIM(C60))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="C42">
     <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
@@ -12051,254 +12066,254 @@
       <formula>"In progress"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="63" priority="70" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",B42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",C42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="C42">
     <cfRule type="containsBlanks" dxfId="62" priority="69">
-      <formula>LEN(TRIM(B42))=0</formula>
+      <formula>LEN(TRIM(C42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G35">
+  <conditionalFormatting sqref="H2:H35">
     <cfRule type="cellIs" dxfId="61" priority="169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="60" priority="170" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="59" priority="171" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="172" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="57" priority="173" operator="equal">
-      <formula>$B$59</formula>
+      <formula>$C$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="56" priority="174" operator="equal">
-      <formula>$B$58</formula>
+      <formula>$C$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="H5">
     <cfRule type="containsBlanks" dxfId="55" priority="56">
-      <formula>LEN(TRIM(G5))=0</formula>
+      <formula>LEN(TRIM(H5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
-      <formula>$B$59</formula>
+      <formula>$C$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
-      <formula>$B$58</formula>
+      <formula>$C$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="J23">
     <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="51" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="45" priority="52" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="43" priority="54" operator="equal">
-      <formula>$B$59</formula>
+      <formula>$C$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="55" operator="equal">
-      <formula>$B$58</formula>
+      <formula>$C$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F35">
+  <conditionalFormatting sqref="G2:G35">
     <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
-      <formula>$B$39</formula>
+      <formula>$C$39</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="I33">
     <cfRule type="containsBlanks" dxfId="40" priority="46">
-      <formula>LEN(TRIM(H33))=0</formula>
+      <formula>LEN(TRIM(I33))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="J10">
     <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="J10">
     <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="44" operator="equal">
-      <formula>$B$59</formula>
+      <formula>$C$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
-      <formula>$B$58</formula>
+      <formula>$C$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="I35">
     <cfRule type="containsBlanks" dxfId="32" priority="38">
-      <formula>LEN(TRIM(H35))=0</formula>
+      <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="J17">
     <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="J17">
     <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
-      <formula>$B$59</formula>
+      <formula>$C$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
-      <formula>$B$58</formula>
+      <formula>$C$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="J14">
     <cfRule type="containsBlanks" dxfId="23" priority="17">
-      <formula>LEN(TRIM(I14))=0</formula>
+      <formula>LEN(TRIM(J14))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
-      <formula>$B$59</formula>
+      <formula>$C$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
-      <formula>$B$58</formula>
+      <formula>$C$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="L9">
     <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="L9">
     <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
-      <formula>$B$59</formula>
+      <formula>$C$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>$B$58</formula>
+      <formula>$C$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
+  <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
+  <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>$B$60</formula>
+      <formula>$C$60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>$B$59</formula>
+      <formula>$C$59</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>$B$58</formula>
+      <formula>$C$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22 E9:E10">
+  <conditionalFormatting sqref="F22 F9:F10">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",E9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22 E9:E10">
+  <conditionalFormatting sqref="F22 F9:F10">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(E9))=0</formula>
+      <formula>LEN(TRIM(F9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W35 P19" xr:uid="{B7A8975D-CB84-425B-8A6F-95987CF249BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X35 Q19" xr:uid="{B7A8975D-CB84-425B-8A6F-95987CF249BC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D35" xr:uid="{16FF1F92-0DCB-4700-AEDD-B4D1B4D0DA6F}">
-      <formula1>$B$41:$B$44</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35" xr:uid="{16FF1F92-0DCB-4700-AEDD-B4D1B4D0DA6F}">
+      <formula1>$C$41:$C$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I23 I10 G2:G35 I17 I14 I8" xr:uid="{77E1CF57-F98E-469D-9A79-8E9013ADF3DA}">
-      <formula1>$B$58:$B$60</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J8 J14 J17 H2:H35 J10 J23" xr:uid="{77E1CF57-F98E-469D-9A79-8E9013ADF3DA}">
+      <formula1>$C$58:$C$60</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35" xr:uid="{2D1D7843-7087-49EA-92ED-E28CAA0086D4}">
-      <formula1>$B$65:$B$69</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G35" xr:uid="{2D1D7843-7087-49EA-92ED-E28CAA0086D4}">
+      <formula1>$C$65:$C$69</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35" xr:uid="{7A5FC86F-CF90-4DB9-A7BB-16619C3427D5}">
-      <formula1>$B$47:$B$50</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35" xr:uid="{7A5FC86F-CF90-4DB9-A7BB-16619C3427D5}">
+      <formula1>$C$47:$C$50</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12311,1361 +12326,1361 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="4" width="26.3984375" customWidth="1"/>
+    <col min="3" max="4" width="26.3984375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="37.1328125" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="28.59765625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="31.1328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.59765625" customWidth="1"/>
     <col min="9" max="9" width="33.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47" style="120" customWidth="1"/>
+    <col min="11" max="11" width="47" style="121" customWidth="1"/>
     <col min="12" max="12" width="45.3984375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="34.86328125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="23.86328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="96" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:14" s="97" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="123" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="124" t="s">
         <v>309</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="122" t="s">
         <v>430</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="122" t="s">
         <v>431</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="G1" s="122" t="s">
         <v>432</v>
       </c>
-      <c r="H1" s="121" t="s">
+      <c r="H1" s="122" t="s">
         <v>433</v>
       </c>
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="122" t="s">
         <v>434</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="122" t="s">
         <v>435</v>
       </c>
-      <c r="K1" s="121" t="s">
+      <c r="K1" s="122" t="s">
         <v>320</v>
       </c>
-      <c r="L1" s="122" t="s">
+      <c r="L1" s="123" t="s">
         <v>436</v>
       </c>
-      <c r="M1" s="124" t="s">
+      <c r="M1" s="125" t="s">
         <v>437</v>
       </c>
-      <c r="N1" s="124" t="s">
+      <c r="N1" s="125" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A2" s="126" t="s">
+    <row r="2" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A2" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="126" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="127" t="s">
         <v>440</v>
       </c>
-      <c r="F2" s="126"/>
-      <c r="G2" s="141" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="142" t="s">
         <v>441</v>
       </c>
-      <c r="H2" s="135" t="s">
+      <c r="H2" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I2" s="146" t="s">
+      <c r="I2" s="147" t="s">
         <v>442</v>
       </c>
-      <c r="J2" s="142" t="s">
+      <c r="J2" s="143" t="s">
         <v>441</v>
       </c>
-      <c r="K2" s="136" t="s">
+      <c r="K2" s="137" t="s">
         <v>443</v>
       </c>
-      <c r="L2" s="126">
+      <c r="L2" s="127">
         <f>IFERROR(MATCH(A2, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
-      <c r="N2" s="132"/>
-    </row>
-    <row r="3" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A3" s="126" t="s">
+      <c r="M2" s="128"/>
+      <c r="N2" s="133"/>
+    </row>
+    <row r="3" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A3" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="138" t="s">
+      <c r="D3" s="129"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="139" t="s">
         <v>445</v>
       </c>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="136" t="s">
         <v>446</v>
       </c>
-      <c r="J3" s="135" t="s">
+      <c r="J3" s="136" t="s">
         <v>445</v>
       </c>
-      <c r="K3" s="144" t="s">
+      <c r="K3" s="145" t="s">
         <v>445</v>
       </c>
-      <c r="L3" s="126">
+      <c r="L3" s="127">
         <f>IFERROR(MATCH(A3, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>4</v>
       </c>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-    </row>
-    <row r="4" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A4" s="126" t="s">
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+    </row>
+    <row r="4" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A4" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="126" t="s">
+      <c r="D4" s="129"/>
+      <c r="E4" s="127" t="s">
         <v>377</v>
       </c>
-      <c r="F4" s="126" t="s">
+      <c r="F4" s="127" t="s">
         <v>377</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="130" t="s">
         <v>447</v>
       </c>
-      <c r="H4" s="130" t="s">
+      <c r="H4" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="I4" s="130" t="s">
+      <c r="I4" s="131" t="s">
         <v>377</v>
       </c>
-      <c r="J4" s="130" t="s">
+      <c r="J4" s="131" t="s">
         <v>377</v>
       </c>
-      <c r="K4" s="131"/>
-      <c r="L4" s="126">
+      <c r="K4" s="132"/>
+      <c r="L4" s="127">
         <f>IFERROR(MATCH(A4, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>5</v>
       </c>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-    </row>
-    <row r="5" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A5" s="126" t="s">
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+    </row>
+    <row r="5" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A5" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="126" t="s">
+      <c r="D5" s="129"/>
+      <c r="E5" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="138" t="s">
         <v>449</v>
       </c>
-      <c r="G5" s="141" t="s">
+      <c r="G5" s="142" t="s">
         <v>441</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I5" s="135" t="s">
+      <c r="I5" s="136" t="s">
         <v>446</v>
       </c>
-      <c r="J5" s="135" t="s">
+      <c r="J5" s="136" t="s">
         <v>334</v>
       </c>
-      <c r="K5" s="136"/>
-      <c r="L5" s="126">
+      <c r="K5" s="137"/>
+      <c r="L5" s="127">
         <f>IFERROR(MATCH(A5, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>7</v>
       </c>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-    </row>
-    <row r="6" spans="1:14" s="133" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="126" t="s">
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+    </row>
+    <row r="6" spans="1:14" s="134" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="126" t="s">
+      <c r="D6" s="129"/>
+      <c r="E6" s="127" t="s">
         <v>450</v>
       </c>
-      <c r="F6" s="126"/>
-      <c r="G6" s="134" t="s">
+      <c r="F6" s="127"/>
+      <c r="G6" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I6" s="135" t="s">
+      <c r="I6" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="J6" s="135" t="s">
+      <c r="J6" s="136" t="s">
         <v>334</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="137" t="s">
         <v>453</v>
       </c>
-      <c r="L6" s="126">
+      <c r="L6" s="127">
         <f>IFERROR(MATCH(A6, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>8</v>
       </c>
-      <c r="M6" s="126"/>
-      <c r="N6" s="140"/>
-    </row>
-    <row r="7" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A7" s="126" t="s">
+      <c r="M6" s="127"/>
+      <c r="N6" s="141"/>
+    </row>
+    <row r="7" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A7" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="126" t="s">
+      <c r="D7" s="129"/>
+      <c r="E7" s="127" t="s">
         <v>454</v>
       </c>
-      <c r="F7" s="126"/>
-      <c r="G7" s="134" t="s">
+      <c r="F7" s="127"/>
+      <c r="G7" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="H7" s="135" t="s">
+      <c r="H7" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="136" t="s">
         <v>455</v>
       </c>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="136" t="s">
         <v>456</v>
       </c>
-      <c r="K7" s="127"/>
-      <c r="L7" s="126">
+      <c r="K7" s="128"/>
+      <c r="L7" s="127">
         <f>IFERROR(MATCH(A7, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>9</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="N7" s="140"/>
-    </row>
-    <row r="8" spans="1:14" s="133" customFormat="1" ht="45" x14ac:dyDescent="0.45">
-      <c r="A8" s="126" t="s">
+      <c r="M7" s="127"/>
+      <c r="N7" s="141"/>
+    </row>
+    <row r="8" spans="1:14" s="134" customFormat="1" ht="45" x14ac:dyDescent="0.45">
+      <c r="A8" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D8" s="128"/>
-      <c r="E8" s="126" t="s">
+      <c r="D8" s="129"/>
+      <c r="E8" s="127" t="s">
         <v>440</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="140" t="s">
         <v>457</v>
       </c>
-      <c r="G8" s="206" t="s">
+      <c r="G8" s="207" t="s">
         <v>458</v>
       </c>
-      <c r="H8" s="209" t="s">
+      <c r="H8" s="210" t="s">
         <v>335</v>
       </c>
-      <c r="I8" s="135" t="s">
+      <c r="I8" s="136" t="s">
         <v>459</v>
       </c>
-      <c r="J8" s="142" t="s">
+      <c r="J8" s="143" t="s">
         <v>441</v>
       </c>
-      <c r="K8" s="143"/>
-      <c r="L8" s="126">
+      <c r="K8" s="144"/>
+      <c r="L8" s="127">
         <f>IFERROR(MATCH(A8, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>11</v>
       </c>
-      <c r="M8" s="127"/>
-      <c r="N8" s="132"/>
-    </row>
-    <row r="9" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A9" s="126" t="s">
+      <c r="M8" s="128"/>
+      <c r="N8" s="133"/>
+    </row>
+    <row r="9" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A9" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="126" t="s">
+      <c r="D9" s="129"/>
+      <c r="E9" s="127" t="s">
         <v>450</v>
       </c>
-      <c r="F9" s="126"/>
-      <c r="G9" s="134" t="s">
+      <c r="F9" s="127"/>
+      <c r="G9" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I9" s="135" t="s">
+      <c r="I9" s="136" t="s">
         <v>446</v>
       </c>
-      <c r="J9" s="135" t="s">
+      <c r="J9" s="136" t="s">
         <v>460</v>
       </c>
-      <c r="K9" s="136" t="s">
+      <c r="K9" s="137" t="s">
         <v>461</v>
       </c>
-      <c r="L9" s="126">
+      <c r="L9" s="127">
         <f>IFERROR(MATCH(A9, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>14</v>
       </c>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-    </row>
-    <row r="10" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A10" s="126" t="s">
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+    </row>
+    <row r="10" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A10" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="126" t="s">
+      <c r="D10" s="129"/>
+      <c r="E10" s="127" t="s">
         <v>462</v>
       </c>
-      <c r="F10" s="126"/>
-      <c r="G10" s="134" t="s">
+      <c r="F10" s="127"/>
+      <c r="G10" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="H10" s="135" t="s">
+      <c r="H10" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I10" s="145" t="s">
+      <c r="I10" s="146" t="s">
         <v>463</v>
       </c>
-      <c r="J10" s="135" t="s">
+      <c r="J10" s="136" t="s">
         <v>334</v>
       </c>
-      <c r="K10" s="136"/>
-      <c r="L10" s="126">
+      <c r="K10" s="137"/>
+      <c r="L10" s="127">
         <f>IFERROR(MATCH(A10, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>13</v>
       </c>
-      <c r="M10" s="127" t="s">
+      <c r="M10" s="128" t="s">
         <v>464</v>
       </c>
-      <c r="N10" s="132" t="s">
+      <c r="N10" s="133" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A11" s="126" t="s">
+    <row r="11" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A11" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="138" t="s">
+      <c r="D11" s="129"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="139" t="s">
         <v>445</v>
       </c>
-      <c r="H11" s="135" t="s">
+      <c r="H11" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I11" s="135" t="s">
+      <c r="I11" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="J11" s="135" t="s">
+      <c r="J11" s="136" t="s">
         <v>445</v>
       </c>
-      <c r="K11" s="127"/>
-      <c r="L11" s="126">
+      <c r="K11" s="128"/>
+      <c r="L11" s="127">
         <f>IFERROR(MATCH(A11, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>16</v>
       </c>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-    </row>
-    <row r="12" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A12" s="126" t="s">
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+    </row>
+    <row r="12" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A12" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="126" t="s">
+      <c r="D12" s="129"/>
+      <c r="E12" s="127" t="s">
         <v>377</v>
       </c>
-      <c r="F12" s="126" t="s">
+      <c r="F12" s="127" t="s">
         <v>377</v>
       </c>
-      <c r="G12" s="138" t="s">
+      <c r="G12" s="139" t="s">
         <v>445</v>
       </c>
-      <c r="H12" s="130" t="s">
+      <c r="H12" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="I12" s="130" t="s">
+      <c r="I12" s="131" t="s">
         <v>377</v>
       </c>
-      <c r="J12" s="130" t="s">
+      <c r="J12" s="131" t="s">
         <v>377</v>
       </c>
-      <c r="K12" s="131"/>
-      <c r="L12" s="126" t="str">
+      <c r="K12" s="132"/>
+      <c r="L12" s="127" t="str">
         <f>IFERROR(MATCH(A12, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>No</v>
       </c>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-    </row>
-    <row r="13" spans="1:14" s="133" customFormat="1" ht="105" x14ac:dyDescent="0.45">
-      <c r="A13" s="126" t="s">
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+    </row>
+    <row r="13" spans="1:14" s="134" customFormat="1" ht="105" x14ac:dyDescent="0.45">
+      <c r="A13" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="126" t="s">
+      <c r="D13" s="129"/>
+      <c r="E13" s="127" t="s">
         <v>454</v>
       </c>
-      <c r="F13" s="137"/>
-      <c r="G13" s="134" t="s">
+      <c r="F13" s="138"/>
+      <c r="G13" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="H13" s="135" t="s">
+      <c r="H13" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I13" s="135" t="s">
+      <c r="I13" s="136" t="s">
         <v>446</v>
       </c>
-      <c r="J13" s="135" t="s">
+      <c r="J13" s="136" t="s">
         <v>445</v>
       </c>
-      <c r="K13" s="127" t="s">
+      <c r="K13" s="128" t="s">
         <v>467</v>
       </c>
-      <c r="L13" s="126">
+      <c r="L13" s="127">
         <f>IFERROR(MATCH(A13, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>18</v>
       </c>
-      <c r="M13" s="126" t="s">
+      <c r="M13" s="127" t="s">
         <v>468</v>
       </c>
-      <c r="N13" s="140" t="s">
+      <c r="N13" s="141" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A14" s="126" t="s">
+    <row r="14" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A14" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D14" s="128" t="s">
+      <c r="D14" s="129" t="s">
         <v>470</v>
       </c>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="205" t="s">
+      <c r="F14" s="127"/>
+      <c r="G14" s="206" t="s">
         <v>471</v>
       </c>
-      <c r="H14" s="135" t="s">
+      <c r="H14" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I14" s="135" t="s">
+      <c r="I14" s="136" t="s">
         <v>472</v>
       </c>
-      <c r="J14" s="135" t="s">
+      <c r="J14" s="136" t="s">
         <v>334</v>
       </c>
-      <c r="K14" s="127"/>
-      <c r="L14" s="126">
+      <c r="K14" s="128"/>
+      <c r="L14" s="127">
         <f>IFERROR(MATCH(A14, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>19</v>
       </c>
-      <c r="M14" s="126" t="s">
+      <c r="M14" s="127" t="s">
         <v>473</v>
       </c>
-      <c r="N14" s="140" t="s">
+      <c r="N14" s="141" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A15" s="126" t="s">
+    <row r="15" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A15" s="127" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="127" t="s">
         <v>476</v>
       </c>
-      <c r="D15" s="128" t="s">
+      <c r="D15" s="129" t="s">
         <v>470</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="F15" s="126"/>
-      <c r="G15" s="205" t="s">
+      <c r="F15" s="127"/>
+      <c r="G15" s="206" t="s">
         <v>471</v>
       </c>
-      <c r="H15" s="135" t="s">
+      <c r="H15" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I15" s="135" t="s">
+      <c r="I15" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="J15" s="135" t="s">
+      <c r="J15" s="136" t="s">
         <v>334</v>
       </c>
-      <c r="K15" s="127"/>
-      <c r="L15" s="126">
+      <c r="K15" s="128"/>
+      <c r="L15" s="127">
         <f>IFERROR(MATCH(A15, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>20</v>
       </c>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-    </row>
-    <row r="16" spans="1:14" s="133" customFormat="1" ht="30.4" x14ac:dyDescent="0.45">
-      <c r="A16" s="126" t="s">
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+    </row>
+    <row r="16" spans="1:14" s="134" customFormat="1" ht="30.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D16" s="128"/>
-      <c r="E16" s="126" t="s">
+      <c r="D16" s="129"/>
+      <c r="E16" s="127" t="s">
         <v>440</v>
       </c>
-      <c r="F16" s="139" t="s">
+      <c r="F16" s="140" t="s">
         <v>477</v>
       </c>
-      <c r="G16" s="134" t="s">
+      <c r="G16" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="H16" s="135" t="s">
+      <c r="H16" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I16" s="145" t="s">
+      <c r="I16" s="146" t="s">
         <v>478</v>
       </c>
-      <c r="J16" s="135" t="s">
+      <c r="J16" s="136" t="s">
         <v>334</v>
       </c>
-      <c r="K16" s="136" t="s">
+      <c r="K16" s="137" t="s">
         <v>479</v>
       </c>
-      <c r="L16" s="126">
+      <c r="L16" s="127">
         <f>IFERROR(MATCH(A16, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>21</v>
       </c>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-    </row>
-    <row r="17" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A17" s="126" t="s">
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+    </row>
+    <row r="17" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A17" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="126" t="s">
+      <c r="D17" s="129"/>
+      <c r="E17" s="127" t="s">
         <v>450</v>
       </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="248" t="s">
+      <c r="F17" s="127"/>
+      <c r="G17" s="249" t="s">
         <v>336</v>
       </c>
-      <c r="H17" s="135" t="s">
+      <c r="H17" s="136" t="s">
         <v>480</v>
       </c>
-      <c r="I17" s="135" t="s">
+      <c r="I17" s="136" t="s">
         <v>446</v>
       </c>
-      <c r="J17" s="135" t="s">
+      <c r="J17" s="136" t="s">
         <v>445</v>
       </c>
-      <c r="K17" s="136" t="s">
+      <c r="K17" s="137" t="s">
         <v>481</v>
       </c>
-      <c r="L17" s="126">
+      <c r="L17" s="127">
         <f>IFERROR(MATCH(A17, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>23</v>
       </c>
-      <c r="M17" s="126"/>
-      <c r="N17" s="126"/>
-    </row>
-    <row r="18" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A18" s="126" t="s">
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+    </row>
+    <row r="18" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A18" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="138" t="s">
+      <c r="D18" s="129"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="139" t="s">
         <v>445</v>
       </c>
-      <c r="H18" s="135" t="s">
+      <c r="H18" s="136" t="s">
         <v>480</v>
       </c>
-      <c r="I18" s="135" t="s">
+      <c r="I18" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="J18" s="135" t="s">
+      <c r="J18" s="136" t="s">
         <v>480</v>
       </c>
-      <c r="K18" s="136" t="s">
+      <c r="K18" s="137" t="s">
         <v>482</v>
       </c>
-      <c r="L18" s="126">
+      <c r="L18" s="127">
         <f>IFERROR(MATCH(A18, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>28</v>
       </c>
-      <c r="M18" s="126" t="s">
+      <c r="M18" s="127" t="s">
         <v>483</v>
       </c>
-      <c r="N18" s="140" t="s">
+      <c r="N18" s="141" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A19" s="126" t="s">
+    <row r="19" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A19" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="128" t="s">
         <v>376</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="129" t="s">
         <v>470</v>
       </c>
-      <c r="E19" s="126" t="s">
+      <c r="E19" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="F19" s="137" t="s">
+      <c r="F19" s="138" t="s">
         <v>485</v>
       </c>
-      <c r="G19" s="141" t="s">
+      <c r="G19" s="142" t="s">
         <v>441</v>
       </c>
-      <c r="H19" s="135" t="s">
+      <c r="H19" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I19" s="201" t="s">
+      <c r="I19" s="202" t="s">
         <v>486</v>
       </c>
-      <c r="J19" s="201"/>
-      <c r="K19" s="136" t="s">
+      <c r="J19" s="202"/>
+      <c r="K19" s="137" t="s">
         <v>487</v>
       </c>
-      <c r="L19" s="126">
+      <c r="L19" s="127">
         <f>IFERROR(MATCH(A19, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>29</v>
       </c>
-      <c r="M19" s="126"/>
-      <c r="N19" s="140"/>
-    </row>
-    <row r="20" spans="1:14" s="133" customFormat="1" ht="60.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="126" t="s">
+      <c r="M19" s="127"/>
+      <c r="N19" s="141"/>
+    </row>
+    <row r="20" spans="1:14" s="134" customFormat="1" ht="60.4" x14ac:dyDescent="0.45">
+      <c r="A20" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="126" t="s">
+      <c r="D20" s="129"/>
+      <c r="E20" s="127" t="s">
         <v>454</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="140" t="s">
         <v>488</v>
       </c>
-      <c r="G20" s="141" t="s">
+      <c r="G20" s="142" t="s">
         <v>441</v>
       </c>
-      <c r="H20" s="135" t="s">
+      <c r="H20" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I20" s="135" t="s">
+      <c r="I20" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="J20" s="135" t="s">
+      <c r="J20" s="136" t="s">
         <v>480</v>
       </c>
-      <c r="K20" s="136"/>
-      <c r="L20" s="126">
+      <c r="K20" s="137"/>
+      <c r="L20" s="127">
         <f>IFERROR(MATCH(A20, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>30</v>
       </c>
-      <c r="M20" s="126"/>
-      <c r="N20" s="126"/>
-    </row>
-    <row r="21" spans="1:14" s="133" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="126" t="s">
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+    </row>
+    <row r="21" spans="1:14" s="134" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="126" t="s">
+      <c r="D21" s="129"/>
+      <c r="E21" s="127" t="s">
         <v>454</v>
       </c>
-      <c r="F21" s="126"/>
-      <c r="G21" s="134" t="s">
+      <c r="F21" s="127"/>
+      <c r="G21" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="H21" s="135" t="s">
+      <c r="H21" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I21" s="135" t="s">
+      <c r="I21" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="J21" s="135" t="s">
+      <c r="J21" s="136" t="s">
         <v>445</v>
       </c>
-      <c r="K21" s="127"/>
-      <c r="L21" s="126">
+      <c r="K21" s="128"/>
+      <c r="L21" s="127">
         <f>IFERROR(MATCH(A21, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>36</v>
       </c>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-    </row>
-    <row r="22" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A22" s="126" t="s">
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+    </row>
+    <row r="22" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A22" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="126" t="s">
+      <c r="D22" s="129"/>
+      <c r="E22" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="F22" s="137" t="s">
+      <c r="F22" s="138" t="s">
         <v>489</v>
       </c>
-      <c r="G22" s="141" t="s">
+      <c r="G22" s="142" t="s">
         <v>441</v>
       </c>
-      <c r="H22" s="135" t="s">
+      <c r="H22" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I22" s="135" t="s">
+      <c r="I22" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="J22" s="135" t="s">
+      <c r="J22" s="136" t="s">
         <v>490</v>
       </c>
-      <c r="K22" s="127"/>
-      <c r="L22" s="126">
+      <c r="K22" s="128"/>
+      <c r="L22" s="127">
         <f>IFERROR(MATCH(A22, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>37</v>
       </c>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-    </row>
-    <row r="23" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A23" s="126" t="s">
+      <c r="M22" s="127"/>
+      <c r="N22" s="127"/>
+    </row>
+    <row r="23" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A23" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="207" t="s">
+      <c r="D23" s="129"/>
+      <c r="E23" s="208" t="s">
         <v>450</v>
       </c>
-      <c r="F23" s="126"/>
-      <c r="G23" s="134" t="s">
+      <c r="F23" s="127"/>
+      <c r="G23" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="H23" s="135" t="s">
+      <c r="H23" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I23" s="135" t="s">
+      <c r="I23" s="136" t="s">
         <v>472</v>
       </c>
-      <c r="J23" s="135" t="s">
+      <c r="J23" s="136" t="s">
         <v>377</v>
       </c>
-      <c r="K23" s="136"/>
-      <c r="L23" s="126">
+      <c r="K23" s="137"/>
+      <c r="L23" s="127">
         <f>IFERROR(MATCH(A23, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>39</v>
       </c>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-    </row>
-    <row r="24" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A24" s="126" t="s">
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+    </row>
+    <row r="24" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A24" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="126" t="s">
+      <c r="D24" s="129"/>
+      <c r="E24" s="127" t="s">
         <v>440</v>
       </c>
-      <c r="F24" s="126"/>
-      <c r="G24" s="128" t="s">
+      <c r="F24" s="127"/>
+      <c r="G24" s="129" t="s">
         <v>447</v>
       </c>
-      <c r="H24" s="135" t="s">
+      <c r="H24" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I24" s="135" t="s">
+      <c r="I24" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="J24" s="135" t="s">
+      <c r="J24" s="136" t="s">
         <v>445</v>
       </c>
-      <c r="K24" s="139" t="s">
+      <c r="K24" s="140" t="s">
         <v>491</v>
       </c>
-      <c r="L24" s="126">
+      <c r="L24" s="127">
         <f>IFERROR(MATCH(A24, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>44</v>
       </c>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-    </row>
-    <row r="25" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A25" s="126" t="s">
+      <c r="M24" s="127"/>
+      <c r="N24" s="127"/>
+    </row>
+    <row r="25" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A25" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C25" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D25" s="128" t="s">
+      <c r="D25" s="129" t="s">
         <v>470</v>
       </c>
-      <c r="E25" s="126" t="s">
+      <c r="E25" s="127" t="s">
         <v>440</v>
       </c>
-      <c r="F25" s="139" t="s">
+      <c r="F25" s="140" t="s">
         <v>492</v>
       </c>
-      <c r="G25" s="141" t="s">
+      <c r="G25" s="142" t="s">
         <v>441</v>
       </c>
-      <c r="H25" s="135" t="s">
+      <c r="H25" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I25" s="135" t="s">
+      <c r="I25" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="J25" s="142" t="s">
+      <c r="J25" s="143" t="s">
         <v>441</v>
       </c>
-      <c r="K25" s="136" t="s">
+      <c r="K25" s="137" t="s">
         <v>493</v>
       </c>
-      <c r="L25" s="126">
+      <c r="L25" s="127">
         <f>IFERROR(MATCH(A25, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>45</v>
       </c>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-    </row>
-    <row r="26" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A26" s="126" t="s">
+      <c r="M25" s="127"/>
+      <c r="N25" s="127"/>
+    </row>
+    <row r="26" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A26" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="126" t="s">
+      <c r="D26" s="129"/>
+      <c r="E26" s="127" t="s">
         <v>440</v>
       </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="205" t="s">
+      <c r="F26" s="127"/>
+      <c r="G26" s="206" t="s">
         <v>494</v>
       </c>
-      <c r="H26" s="135" t="s">
+      <c r="H26" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I26" s="145" t="s">
+      <c r="I26" s="146" t="s">
         <v>495</v>
       </c>
-      <c r="J26" s="146" t="s">
+      <c r="J26" s="147" t="s">
         <v>496</v>
       </c>
-      <c r="K26" s="136" t="s">
+      <c r="K26" s="137" t="s">
         <v>497</v>
       </c>
-      <c r="L26" s="126">
+      <c r="L26" s="127">
         <f>IFERROR(MATCH(A26, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>46</v>
       </c>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-    </row>
-    <row r="27" spans="1:14" s="133" customFormat="1" ht="75" x14ac:dyDescent="0.45">
-      <c r="A27" s="125" t="s">
+      <c r="M26" s="127"/>
+      <c r="N26" s="127"/>
+    </row>
+    <row r="27" spans="1:14" s="134" customFormat="1" ht="75" x14ac:dyDescent="0.45">
+      <c r="A27" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="126" t="s">
+      <c r="C27" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="138" t="s">
+      <c r="D27" s="129"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="139" t="s">
         <v>445</v>
       </c>
-      <c r="H27" s="135" t="s">
+      <c r="H27" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I27" s="135" t="s">
+      <c r="I27" s="136" t="s">
         <v>446</v>
       </c>
-      <c r="J27" s="201"/>
-      <c r="K27" s="136" t="s">
+      <c r="J27" s="202"/>
+      <c r="K27" s="137" t="s">
         <v>498</v>
       </c>
-      <c r="L27" s="126">
+      <c r="L27" s="127">
         <f>IFERROR(MATCH(A27, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>47</v>
       </c>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-    </row>
-    <row r="28" spans="1:14" s="133" customFormat="1" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="126" t="s">
+      <c r="M27" s="127"/>
+      <c r="N27" s="127"/>
+    </row>
+    <row r="28" spans="1:14" s="134" customFormat="1" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A28" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="127" t="s">
+      <c r="B28" s="128" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D28" s="128" t="s">
+      <c r="D28" s="129" t="s">
         <v>470</v>
       </c>
-      <c r="E28" s="126" t="s">
+      <c r="E28" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="F28" s="137" t="s">
+      <c r="F28" s="138" t="s">
         <v>499</v>
       </c>
-      <c r="G28" s="141" t="s">
+      <c r="G28" s="142" t="s">
         <v>441</v>
       </c>
-      <c r="H28" s="135" t="s">
+      <c r="H28" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I28" s="135" t="s">
+      <c r="I28" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="J28" s="202" t="s">
+      <c r="J28" s="203" t="s">
         <v>500</v>
       </c>
-      <c r="K28" s="136"/>
-      <c r="L28" s="126">
+      <c r="K28" s="137"/>
+      <c r="L28" s="127">
         <f>IFERROR(MATCH(A28, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>48</v>
       </c>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-    </row>
-    <row r="29" spans="1:14" s="133" customFormat="1" ht="75" x14ac:dyDescent="0.45">
-      <c r="A29" s="126" t="s">
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+    </row>
+    <row r="29" spans="1:14" s="134" customFormat="1" ht="75" x14ac:dyDescent="0.45">
+      <c r="A29" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="126" t="s">
+      <c r="C29" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D29" s="128" t="s">
+      <c r="D29" s="129" t="s">
         <v>470</v>
       </c>
-      <c r="E29" s="126" t="s">
+      <c r="E29" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="F29" s="137" t="s">
+      <c r="F29" s="138" t="s">
         <v>501</v>
       </c>
-      <c r="G29" s="141" t="s">
+      <c r="G29" s="142" t="s">
         <v>441</v>
       </c>
-      <c r="H29" s="135" t="s">
+      <c r="H29" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I29" s="135" t="s">
+      <c r="I29" s="136" t="s">
         <v>502</v>
       </c>
-      <c r="J29" s="135" t="s">
+      <c r="J29" s="136" t="s">
         <v>334</v>
       </c>
-      <c r="K29" s="143" t="s">
+      <c r="K29" s="144" t="s">
         <v>503</v>
       </c>
-      <c r="L29" s="126">
+      <c r="L29" s="127">
         <f>IFERROR(MATCH(A29, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>41</v>
       </c>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-    </row>
-    <row r="30" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A30" s="126" t="s">
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+    </row>
+    <row r="30" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A30" s="127" t="s">
         <v>504</v>
       </c>
-      <c r="B30" s="127" t="s">
+      <c r="B30" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="126" t="s">
+      <c r="C30" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="138" t="s">
+      <c r="D30" s="129"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="139" t="s">
         <v>445</v>
       </c>
-      <c r="H30" s="135" t="s">
+      <c r="H30" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I30" s="135" t="s">
+      <c r="I30" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="J30" s="135" t="s">
+      <c r="J30" s="136" t="s">
         <v>334</v>
       </c>
-      <c r="L30" s="126" t="str">
+      <c r="L30" s="127" t="str">
         <f>IFERROR(MATCH(A30, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>No</v>
       </c>
-      <c r="M30" s="126" t="s">
+      <c r="M30" s="127" t="s">
         <v>505</v>
       </c>
-      <c r="N30" s="140" t="s">
+      <c r="N30" s="141" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A31" s="126" t="s">
+    <row r="31" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A31" s="127" t="s">
         <v>507</v>
       </c>
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="126" t="s">
+      <c r="C31" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="138" t="s">
+      <c r="D31" s="129"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="139" t="s">
         <v>445</v>
       </c>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135" t="s">
+      <c r="H31" s="136"/>
+      <c r="I31" s="136" t="s">
         <v>508</v>
       </c>
-      <c r="J31" s="135"/>
-      <c r="K31" s="144" t="s">
+      <c r="J31" s="136"/>
+      <c r="K31" s="145" t="s">
         <v>509</v>
       </c>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-    </row>
-    <row r="32" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A32" s="126" t="s">
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="127"/>
+    </row>
+    <row r="32" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A32" s="127" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="128" t="s">
         <v>376</v>
       </c>
-      <c r="C32" s="126" t="s">
+      <c r="C32" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D32" s="128" t="s">
+      <c r="D32" s="129" t="s">
         <v>470</v>
       </c>
-      <c r="E32" s="126" t="s">
+      <c r="E32" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="F32" s="137" t="s">
+      <c r="F32" s="138" t="s">
         <v>501</v>
       </c>
-      <c r="G32" s="141" t="s">
+      <c r="G32" s="142" t="s">
         <v>441</v>
       </c>
-      <c r="H32" s="135" t="s">
+      <c r="H32" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I32" s="201" t="s">
+      <c r="I32" s="202" t="s">
         <v>472</v>
       </c>
-      <c r="J32" s="135" t="s">
+      <c r="J32" s="136" t="s">
         <v>445</v>
       </c>
-      <c r="K32" s="136" t="s">
+      <c r="K32" s="137" t="s">
         <v>510</v>
       </c>
-      <c r="L32" s="126">
+      <c r="L32" s="127">
         <f>IFERROR(MATCH(A32, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>51</v>
       </c>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-    </row>
-    <row r="33" spans="1:14" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A33" s="126" t="s">
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+    </row>
+    <row r="33" spans="1:14" s="134" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A33" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="126" t="s">
+      <c r="C33" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="138" t="s">
+      <c r="D33" s="129"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="139" t="s">
         <v>445</v>
       </c>
-      <c r="H33" s="135" t="s">
+      <c r="H33" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I33" s="135" t="s">
+      <c r="I33" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="J33" s="135" t="s">
+      <c r="J33" s="136" t="s">
         <v>511</v>
       </c>
-      <c r="K33" s="127"/>
-      <c r="L33" s="126">
+      <c r="K33" s="128"/>
+      <c r="L33" s="127">
         <f>IFERROR(MATCH(A33, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>17</v>
       </c>
-      <c r="M33" s="127" t="s">
+      <c r="M33" s="128" t="s">
         <v>512</v>
       </c>
-      <c r="N33" s="132" t="s">
+      <c r="N33" s="133" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A34" s="126" t="s">
+    <row r="34" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A34" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="127" t="s">
+      <c r="B34" s="128" t="s">
         <v>376</v>
       </c>
-      <c r="C34" s="126" t="s">
+      <c r="C34" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126" t="s">
+      <c r="D34" s="129"/>
+      <c r="E34" s="127" t="s">
         <v>480</v>
       </c>
-      <c r="F34" s="126"/>
-      <c r="G34" s="138" t="s">
+      <c r="F34" s="127"/>
+      <c r="G34" s="139" t="s">
         <v>445</v>
       </c>
-      <c r="H34" s="135" t="s">
+      <c r="H34" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I34" s="135" t="s">
+      <c r="I34" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="J34" s="135" t="s">
+      <c r="J34" s="136" t="s">
         <v>445</v>
       </c>
-      <c r="K34" s="136"/>
-      <c r="L34" s="126">
+      <c r="K34" s="137"/>
+      <c r="L34" s="127">
         <f>IFERROR(MATCH(A34, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>53</v>
       </c>
-      <c r="M34" s="126"/>
-      <c r="N34" s="126"/>
-    </row>
-    <row r="35" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A35" s="126" t="s">
+      <c r="M34" s="127"/>
+      <c r="N34" s="127"/>
+    </row>
+    <row r="35" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A35" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="127" t="s">
+      <c r="B35" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="126" t="s">
+      <c r="C35" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="138" t="s">
+      <c r="D35" s="129"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="139" t="s">
         <v>445</v>
       </c>
-      <c r="H35" s="135" t="s">
+      <c r="H35" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I35" s="135" t="s">
+      <c r="I35" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="J35" s="135" t="s">
+      <c r="J35" s="136" t="s">
         <v>480</v>
       </c>
-      <c r="K35" s="127"/>
-      <c r="L35" s="126">
+      <c r="K35" s="128"/>
+      <c r="L35" s="127">
         <f>IFERROR(MATCH(A35, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>55</v>
       </c>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-    </row>
-    <row r="36" spans="1:14" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A36" s="125" t="s">
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+    </row>
+    <row r="36" spans="1:14" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A36" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="128" t="s">
         <v>376</v>
       </c>
-      <c r="C36" s="126" t="s">
+      <c r="C36" s="127" t="s">
         <v>439</v>
       </c>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="138" t="s">
+      <c r="D36" s="129"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="139" t="s">
         <v>445</v>
       </c>
-      <c r="H36" s="135" t="s">
+      <c r="H36" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="I36" s="135" t="s">
+      <c r="I36" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="J36" s="135" t="s">
+      <c r="J36" s="136" t="s">
         <v>445</v>
       </c>
-      <c r="K36" s="136"/>
-      <c r="L36" s="126">
+      <c r="K36" s="137"/>
+      <c r="L36" s="127">
         <f>IFERROR(MATCH(A36, 'CDS3 guidelines'!$A$2:$A$62, 0), "No")</f>
         <v>56</v>
       </c>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L36" xr:uid="{01A691B4-AA68-48E3-AD22-997914FE3569}">
@@ -26062,177 +26077,177 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="97" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="97" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="97" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="97" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="97" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="97" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="97" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="97" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="97" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="97" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="97" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="97" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="97" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="97" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="97" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="97" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="97" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="97" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="97" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="97" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="97" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="97" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="97" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="97" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="97" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="97" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="97" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="97" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="97" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="97" t="s">
         <v>242</v>
       </c>
       <c r="B36" t="s">
@@ -26240,32 +26255,32 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="97" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="97" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="97" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A40" s="96" t="s">
+      <c r="A40" s="97" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="97" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="97" t="s">
         <v>98</v>
       </c>
       <c r="B42" t="s">
@@ -26273,32 +26288,32 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="97" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="97" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A45" s="96" t="s">
+      <c r="A45" s="97" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A46" s="96" t="s">
+      <c r="A46" s="97" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A47" s="96" t="s">
+      <c r="A47" s="97" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A48" s="96" t="s">
+      <c r="A48" s="97" t="s">
         <v>92</v>
       </c>
       <c r="B48" t="s">
@@ -26306,7 +26321,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="97" t="s">
         <v>95</v>
       </c>
       <c r="B49" t="s">
@@ -26314,7 +26329,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A50" s="96" t="s">
+      <c r="A50" s="97" t="s">
         <v>102</v>
       </c>
       <c r="B50" t="s">
@@ -26322,32 +26337,32 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="97" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A52" s="96" t="s">
+      <c r="A52" s="97" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A53" s="96" t="s">
+      <c r="A53" s="97" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A54" s="96" t="s">
+      <c r="A54" s="97" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A55" s="96" t="s">
+      <c r="A55" s="97" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="97" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
@@ -26355,12 +26370,12 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A57" s="96" t="s">
+      <c r="A57" s="97" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A58" s="96" t="s">
+      <c r="A58" s="97" t="s">
         <v>306</v>
       </c>
     </row>
@@ -26390,30 +26405,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cd273273-2d29-47ce-b53b-3ecfd61fda9e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf217452-244c-46eb-9f4c-99f380b0c60c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB867F123546C4296AB31DA290F128A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="89664b52469f4bcdcd6d136448395abe">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf217452-244c-46eb-9f4c-99f380b0c60c" xmlns:ns3="cd273273-2d29-47ce-b53b-3ecfd61fda9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee0b98b873a3f134904137d42f5dbef8" ns2:_="" ns3:_="">
-    <xsd:import namespace="cf217452-244c-46eb-9f4c-99f380b0c60c"/>
-    <xsd:import namespace="cd273273-2d29-47ce-b53b-3ecfd61fda9e"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
+    <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
+    <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -26424,17 +26419,14 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -26442,7 +26434,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cf217452-244c-46eb-9f4c-99f380b0c60c" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b370a6fa-a798-42e0-969d-19c284d8683f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -26467,55 +26459,43 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="aa4eac88-8ae6-4a96-90c7-97bc93c844ef" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cd273273-2d29-47ce-b53b-3ecfd61fda9e" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="62ca1376-8bea-4949-825e-fec085c3924e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -26534,23 +26514,12 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d3977162-9fc0-4eb6-a20b-8063b6a10e11}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="cd273273-2d29-47ce-b53b-3ecfd61fda9e">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -26652,7 +26621,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A3457D-5457-4DEB-B061-BE31DF0B5CB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b370a6fa-a798-42e0-969d-19c284d8683f"/>
+    <ds:schemaRef ds:uri="62ca1376-8bea-4949-825e-fec085c3924e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9895CAF2-115F-4D6B-AFC0-E986E2DAAA4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -26660,7 +26663,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC106C94-D7F3-45A3-A47C-129DAA9EEEA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -26669,23 +26672,4 @@
     <ds:schemaRef ds:uri="cf217452-244c-46eb-9f4c-99f380b0c60c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{521B04F1-84F5-495C-A4C4-402CE0E2EB19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cf217452-244c-46eb-9f4c-99f380b0c60c"/>
-    <ds:schemaRef ds:uri="cd273273-2d29-47ce-b53b-3ecfd61fda9e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>